--- a/konig-spreadsheet/src/test/resources/data-dictionary.xlsx
+++ b/konig-spreadsheet/src/test/resources/data-dictionary.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>Term</t>
   </si>
@@ -305,6 +305,24 @@
   </si>
   <si>
     <t>https://example.com/exampleModel/AbbreviationScheme/</t>
+  </si>
+  <si>
+    <t>datasource</t>
+  </si>
+  <si>
+    <t>AwsAurora</t>
+  </si>
+  <si>
+    <t>awsAuroraHost</t>
+  </si>
+  <si>
+    <t>devHost</t>
+  </si>
+  <si>
+    <t>awsAuroraSchema</t>
+  </si>
+  <si>
+    <t>schema1</t>
   </si>
 </sst>
 </file>
@@ -23109,7 +23127,7 @@
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -64174,10 +64192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -64216,6 +64234,30 @@
       </c>
       <c r="B4" s="28" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/konig-spreadsheet/src/test/resources/data-dictionary.xlsx
+++ b/konig-spreadsheet/src/test/resources/data-dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDW\Konig\konig-spreadsheet\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\598182\Documents\konig\konig-spreadsheet\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="1620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10692" windowHeight="1620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Term</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>schema1</t>
+  </si>
+  <si>
+    <t>Unique Key</t>
   </si>
 </sst>
 </file>
@@ -1005,19 +1008,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="26" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1">
@@ -1112,7 +1115,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.4">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1170,7 +1173,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.4">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1198,7 +1201,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.4">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1226,7 +1229,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1254,7 +1257,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1282,7 +1285,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1310,7 +1313,7 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1338,7 +1341,7 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1366,7 +1369,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1394,7 +1397,7 @@
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1422,7 +1425,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1450,7 +1453,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
     </row>
-    <row r="16" spans="1:26" ht="12.75">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -15002,7 +15005,7 @@
       <c r="Y499" s="38"/>
       <c r="Z499" s="38"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" ht="14.4">
       <c r="A500" s="23"/>
       <c r="B500" s="23"/>
       <c r="C500" s="23"/>
@@ -15019,7 +15022,7 @@
       <c r="N500" s="23"/>
       <c r="O500" s="23"/>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" spans="1:26" ht="14.4">
       <c r="A501" s="23"/>
       <c r="B501" s="23"/>
       <c r="C501" s="23"/>
@@ -15036,7 +15039,7 @@
       <c r="N501" s="23"/>
       <c r="O501" s="23"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" ht="14.4">
       <c r="A502" s="23"/>
       <c r="B502" s="23"/>
       <c r="C502" s="23"/>
@@ -15053,7 +15056,7 @@
       <c r="N502" s="23"/>
       <c r="O502" s="23"/>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" spans="1:26" ht="14.4">
       <c r="A503" s="23"/>
       <c r="B503" s="23"/>
       <c r="C503" s="23"/>
@@ -15070,7 +15073,7 @@
       <c r="N503" s="23"/>
       <c r="O503" s="23"/>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" spans="1:26" ht="14.4">
       <c r="A504" s="23"/>
       <c r="B504" s="23"/>
       <c r="C504" s="23"/>
@@ -15087,7 +15090,7 @@
       <c r="N504" s="23"/>
       <c r="O504" s="23"/>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:26" ht="14.4">
       <c r="A505" s="23"/>
       <c r="B505" s="23"/>
       <c r="C505" s="23"/>
@@ -15104,7 +15107,7 @@
       <c r="N505" s="23"/>
       <c r="O505" s="23"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" spans="1:26" ht="14.4">
       <c r="A506" s="23"/>
       <c r="B506" s="23"/>
       <c r="C506" s="23"/>
@@ -15121,7 +15124,7 @@
       <c r="N506" s="23"/>
       <c r="O506" s="23"/>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" spans="1:26" ht="14.4">
       <c r="A507" s="23"/>
       <c r="B507" s="23"/>
       <c r="C507" s="23"/>
@@ -15138,7 +15141,7 @@
       <c r="N507" s="23"/>
       <c r="O507" s="23"/>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" spans="1:26" ht="14.4">
       <c r="A508" s="23"/>
       <c r="B508" s="23"/>
       <c r="C508" s="23"/>
@@ -15155,7 +15158,7 @@
       <c r="N508" s="23"/>
       <c r="O508" s="23"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" ht="14.4">
       <c r="A509" s="23"/>
       <c r="B509" s="23"/>
       <c r="C509" s="23"/>
@@ -15172,7 +15175,7 @@
       <c r="N509" s="23"/>
       <c r="O509" s="23"/>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" spans="1:26" ht="14.4">
       <c r="A510" s="23"/>
       <c r="B510" s="23"/>
       <c r="C510" s="23"/>
@@ -15189,7 +15192,7 @@
       <c r="N510" s="23"/>
       <c r="O510" s="23"/>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" spans="1:26" ht="14.4">
       <c r="A511" s="23"/>
       <c r="B511" s="23"/>
       <c r="C511" s="23"/>
@@ -15206,7 +15209,7 @@
       <c r="N511" s="23"/>
       <c r="O511" s="23"/>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" spans="1:26" ht="14.4">
       <c r="A512" s="23"/>
       <c r="B512" s="23"/>
       <c r="C512" s="23"/>
@@ -15223,7 +15226,7 @@
       <c r="N512" s="23"/>
       <c r="O512" s="23"/>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" ht="14.4">
       <c r="A513" s="23"/>
       <c r="B513" s="23"/>
       <c r="C513" s="23"/>
@@ -15240,7 +15243,7 @@
       <c r="N513" s="23"/>
       <c r="O513" s="23"/>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" ht="14.4">
       <c r="A514" s="23"/>
       <c r="B514" s="23"/>
       <c r="C514" s="23"/>
@@ -15257,7 +15260,7 @@
       <c r="N514" s="23"/>
       <c r="O514" s="23"/>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" ht="14.4">
       <c r="A515" s="23"/>
       <c r="B515" s="23"/>
       <c r="C515" s="23"/>
@@ -15274,7 +15277,7 @@
       <c r="N515" s="23"/>
       <c r="O515" s="23"/>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" ht="14.4">
       <c r="A516" s="23"/>
       <c r="B516" s="23"/>
       <c r="C516" s="23"/>
@@ -15291,7 +15294,7 @@
       <c r="N516" s="23"/>
       <c r="O516" s="23"/>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" ht="14.4">
       <c r="A517" s="23"/>
       <c r="B517" s="23"/>
       <c r="C517" s="23"/>
@@ -15308,7 +15311,7 @@
       <c r="N517" s="23"/>
       <c r="O517" s="23"/>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" ht="14.4">
       <c r="A518" s="23"/>
       <c r="B518" s="23"/>
       <c r="C518" s="23"/>
@@ -15325,7 +15328,7 @@
       <c r="N518" s="23"/>
       <c r="O518" s="23"/>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" ht="14.4">
       <c r="A519" s="23"/>
       <c r="B519" s="23"/>
       <c r="C519" s="23"/>
@@ -15342,7 +15345,7 @@
       <c r="N519" s="23"/>
       <c r="O519" s="23"/>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" ht="14.4">
       <c r="A520" s="23"/>
       <c r="B520" s="23"/>
       <c r="C520" s="23"/>
@@ -15359,7 +15362,7 @@
       <c r="N520" s="23"/>
       <c r="O520" s="23"/>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" ht="14.4">
       <c r="A521" s="23"/>
       <c r="B521" s="23"/>
       <c r="C521" s="23"/>
@@ -15376,7 +15379,7 @@
       <c r="N521" s="23"/>
       <c r="O521" s="23"/>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" ht="14.4">
       <c r="A522" s="23"/>
       <c r="B522" s="23"/>
       <c r="C522" s="23"/>
@@ -15393,7 +15396,7 @@
       <c r="N522" s="23"/>
       <c r="O522" s="23"/>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" ht="14.4">
       <c r="A523" s="23"/>
       <c r="B523" s="23"/>
       <c r="C523" s="23"/>
@@ -15410,7 +15413,7 @@
       <c r="N523" s="23"/>
       <c r="O523" s="23"/>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" ht="14.4">
       <c r="A524" s="23"/>
       <c r="B524" s="23"/>
       <c r="C524" s="23"/>
@@ -15427,7 +15430,7 @@
       <c r="N524" s="23"/>
       <c r="O524" s="23"/>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" ht="14.4">
       <c r="A525" s="23"/>
       <c r="B525" s="23"/>
       <c r="C525" s="23"/>
@@ -15444,7 +15447,7 @@
       <c r="N525" s="23"/>
       <c r="O525" s="23"/>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" ht="14.4">
       <c r="A526" s="23"/>
       <c r="B526" s="23"/>
       <c r="C526" s="23"/>
@@ -15461,7 +15464,7 @@
       <c r="N526" s="23"/>
       <c r="O526" s="23"/>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" ht="14.4">
       <c r="A527" s="23"/>
       <c r="B527" s="23"/>
       <c r="C527" s="23"/>
@@ -15478,7 +15481,7 @@
       <c r="N527" s="23"/>
       <c r="O527" s="23"/>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" ht="14.4">
       <c r="A528" s="23"/>
       <c r="B528" s="23"/>
       <c r="C528" s="23"/>
@@ -15495,7 +15498,7 @@
       <c r="N528" s="23"/>
       <c r="O528" s="23"/>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" ht="14.4">
       <c r="A529" s="23"/>
       <c r="B529" s="23"/>
       <c r="C529" s="23"/>
@@ -15512,7 +15515,7 @@
       <c r="N529" s="23"/>
       <c r="O529" s="23"/>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" ht="14.4">
       <c r="A530" s="23"/>
       <c r="B530" s="23"/>
       <c r="C530" s="23"/>
@@ -15529,7 +15532,7 @@
       <c r="N530" s="23"/>
       <c r="O530" s="23"/>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" ht="14.4">
       <c r="A531" s="23"/>
       <c r="B531" s="23"/>
       <c r="C531" s="23"/>
@@ -15546,7 +15549,7 @@
       <c r="N531" s="23"/>
       <c r="O531" s="23"/>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" ht="14.4">
       <c r="A532" s="23"/>
       <c r="B532" s="23"/>
       <c r="C532" s="23"/>
@@ -15563,7 +15566,7 @@
       <c r="N532" s="23"/>
       <c r="O532" s="23"/>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" ht="14.4">
       <c r="A533" s="23"/>
       <c r="B533" s="23"/>
       <c r="C533" s="23"/>
@@ -15580,7 +15583,7 @@
       <c r="N533" s="23"/>
       <c r="O533" s="23"/>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" ht="14.4">
       <c r="A534" s="23"/>
       <c r="B534" s="23"/>
       <c r="C534" s="23"/>
@@ -15597,7 +15600,7 @@
       <c r="N534" s="23"/>
       <c r="O534" s="23"/>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" ht="14.4">
       <c r="A535" s="23"/>
       <c r="B535" s="23"/>
       <c r="C535" s="23"/>
@@ -15614,7 +15617,7 @@
       <c r="N535" s="23"/>
       <c r="O535" s="23"/>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" ht="14.4">
       <c r="A536" s="23"/>
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
@@ -15631,7 +15634,7 @@
       <c r="N536" s="23"/>
       <c r="O536" s="23"/>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" ht="14.4">
       <c r="A537" s="23"/>
       <c r="B537" s="23"/>
       <c r="C537" s="23"/>
@@ -15648,7 +15651,7 @@
       <c r="N537" s="23"/>
       <c r="O537" s="23"/>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" ht="14.4">
       <c r="A538" s="23"/>
       <c r="B538" s="23"/>
       <c r="C538" s="23"/>
@@ -15665,7 +15668,7 @@
       <c r="N538" s="23"/>
       <c r="O538" s="23"/>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" ht="14.4">
       <c r="A539" s="23"/>
       <c r="B539" s="23"/>
       <c r="C539" s="23"/>
@@ -15682,7 +15685,7 @@
       <c r="N539" s="23"/>
       <c r="O539" s="23"/>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" ht="14.4">
       <c r="A540" s="23"/>
       <c r="B540" s="23"/>
       <c r="C540" s="23"/>
@@ -15699,7 +15702,7 @@
       <c r="N540" s="23"/>
       <c r="O540" s="23"/>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" ht="14.4">
       <c r="A541" s="23"/>
       <c r="B541" s="23"/>
       <c r="C541" s="23"/>
@@ -15716,7 +15719,7 @@
       <c r="N541" s="23"/>
       <c r="O541" s="23"/>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" ht="14.4">
       <c r="A542" s="23"/>
       <c r="B542" s="23"/>
       <c r="C542" s="23"/>
@@ -15733,7 +15736,7 @@
       <c r="N542" s="23"/>
       <c r="O542" s="23"/>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" ht="14.4">
       <c r="A543" s="23"/>
       <c r="B543" s="23"/>
       <c r="C543" s="23"/>
@@ -15750,7 +15753,7 @@
       <c r="N543" s="23"/>
       <c r="O543" s="23"/>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" ht="14.4">
       <c r="A544" s="23"/>
       <c r="B544" s="23"/>
       <c r="C544" s="23"/>
@@ -15767,7 +15770,7 @@
       <c r="N544" s="23"/>
       <c r="O544" s="23"/>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" ht="14.4">
       <c r="A545" s="23"/>
       <c r="B545" s="23"/>
       <c r="C545" s="23"/>
@@ -15784,7 +15787,7 @@
       <c r="N545" s="23"/>
       <c r="O545" s="23"/>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" ht="14.4">
       <c r="A546" s="23"/>
       <c r="B546" s="23"/>
       <c r="C546" s="23"/>
@@ -15801,7 +15804,7 @@
       <c r="N546" s="23"/>
       <c r="O546" s="23"/>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" ht="14.4">
       <c r="A547" s="23"/>
       <c r="B547" s="23"/>
       <c r="C547" s="23"/>
@@ -15818,7 +15821,7 @@
       <c r="N547" s="23"/>
       <c r="O547" s="23"/>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" ht="14.4">
       <c r="A548" s="23"/>
       <c r="B548" s="23"/>
       <c r="C548" s="23"/>
@@ -15835,7 +15838,7 @@
       <c r="N548" s="23"/>
       <c r="O548" s="23"/>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" ht="14.4">
       <c r="A549" s="23"/>
       <c r="B549" s="23"/>
       <c r="C549" s="23"/>
@@ -15852,7 +15855,7 @@
       <c r="N549" s="23"/>
       <c r="O549" s="23"/>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" ht="14.4">
       <c r="A550" s="23"/>
       <c r="B550" s="23"/>
       <c r="C550" s="23"/>
@@ -15869,7 +15872,7 @@
       <c r="N550" s="23"/>
       <c r="O550" s="23"/>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" ht="14.4">
       <c r="A551" s="23"/>
       <c r="B551" s="23"/>
       <c r="C551" s="23"/>
@@ -15886,7 +15889,7 @@
       <c r="N551" s="23"/>
       <c r="O551" s="23"/>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" ht="14.4">
       <c r="A552" s="23"/>
       <c r="B552" s="23"/>
       <c r="C552" s="23"/>
@@ -15903,7 +15906,7 @@
       <c r="N552" s="23"/>
       <c r="O552" s="23"/>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" ht="14.4">
       <c r="A553" s="23"/>
       <c r="B553" s="23"/>
       <c r="C553" s="23"/>
@@ -15920,7 +15923,7 @@
       <c r="N553" s="23"/>
       <c r="O553" s="23"/>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" ht="14.4">
       <c r="A554" s="23"/>
       <c r="B554" s="23"/>
       <c r="C554" s="23"/>
@@ -15937,7 +15940,7 @@
       <c r="N554" s="23"/>
       <c r="O554" s="23"/>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" ht="14.4">
       <c r="A555" s="23"/>
       <c r="B555" s="23"/>
       <c r="C555" s="23"/>
@@ -15954,7 +15957,7 @@
       <c r="N555" s="23"/>
       <c r="O555" s="23"/>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" ht="14.4">
       <c r="A556" s="23"/>
       <c r="B556" s="23"/>
       <c r="C556" s="23"/>
@@ -15971,7 +15974,7 @@
       <c r="N556" s="23"/>
       <c r="O556" s="23"/>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" ht="14.4">
       <c r="A557" s="23"/>
       <c r="B557" s="23"/>
       <c r="C557" s="23"/>
@@ -15988,7 +15991,7 @@
       <c r="N557" s="23"/>
       <c r="O557" s="23"/>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" ht="14.4">
       <c r="A558" s="23"/>
       <c r="B558" s="23"/>
       <c r="C558" s="23"/>
@@ -16005,7 +16008,7 @@
       <c r="N558" s="23"/>
       <c r="O558" s="23"/>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" ht="14.4">
       <c r="A559" s="23"/>
       <c r="B559" s="23"/>
       <c r="C559" s="23"/>
@@ -16022,7 +16025,7 @@
       <c r="N559" s="23"/>
       <c r="O559" s="23"/>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" ht="14.4">
       <c r="A560" s="23"/>
       <c r="B560" s="23"/>
       <c r="C560" s="23"/>
@@ -16039,7 +16042,7 @@
       <c r="N560" s="23"/>
       <c r="O560" s="23"/>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" ht="14.4">
       <c r="A561" s="23"/>
       <c r="B561" s="23"/>
       <c r="C561" s="23"/>
@@ -16056,7 +16059,7 @@
       <c r="N561" s="23"/>
       <c r="O561" s="23"/>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" ht="14.4">
       <c r="A562" s="23"/>
       <c r="B562" s="23"/>
       <c r="C562" s="23"/>
@@ -16073,7 +16076,7 @@
       <c r="N562" s="23"/>
       <c r="O562" s="23"/>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" ht="14.4">
       <c r="A563" s="23"/>
       <c r="B563" s="23"/>
       <c r="C563" s="23"/>
@@ -16090,7 +16093,7 @@
       <c r="N563" s="23"/>
       <c r="O563" s="23"/>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" ht="14.4">
       <c r="A564" s="23"/>
       <c r="B564" s="23"/>
       <c r="C564" s="23"/>
@@ -16107,7 +16110,7 @@
       <c r="N564" s="23"/>
       <c r="O564" s="23"/>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" ht="14.4">
       <c r="A565" s="23"/>
       <c r="B565" s="23"/>
       <c r="C565" s="23"/>
@@ -16124,7 +16127,7 @@
       <c r="N565" s="23"/>
       <c r="O565" s="23"/>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" ht="14.4">
       <c r="A566" s="23"/>
       <c r="B566" s="23"/>
       <c r="C566" s="23"/>
@@ -16141,7 +16144,7 @@
       <c r="N566" s="23"/>
       <c r="O566" s="23"/>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" ht="14.4">
       <c r="A567" s="23"/>
       <c r="B567" s="23"/>
       <c r="C567" s="23"/>
@@ -16158,7 +16161,7 @@
       <c r="N567" s="23"/>
       <c r="O567" s="23"/>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" ht="14.4">
       <c r="A568" s="23"/>
       <c r="B568" s="23"/>
       <c r="C568" s="23"/>
@@ -16175,7 +16178,7 @@
       <c r="N568" s="23"/>
       <c r="O568" s="23"/>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" ht="14.4">
       <c r="A569" s="23"/>
       <c r="B569" s="23"/>
       <c r="C569" s="23"/>
@@ -16192,7 +16195,7 @@
       <c r="N569" s="23"/>
       <c r="O569" s="23"/>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" ht="14.4">
       <c r="A570" s="23"/>
       <c r="B570" s="23"/>
       <c r="C570" s="23"/>
@@ -16209,7 +16212,7 @@
       <c r="N570" s="23"/>
       <c r="O570" s="23"/>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" ht="14.4">
       <c r="A571" s="23"/>
       <c r="B571" s="23"/>
       <c r="C571" s="23"/>
@@ -16226,7 +16229,7 @@
       <c r="N571" s="23"/>
       <c r="O571" s="23"/>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" ht="14.4">
       <c r="A572" s="23"/>
       <c r="B572" s="23"/>
       <c r="C572" s="23"/>
@@ -16243,7 +16246,7 @@
       <c r="N572" s="23"/>
       <c r="O572" s="23"/>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" ht="14.4">
       <c r="A573" s="23"/>
       <c r="B573" s="23"/>
       <c r="C573" s="23"/>
@@ -16260,7 +16263,7 @@
       <c r="N573" s="23"/>
       <c r="O573" s="23"/>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" ht="14.4">
       <c r="A574" s="23"/>
       <c r="B574" s="23"/>
       <c r="C574" s="23"/>
@@ -16277,7 +16280,7 @@
       <c r="N574" s="23"/>
       <c r="O574" s="23"/>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" ht="14.4">
       <c r="A575" s="23"/>
       <c r="B575" s="23"/>
       <c r="C575" s="23"/>
@@ -16294,7 +16297,7 @@
       <c r="N575" s="23"/>
       <c r="O575" s="23"/>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" ht="14.4">
       <c r="A576" s="23"/>
       <c r="B576" s="23"/>
       <c r="C576" s="23"/>
@@ -16311,7 +16314,7 @@
       <c r="N576" s="23"/>
       <c r="O576" s="23"/>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" ht="14.4">
       <c r="A577" s="23"/>
       <c r="B577" s="23"/>
       <c r="C577" s="23"/>
@@ -16328,7 +16331,7 @@
       <c r="N577" s="23"/>
       <c r="O577" s="23"/>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" ht="14.4">
       <c r="A578" s="23"/>
       <c r="B578" s="23"/>
       <c r="C578" s="23"/>
@@ -16345,7 +16348,7 @@
       <c r="N578" s="23"/>
       <c r="O578" s="23"/>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" ht="14.4">
       <c r="A579" s="23"/>
       <c r="B579" s="23"/>
       <c r="C579" s="23"/>
@@ -16362,7 +16365,7 @@
       <c r="N579" s="23"/>
       <c r="O579" s="23"/>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" ht="14.4">
       <c r="A580" s="23"/>
       <c r="B580" s="23"/>
       <c r="C580" s="23"/>
@@ -16379,7 +16382,7 @@
       <c r="N580" s="23"/>
       <c r="O580" s="23"/>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" ht="14.4">
       <c r="A581" s="23"/>
       <c r="B581" s="23"/>
       <c r="C581" s="23"/>
@@ -16396,7 +16399,7 @@
       <c r="N581" s="23"/>
       <c r="O581" s="23"/>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" ht="14.4">
       <c r="A582" s="23"/>
       <c r="B582" s="23"/>
       <c r="C582" s="23"/>
@@ -16413,7 +16416,7 @@
       <c r="N582" s="23"/>
       <c r="O582" s="23"/>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" ht="14.4">
       <c r="A583" s="23"/>
       <c r="B583" s="23"/>
       <c r="C583" s="23"/>
@@ -16430,7 +16433,7 @@
       <c r="N583" s="23"/>
       <c r="O583" s="23"/>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" ht="14.4">
       <c r="A584" s="23"/>
       <c r="B584" s="23"/>
       <c r="C584" s="23"/>
@@ -16447,7 +16450,7 @@
       <c r="N584" s="23"/>
       <c r="O584" s="23"/>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" ht="14.4">
       <c r="A585" s="23"/>
       <c r="B585" s="23"/>
       <c r="C585" s="23"/>
@@ -16464,7 +16467,7 @@
       <c r="N585" s="23"/>
       <c r="O585" s="23"/>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" ht="14.4">
       <c r="A586" s="23"/>
       <c r="B586" s="23"/>
       <c r="C586" s="23"/>
@@ -16481,7 +16484,7 @@
       <c r="N586" s="23"/>
       <c r="O586" s="23"/>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" ht="14.4">
       <c r="A587" s="23"/>
       <c r="B587" s="23"/>
       <c r="C587" s="23"/>
@@ -16498,7 +16501,7 @@
       <c r="N587" s="23"/>
       <c r="O587" s="23"/>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" ht="14.4">
       <c r="A588" s="23"/>
       <c r="B588" s="23"/>
       <c r="C588" s="23"/>
@@ -16515,7 +16518,7 @@
       <c r="N588" s="23"/>
       <c r="O588" s="23"/>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" ht="14.4">
       <c r="A589" s="23"/>
       <c r="B589" s="23"/>
       <c r="C589" s="23"/>
@@ -16532,7 +16535,7 @@
       <c r="N589" s="23"/>
       <c r="O589" s="23"/>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" ht="14.4">
       <c r="A590" s="23"/>
       <c r="B590" s="23"/>
       <c r="C590" s="23"/>
@@ -16549,7 +16552,7 @@
       <c r="N590" s="23"/>
       <c r="O590" s="23"/>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" ht="14.4">
       <c r="A591" s="23"/>
       <c r="B591" s="23"/>
       <c r="C591" s="23"/>
@@ -16566,7 +16569,7 @@
       <c r="N591" s="23"/>
       <c r="O591" s="23"/>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" ht="14.4">
       <c r="A592" s="23"/>
       <c r="B592" s="23"/>
       <c r="C592" s="23"/>
@@ -16583,7 +16586,7 @@
       <c r="N592" s="23"/>
       <c r="O592" s="23"/>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" ht="14.4">
       <c r="A593" s="23"/>
       <c r="B593" s="23"/>
       <c r="C593" s="23"/>
@@ -16600,7 +16603,7 @@
       <c r="N593" s="23"/>
       <c r="O593" s="23"/>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" ht="14.4">
       <c r="A594" s="23"/>
       <c r="B594" s="23"/>
       <c r="C594" s="23"/>
@@ -16617,7 +16620,7 @@
       <c r="N594" s="23"/>
       <c r="O594" s="23"/>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" ht="14.4">
       <c r="A595" s="23"/>
       <c r="B595" s="23"/>
       <c r="C595" s="23"/>
@@ -16634,7 +16637,7 @@
       <c r="N595" s="23"/>
       <c r="O595" s="23"/>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" ht="14.4">
       <c r="A596" s="23"/>
       <c r="B596" s="23"/>
       <c r="C596" s="23"/>
@@ -16651,7 +16654,7 @@
       <c r="N596" s="23"/>
       <c r="O596" s="23"/>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" ht="14.4">
       <c r="A597" s="23"/>
       <c r="B597" s="23"/>
       <c r="C597" s="23"/>
@@ -16668,7 +16671,7 @@
       <c r="N597" s="23"/>
       <c r="O597" s="23"/>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" ht="14.4">
       <c r="A598" s="23"/>
       <c r="B598" s="23"/>
       <c r="C598" s="23"/>
@@ -16685,7 +16688,7 @@
       <c r="N598" s="23"/>
       <c r="O598" s="23"/>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" ht="14.4">
       <c r="A599" s="23"/>
       <c r="B599" s="23"/>
       <c r="C599" s="23"/>
@@ -16702,7 +16705,7 @@
       <c r="N599" s="23"/>
       <c r="O599" s="23"/>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" ht="14.4">
       <c r="A600" s="23"/>
       <c r="B600" s="23"/>
       <c r="C600" s="23"/>
@@ -16719,7 +16722,7 @@
       <c r="N600" s="23"/>
       <c r="O600" s="23"/>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" ht="14.4">
       <c r="A601" s="23"/>
       <c r="B601" s="23"/>
       <c r="C601" s="23"/>
@@ -16736,7 +16739,7 @@
       <c r="N601" s="23"/>
       <c r="O601" s="23"/>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" ht="14.4">
       <c r="A602" s="23"/>
       <c r="B602" s="23"/>
       <c r="C602" s="23"/>
@@ -16753,7 +16756,7 @@
       <c r="N602" s="23"/>
       <c r="O602" s="23"/>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" ht="14.4">
       <c r="A603" s="23"/>
       <c r="B603" s="23"/>
       <c r="C603" s="23"/>
@@ -16770,7 +16773,7 @@
       <c r="N603" s="23"/>
       <c r="O603" s="23"/>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" ht="14.4">
       <c r="A604" s="23"/>
       <c r="B604" s="23"/>
       <c r="C604" s="23"/>
@@ -16787,7 +16790,7 @@
       <c r="N604" s="23"/>
       <c r="O604" s="23"/>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" ht="14.4">
       <c r="A605" s="23"/>
       <c r="B605" s="23"/>
       <c r="C605" s="23"/>
@@ -16804,7 +16807,7 @@
       <c r="N605" s="23"/>
       <c r="O605" s="23"/>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" ht="14.4">
       <c r="A606" s="23"/>
       <c r="B606" s="23"/>
       <c r="C606" s="23"/>
@@ -16821,7 +16824,7 @@
       <c r="N606" s="23"/>
       <c r="O606" s="23"/>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" ht="14.4">
       <c r="A607" s="23"/>
       <c r="B607" s="23"/>
       <c r="C607" s="23"/>
@@ -16838,7 +16841,7 @@
       <c r="N607" s="23"/>
       <c r="O607" s="23"/>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" ht="14.4">
       <c r="A608" s="23"/>
       <c r="B608" s="23"/>
       <c r="C608" s="23"/>
@@ -16855,7 +16858,7 @@
       <c r="N608" s="23"/>
       <c r="O608" s="23"/>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" ht="14.4">
       <c r="A609" s="23"/>
       <c r="B609" s="23"/>
       <c r="C609" s="23"/>
@@ -16872,7 +16875,7 @@
       <c r="N609" s="23"/>
       <c r="O609" s="23"/>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" ht="14.4">
       <c r="A610" s="23"/>
       <c r="B610" s="23"/>
       <c r="C610" s="23"/>
@@ -16889,7 +16892,7 @@
       <c r="N610" s="23"/>
       <c r="O610" s="23"/>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" ht="14.4">
       <c r="A611" s="23"/>
       <c r="B611" s="23"/>
       <c r="C611" s="23"/>
@@ -16906,7 +16909,7 @@
       <c r="N611" s="23"/>
       <c r="O611" s="23"/>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" ht="14.4">
       <c r="A612" s="23"/>
       <c r="B612" s="23"/>
       <c r="C612" s="23"/>
@@ -16923,7 +16926,7 @@
       <c r="N612" s="23"/>
       <c r="O612" s="23"/>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" ht="14.4">
       <c r="A613" s="23"/>
       <c r="B613" s="23"/>
       <c r="C613" s="23"/>
@@ -16940,7 +16943,7 @@
       <c r="N613" s="23"/>
       <c r="O613" s="23"/>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" ht="14.4">
       <c r="A614" s="23"/>
       <c r="B614" s="23"/>
       <c r="C614" s="23"/>
@@ -16957,7 +16960,7 @@
       <c r="N614" s="23"/>
       <c r="O614" s="23"/>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" ht="14.4">
       <c r="A615" s="23"/>
       <c r="B615" s="23"/>
       <c r="C615" s="23"/>
@@ -16974,7 +16977,7 @@
       <c r="N615" s="23"/>
       <c r="O615" s="23"/>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" ht="14.4">
       <c r="A616" s="23"/>
       <c r="B616" s="23"/>
       <c r="C616" s="23"/>
@@ -16991,7 +16994,7 @@
       <c r="N616" s="23"/>
       <c r="O616" s="23"/>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" ht="14.4">
       <c r="A617" s="23"/>
       <c r="B617" s="23"/>
       <c r="C617" s="23"/>
@@ -17008,7 +17011,7 @@
       <c r="N617" s="23"/>
       <c r="O617" s="23"/>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" ht="14.4">
       <c r="A618" s="23"/>
       <c r="B618" s="23"/>
       <c r="C618" s="23"/>
@@ -17025,7 +17028,7 @@
       <c r="N618" s="23"/>
       <c r="O618" s="23"/>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" ht="14.4">
       <c r="A619" s="23"/>
       <c r="B619" s="23"/>
       <c r="C619" s="23"/>
@@ -17042,7 +17045,7 @@
       <c r="N619" s="23"/>
       <c r="O619" s="23"/>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" ht="14.4">
       <c r="A620" s="23"/>
       <c r="B620" s="23"/>
       <c r="C620" s="23"/>
@@ -17059,7 +17062,7 @@
       <c r="N620" s="23"/>
       <c r="O620" s="23"/>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" ht="14.4">
       <c r="A621" s="23"/>
       <c r="B621" s="23"/>
       <c r="C621" s="23"/>
@@ -17076,7 +17079,7 @@
       <c r="N621" s="23"/>
       <c r="O621" s="23"/>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" ht="14.4">
       <c r="A622" s="23"/>
       <c r="B622" s="23"/>
       <c r="C622" s="23"/>
@@ -17093,7 +17096,7 @@
       <c r="N622" s="23"/>
       <c r="O622" s="23"/>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" ht="14.4">
       <c r="A623" s="23"/>
       <c r="B623" s="23"/>
       <c r="C623" s="23"/>
@@ -17110,7 +17113,7 @@
       <c r="N623" s="23"/>
       <c r="O623" s="23"/>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" ht="14.4">
       <c r="A624" s="23"/>
       <c r="B624" s="23"/>
       <c r="C624" s="23"/>
@@ -17127,7 +17130,7 @@
       <c r="N624" s="23"/>
       <c r="O624" s="23"/>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" ht="14.4">
       <c r="A625" s="23"/>
       <c r="B625" s="23"/>
       <c r="C625" s="23"/>
@@ -17144,7 +17147,7 @@
       <c r="N625" s="23"/>
       <c r="O625" s="23"/>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" ht="14.4">
       <c r="A626" s="23"/>
       <c r="B626" s="23"/>
       <c r="C626" s="23"/>
@@ -17161,7 +17164,7 @@
       <c r="N626" s="23"/>
       <c r="O626" s="23"/>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" ht="14.4">
       <c r="A627" s="23"/>
       <c r="B627" s="23"/>
       <c r="C627" s="23"/>
@@ -17178,7 +17181,7 @@
       <c r="N627" s="23"/>
       <c r="O627" s="23"/>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" ht="14.4">
       <c r="A628" s="23"/>
       <c r="B628" s="23"/>
       <c r="C628" s="23"/>
@@ -17195,7 +17198,7 @@
       <c r="N628" s="23"/>
       <c r="O628" s="23"/>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" ht="14.4">
       <c r="A629" s="23"/>
       <c r="B629" s="23"/>
       <c r="C629" s="23"/>
@@ -17212,7 +17215,7 @@
       <c r="N629" s="23"/>
       <c r="O629" s="23"/>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" ht="14.4">
       <c r="A630" s="23"/>
       <c r="B630" s="23"/>
       <c r="C630" s="23"/>
@@ -17229,7 +17232,7 @@
       <c r="N630" s="23"/>
       <c r="O630" s="23"/>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" ht="14.4">
       <c r="A631" s="23"/>
       <c r="B631" s="23"/>
       <c r="C631" s="23"/>
@@ -17246,7 +17249,7 @@
       <c r="N631" s="23"/>
       <c r="O631" s="23"/>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" ht="14.4">
       <c r="A632" s="23"/>
       <c r="B632" s="23"/>
       <c r="C632" s="23"/>
@@ -17263,7 +17266,7 @@
       <c r="N632" s="23"/>
       <c r="O632" s="23"/>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" ht="14.4">
       <c r="A633" s="23"/>
       <c r="B633" s="23"/>
       <c r="C633" s="23"/>
@@ -17280,7 +17283,7 @@
       <c r="N633" s="23"/>
       <c r="O633" s="23"/>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" ht="14.4">
       <c r="A634" s="23"/>
       <c r="B634" s="23"/>
       <c r="C634" s="23"/>
@@ -17297,7 +17300,7 @@
       <c r="N634" s="23"/>
       <c r="O634" s="23"/>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" ht="14.4">
       <c r="A635" s="23"/>
       <c r="B635" s="23"/>
       <c r="C635" s="23"/>
@@ -17314,7 +17317,7 @@
       <c r="N635" s="23"/>
       <c r="O635" s="23"/>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" ht="14.4">
       <c r="A636" s="23"/>
       <c r="B636" s="23"/>
       <c r="C636" s="23"/>
@@ -17331,7 +17334,7 @@
       <c r="N636" s="23"/>
       <c r="O636" s="23"/>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" ht="14.4">
       <c r="A637" s="23"/>
       <c r="B637" s="23"/>
       <c r="C637" s="23"/>
@@ -17348,7 +17351,7 @@
       <c r="N637" s="23"/>
       <c r="O637" s="23"/>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" ht="14.4">
       <c r="A638" s="23"/>
       <c r="B638" s="23"/>
       <c r="C638" s="23"/>
@@ -17365,7 +17368,7 @@
       <c r="N638" s="23"/>
       <c r="O638" s="23"/>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" ht="14.4">
       <c r="A639" s="23"/>
       <c r="B639" s="23"/>
       <c r="C639" s="23"/>
@@ -17382,7 +17385,7 @@
       <c r="N639" s="23"/>
       <c r="O639" s="23"/>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" ht="14.4">
       <c r="A640" s="23"/>
       <c r="B640" s="23"/>
       <c r="C640" s="23"/>
@@ -17399,7 +17402,7 @@
       <c r="N640" s="23"/>
       <c r="O640" s="23"/>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" ht="14.4">
       <c r="A641" s="23"/>
       <c r="B641" s="23"/>
       <c r="C641" s="23"/>
@@ -17416,7 +17419,7 @@
       <c r="N641" s="23"/>
       <c r="O641" s="23"/>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" ht="14.4">
       <c r="A642" s="23"/>
       <c r="B642" s="23"/>
       <c r="C642" s="23"/>
@@ -17433,7 +17436,7 @@
       <c r="N642" s="23"/>
       <c r="O642" s="23"/>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" ht="14.4">
       <c r="A643" s="23"/>
       <c r="B643" s="23"/>
       <c r="C643" s="23"/>
@@ -17450,7 +17453,7 @@
       <c r="N643" s="23"/>
       <c r="O643" s="23"/>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" ht="14.4">
       <c r="A644" s="23"/>
       <c r="B644" s="23"/>
       <c r="C644" s="23"/>
@@ -17467,7 +17470,7 @@
       <c r="N644" s="23"/>
       <c r="O644" s="23"/>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" ht="14.4">
       <c r="A645" s="23"/>
       <c r="B645" s="23"/>
       <c r="C645" s="23"/>
@@ -17484,7 +17487,7 @@
       <c r="N645" s="23"/>
       <c r="O645" s="23"/>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" ht="14.4">
       <c r="A646" s="23"/>
       <c r="B646" s="23"/>
       <c r="C646" s="23"/>
@@ -17501,7 +17504,7 @@
       <c r="N646" s="23"/>
       <c r="O646" s="23"/>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" ht="14.4">
       <c r="A647" s="23"/>
       <c r="B647" s="23"/>
       <c r="C647" s="23"/>
@@ -17518,7 +17521,7 @@
       <c r="N647" s="23"/>
       <c r="O647" s="23"/>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" ht="14.4">
       <c r="A648" s="23"/>
       <c r="B648" s="23"/>
       <c r="C648" s="23"/>
@@ -17535,7 +17538,7 @@
       <c r="N648" s="23"/>
       <c r="O648" s="23"/>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" ht="14.4">
       <c r="A649" s="23"/>
       <c r="B649" s="23"/>
       <c r="C649" s="23"/>
@@ -17552,7 +17555,7 @@
       <c r="N649" s="23"/>
       <c r="O649" s="23"/>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" ht="14.4">
       <c r="A650" s="23"/>
       <c r="B650" s="23"/>
       <c r="C650" s="23"/>
@@ -17569,7 +17572,7 @@
       <c r="N650" s="23"/>
       <c r="O650" s="23"/>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" ht="14.4">
       <c r="A651" s="23"/>
       <c r="B651" s="23"/>
       <c r="C651" s="23"/>
@@ -17586,7 +17589,7 @@
       <c r="N651" s="23"/>
       <c r="O651" s="23"/>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" ht="14.4">
       <c r="A652" s="23"/>
       <c r="B652" s="23"/>
       <c r="C652" s="23"/>
@@ -17603,7 +17606,7 @@
       <c r="N652" s="23"/>
       <c r="O652" s="23"/>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" ht="14.4">
       <c r="A653" s="23"/>
       <c r="B653" s="23"/>
       <c r="C653" s="23"/>
@@ -17620,7 +17623,7 @@
       <c r="N653" s="23"/>
       <c r="O653" s="23"/>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" ht="14.4">
       <c r="A654" s="23"/>
       <c r="B654" s="23"/>
       <c r="C654" s="23"/>
@@ -17637,7 +17640,7 @@
       <c r="N654" s="23"/>
       <c r="O654" s="23"/>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" ht="14.4">
       <c r="A655" s="23"/>
       <c r="B655" s="23"/>
       <c r="C655" s="23"/>
@@ -17654,7 +17657,7 @@
       <c r="N655" s="23"/>
       <c r="O655" s="23"/>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" ht="14.4">
       <c r="A656" s="23"/>
       <c r="B656" s="23"/>
       <c r="C656" s="23"/>
@@ -17671,7 +17674,7 @@
       <c r="N656" s="23"/>
       <c r="O656" s="23"/>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" ht="14.4">
       <c r="A657" s="23"/>
       <c r="B657" s="23"/>
       <c r="C657" s="23"/>
@@ -17688,7 +17691,7 @@
       <c r="N657" s="23"/>
       <c r="O657" s="23"/>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" ht="14.4">
       <c r="A658" s="23"/>
       <c r="B658" s="23"/>
       <c r="C658" s="23"/>
@@ -17705,7 +17708,7 @@
       <c r="N658" s="23"/>
       <c r="O658" s="23"/>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" ht="14.4">
       <c r="A659" s="23"/>
       <c r="B659" s="23"/>
       <c r="C659" s="23"/>
@@ -17722,7 +17725,7 @@
       <c r="N659" s="23"/>
       <c r="O659" s="23"/>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" ht="14.4">
       <c r="A660" s="23"/>
       <c r="B660" s="23"/>
       <c r="C660" s="23"/>
@@ -17739,7 +17742,7 @@
       <c r="N660" s="23"/>
       <c r="O660" s="23"/>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" ht="14.4">
       <c r="A661" s="23"/>
       <c r="B661" s="23"/>
       <c r="C661" s="23"/>
@@ -17756,7 +17759,7 @@
       <c r="N661" s="23"/>
       <c r="O661" s="23"/>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" ht="14.4">
       <c r="A662" s="23"/>
       <c r="B662" s="23"/>
       <c r="C662" s="23"/>
@@ -17773,7 +17776,7 @@
       <c r="N662" s="23"/>
       <c r="O662" s="23"/>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" ht="14.4">
       <c r="A663" s="23"/>
       <c r="B663" s="23"/>
       <c r="C663" s="23"/>
@@ -17790,7 +17793,7 @@
       <c r="N663" s="23"/>
       <c r="O663" s="23"/>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" ht="14.4">
       <c r="A664" s="23"/>
       <c r="B664" s="23"/>
       <c r="C664" s="23"/>
@@ -17807,7 +17810,7 @@
       <c r="N664" s="23"/>
       <c r="O664" s="23"/>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" ht="14.4">
       <c r="A665" s="23"/>
       <c r="B665" s="23"/>
       <c r="C665" s="23"/>
@@ -17824,7 +17827,7 @@
       <c r="N665" s="23"/>
       <c r="O665" s="23"/>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" ht="14.4">
       <c r="A666" s="23"/>
       <c r="B666" s="23"/>
       <c r="C666" s="23"/>
@@ -17841,7 +17844,7 @@
       <c r="N666" s="23"/>
       <c r="O666" s="23"/>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" ht="14.4">
       <c r="A667" s="23"/>
       <c r="B667" s="23"/>
       <c r="C667" s="23"/>
@@ -17858,7 +17861,7 @@
       <c r="N667" s="23"/>
       <c r="O667" s="23"/>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" ht="14.4">
       <c r="A668" s="23"/>
       <c r="B668" s="23"/>
       <c r="C668" s="23"/>
@@ -17875,7 +17878,7 @@
       <c r="N668" s="23"/>
       <c r="O668" s="23"/>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" ht="14.4">
       <c r="A669" s="23"/>
       <c r="B669" s="23"/>
       <c r="C669" s="23"/>
@@ -17892,7 +17895,7 @@
       <c r="N669" s="23"/>
       <c r="O669" s="23"/>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" ht="14.4">
       <c r="A670" s="23"/>
       <c r="B670" s="23"/>
       <c r="C670" s="23"/>
@@ -17909,7 +17912,7 @@
       <c r="N670" s="23"/>
       <c r="O670" s="23"/>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" ht="14.4">
       <c r="A671" s="23"/>
       <c r="B671" s="23"/>
       <c r="C671" s="23"/>
@@ -17926,7 +17929,7 @@
       <c r="N671" s="23"/>
       <c r="O671" s="23"/>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" ht="14.4">
       <c r="A672" s="23"/>
       <c r="B672" s="23"/>
       <c r="C672" s="23"/>
@@ -17943,7 +17946,7 @@
       <c r="N672" s="23"/>
       <c r="O672" s="23"/>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" ht="14.4">
       <c r="A673" s="23"/>
       <c r="B673" s="23"/>
       <c r="C673" s="23"/>
@@ -17960,7 +17963,7 @@
       <c r="N673" s="23"/>
       <c r="O673" s="23"/>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" ht="14.4">
       <c r="A674" s="23"/>
       <c r="B674" s="23"/>
       <c r="C674" s="23"/>
@@ -17977,7 +17980,7 @@
       <c r="N674" s="23"/>
       <c r="O674" s="23"/>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" ht="14.4">
       <c r="A675" s="23"/>
       <c r="B675" s="23"/>
       <c r="C675" s="23"/>
@@ -17994,7 +17997,7 @@
       <c r="N675" s="23"/>
       <c r="O675" s="23"/>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" ht="14.4">
       <c r="A676" s="23"/>
       <c r="B676" s="23"/>
       <c r="C676" s="23"/>
@@ -18011,7 +18014,7 @@
       <c r="N676" s="23"/>
       <c r="O676" s="23"/>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" ht="14.4">
       <c r="A677" s="23"/>
       <c r="B677" s="23"/>
       <c r="C677" s="23"/>
@@ -18028,7 +18031,7 @@
       <c r="N677" s="23"/>
       <c r="O677" s="23"/>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" ht="14.4">
       <c r="A678" s="23"/>
       <c r="B678" s="23"/>
       <c r="C678" s="23"/>
@@ -18045,7 +18048,7 @@
       <c r="N678" s="23"/>
       <c r="O678" s="23"/>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" ht="14.4">
       <c r="A679" s="23"/>
       <c r="B679" s="23"/>
       <c r="C679" s="23"/>
@@ -18062,7 +18065,7 @@
       <c r="N679" s="23"/>
       <c r="O679" s="23"/>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" ht="14.4">
       <c r="A680" s="23"/>
       <c r="B680" s="23"/>
       <c r="C680" s="23"/>
@@ -18079,7 +18082,7 @@
       <c r="N680" s="23"/>
       <c r="O680" s="23"/>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" ht="14.4">
       <c r="A681" s="23"/>
       <c r="B681" s="23"/>
       <c r="C681" s="23"/>
@@ -18096,7 +18099,7 @@
       <c r="N681" s="23"/>
       <c r="O681" s="23"/>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" ht="14.4">
       <c r="A682" s="23"/>
       <c r="B682" s="23"/>
       <c r="C682" s="23"/>
@@ -18113,7 +18116,7 @@
       <c r="N682" s="23"/>
       <c r="O682" s="23"/>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" ht="14.4">
       <c r="A683" s="23"/>
       <c r="B683" s="23"/>
       <c r="C683" s="23"/>
@@ -18130,7 +18133,7 @@
       <c r="N683" s="23"/>
       <c r="O683" s="23"/>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" ht="14.4">
       <c r="A684" s="23"/>
       <c r="B684" s="23"/>
       <c r="C684" s="23"/>
@@ -18147,7 +18150,7 @@
       <c r="N684" s="23"/>
       <c r="O684" s="23"/>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" ht="14.4">
       <c r="A685" s="23"/>
       <c r="B685" s="23"/>
       <c r="C685" s="23"/>
@@ -18164,7 +18167,7 @@
       <c r="N685" s="23"/>
       <c r="O685" s="23"/>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" ht="14.4">
       <c r="A686" s="23"/>
       <c r="B686" s="23"/>
       <c r="C686" s="23"/>
@@ -18181,7 +18184,7 @@
       <c r="N686" s="23"/>
       <c r="O686" s="23"/>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" ht="14.4">
       <c r="A687" s="23"/>
       <c r="B687" s="23"/>
       <c r="C687" s="23"/>
@@ -18198,7 +18201,7 @@
       <c r="N687" s="23"/>
       <c r="O687" s="23"/>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" ht="14.4">
       <c r="A688" s="23"/>
       <c r="B688" s="23"/>
       <c r="C688" s="23"/>
@@ -18215,7 +18218,7 @@
       <c r="N688" s="23"/>
       <c r="O688" s="23"/>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" ht="14.4">
       <c r="A689" s="23"/>
       <c r="B689" s="23"/>
       <c r="C689" s="23"/>
@@ -18232,7 +18235,7 @@
       <c r="N689" s="23"/>
       <c r="O689" s="23"/>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" ht="14.4">
       <c r="A690" s="23"/>
       <c r="B690" s="23"/>
       <c r="C690" s="23"/>
@@ -18249,7 +18252,7 @@
       <c r="N690" s="23"/>
       <c r="O690" s="23"/>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" ht="14.4">
       <c r="A691" s="23"/>
       <c r="B691" s="23"/>
       <c r="C691" s="23"/>
@@ -18266,7 +18269,7 @@
       <c r="N691" s="23"/>
       <c r="O691" s="23"/>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" ht="14.4">
       <c r="A692" s="23"/>
       <c r="B692" s="23"/>
       <c r="C692" s="23"/>
@@ -18283,7 +18286,7 @@
       <c r="N692" s="23"/>
       <c r="O692" s="23"/>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" ht="14.4">
       <c r="A693" s="23"/>
       <c r="B693" s="23"/>
       <c r="C693" s="23"/>
@@ -18300,7 +18303,7 @@
       <c r="N693" s="23"/>
       <c r="O693" s="23"/>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" ht="14.4">
       <c r="A694" s="23"/>
       <c r="B694" s="23"/>
       <c r="C694" s="23"/>
@@ -18317,7 +18320,7 @@
       <c r="N694" s="23"/>
       <c r="O694" s="23"/>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" ht="14.4">
       <c r="A695" s="23"/>
       <c r="B695" s="23"/>
       <c r="C695" s="23"/>
@@ -18334,7 +18337,7 @@
       <c r="N695" s="23"/>
       <c r="O695" s="23"/>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" ht="14.4">
       <c r="A696" s="23"/>
       <c r="B696" s="23"/>
       <c r="C696" s="23"/>
@@ -18351,7 +18354,7 @@
       <c r="N696" s="23"/>
       <c r="O696" s="23"/>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" ht="14.4">
       <c r="A697" s="23"/>
       <c r="B697" s="23"/>
       <c r="C697" s="23"/>
@@ -18368,7 +18371,7 @@
       <c r="N697" s="23"/>
       <c r="O697" s="23"/>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" ht="14.4">
       <c r="A698" s="23"/>
       <c r="B698" s="23"/>
       <c r="C698" s="23"/>
@@ -18385,7 +18388,7 @@
       <c r="N698" s="23"/>
       <c r="O698" s="23"/>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" ht="14.4">
       <c r="A699" s="23"/>
       <c r="B699" s="23"/>
       <c r="C699" s="23"/>
@@ -18402,7 +18405,7 @@
       <c r="N699" s="23"/>
       <c r="O699" s="23"/>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" ht="14.4">
       <c r="A700" s="23"/>
       <c r="B700" s="23"/>
       <c r="C700" s="23"/>
@@ -18419,7 +18422,7 @@
       <c r="N700" s="23"/>
       <c r="O700" s="23"/>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" ht="14.4">
       <c r="A701" s="23"/>
       <c r="B701" s="23"/>
       <c r="C701" s="23"/>
@@ -18436,7 +18439,7 @@
       <c r="N701" s="23"/>
       <c r="O701" s="23"/>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" ht="14.4">
       <c r="A702" s="23"/>
       <c r="B702" s="23"/>
       <c r="C702" s="23"/>
@@ -18453,7 +18456,7 @@
       <c r="N702" s="23"/>
       <c r="O702" s="23"/>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" ht="14.4">
       <c r="A703" s="23"/>
       <c r="B703" s="23"/>
       <c r="C703" s="23"/>
@@ -18470,7 +18473,7 @@
       <c r="N703" s="23"/>
       <c r="O703" s="23"/>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" ht="14.4">
       <c r="A704" s="23"/>
       <c r="B704" s="23"/>
       <c r="C704" s="23"/>
@@ -18487,7 +18490,7 @@
       <c r="N704" s="23"/>
       <c r="O704" s="23"/>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" ht="14.4">
       <c r="A705" s="23"/>
       <c r="B705" s="23"/>
       <c r="C705" s="23"/>
@@ -18504,7 +18507,7 @@
       <c r="N705" s="23"/>
       <c r="O705" s="23"/>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" ht="14.4">
       <c r="A706" s="23"/>
       <c r="B706" s="23"/>
       <c r="C706" s="23"/>
@@ -18521,7 +18524,7 @@
       <c r="N706" s="23"/>
       <c r="O706" s="23"/>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" ht="14.4">
       <c r="A707" s="23"/>
       <c r="B707" s="23"/>
       <c r="C707" s="23"/>
@@ -18538,7 +18541,7 @@
       <c r="N707" s="23"/>
       <c r="O707" s="23"/>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" ht="14.4">
       <c r="A708" s="23"/>
       <c r="B708" s="23"/>
       <c r="C708" s="23"/>
@@ -18555,7 +18558,7 @@
       <c r="N708" s="23"/>
       <c r="O708" s="23"/>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" ht="14.4">
       <c r="A709" s="23"/>
       <c r="B709" s="23"/>
       <c r="C709" s="23"/>
@@ -18572,7 +18575,7 @@
       <c r="N709" s="23"/>
       <c r="O709" s="23"/>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" ht="14.4">
       <c r="A710" s="23"/>
       <c r="B710" s="23"/>
       <c r="C710" s="23"/>
@@ -18589,7 +18592,7 @@
       <c r="N710" s="23"/>
       <c r="O710" s="23"/>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" ht="14.4">
       <c r="A711" s="23"/>
       <c r="B711" s="23"/>
       <c r="C711" s="23"/>
@@ -18606,7 +18609,7 @@
       <c r="N711" s="23"/>
       <c r="O711" s="23"/>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" ht="14.4">
       <c r="A712" s="23"/>
       <c r="B712" s="23"/>
       <c r="C712" s="23"/>
@@ -18623,7 +18626,7 @@
       <c r="N712" s="23"/>
       <c r="O712" s="23"/>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" ht="14.4">
       <c r="A713" s="23"/>
       <c r="B713" s="23"/>
       <c r="C713" s="23"/>
@@ -18640,7 +18643,7 @@
       <c r="N713" s="23"/>
       <c r="O713" s="23"/>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" ht="14.4">
       <c r="A714" s="23"/>
       <c r="B714" s="23"/>
       <c r="C714" s="23"/>
@@ -18657,7 +18660,7 @@
       <c r="N714" s="23"/>
       <c r="O714" s="23"/>
     </row>
-    <row r="715" spans="1:15">
+    <row r="715" spans="1:15" ht="14.4">
       <c r="A715" s="23"/>
       <c r="B715" s="23"/>
       <c r="C715" s="23"/>
@@ -18674,7 +18677,7 @@
       <c r="N715" s="23"/>
       <c r="O715" s="23"/>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" ht="14.4">
       <c r="A716" s="23"/>
       <c r="B716" s="23"/>
       <c r="C716" s="23"/>
@@ -18691,7 +18694,7 @@
       <c r="N716" s="23"/>
       <c r="O716" s="23"/>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" ht="14.4">
       <c r="A717" s="23"/>
       <c r="B717" s="23"/>
       <c r="C717" s="23"/>
@@ -18708,7 +18711,7 @@
       <c r="N717" s="23"/>
       <c r="O717" s="23"/>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" ht="14.4">
       <c r="A718" s="23"/>
       <c r="B718" s="23"/>
       <c r="C718" s="23"/>
@@ -18725,7 +18728,7 @@
       <c r="N718" s="23"/>
       <c r="O718" s="23"/>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" ht="14.4">
       <c r="A719" s="23"/>
       <c r="B719" s="23"/>
       <c r="C719" s="23"/>
@@ -18742,7 +18745,7 @@
       <c r="N719" s="23"/>
       <c r="O719" s="23"/>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" ht="14.4">
       <c r="A720" s="23"/>
       <c r="B720" s="23"/>
       <c r="C720" s="23"/>
@@ -18759,7 +18762,7 @@
       <c r="N720" s="23"/>
       <c r="O720" s="23"/>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" ht="14.4">
       <c r="A721" s="23"/>
       <c r="B721" s="23"/>
       <c r="C721" s="23"/>
@@ -18776,7 +18779,7 @@
       <c r="N721" s="23"/>
       <c r="O721" s="23"/>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" ht="14.4">
       <c r="A722" s="23"/>
       <c r="B722" s="23"/>
       <c r="C722" s="23"/>
@@ -18793,7 +18796,7 @@
       <c r="N722" s="23"/>
       <c r="O722" s="23"/>
     </row>
-    <row r="723" spans="1:15">
+    <row r="723" spans="1:15" ht="14.4">
       <c r="A723" s="23"/>
       <c r="B723" s="23"/>
       <c r="C723" s="23"/>
@@ -18810,7 +18813,7 @@
       <c r="N723" s="23"/>
       <c r="O723" s="23"/>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" ht="14.4">
       <c r="A724" s="23"/>
       <c r="B724" s="23"/>
       <c r="C724" s="23"/>
@@ -18827,7 +18830,7 @@
       <c r="N724" s="23"/>
       <c r="O724" s="23"/>
     </row>
-    <row r="725" spans="1:15">
+    <row r="725" spans="1:15" ht="14.4">
       <c r="A725" s="23"/>
       <c r="B725" s="23"/>
       <c r="C725" s="23"/>
@@ -18844,7 +18847,7 @@
       <c r="N725" s="23"/>
       <c r="O725" s="23"/>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" ht="14.4">
       <c r="A726" s="23"/>
       <c r="B726" s="23"/>
       <c r="C726" s="23"/>
@@ -18861,7 +18864,7 @@
       <c r="N726" s="23"/>
       <c r="O726" s="23"/>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" ht="14.4">
       <c r="A727" s="23"/>
       <c r="B727" s="23"/>
       <c r="C727" s="23"/>
@@ -18878,7 +18881,7 @@
       <c r="N727" s="23"/>
       <c r="O727" s="23"/>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" ht="14.4">
       <c r="A728" s="23"/>
       <c r="B728" s="23"/>
       <c r="C728" s="23"/>
@@ -18895,7 +18898,7 @@
       <c r="N728" s="23"/>
       <c r="O728" s="23"/>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" ht="14.4">
       <c r="A729" s="23"/>
       <c r="B729" s="23"/>
       <c r="C729" s="23"/>
@@ -18912,7 +18915,7 @@
       <c r="N729" s="23"/>
       <c r="O729" s="23"/>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" ht="14.4">
       <c r="A730" s="23"/>
       <c r="B730" s="23"/>
       <c r="C730" s="23"/>
@@ -18929,7 +18932,7 @@
       <c r="N730" s="23"/>
       <c r="O730" s="23"/>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" ht="14.4">
       <c r="A731" s="23"/>
       <c r="B731" s="23"/>
       <c r="C731" s="23"/>
@@ -18946,7 +18949,7 @@
       <c r="N731" s="23"/>
       <c r="O731" s="23"/>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" ht="14.4">
       <c r="A732" s="23"/>
       <c r="B732" s="23"/>
       <c r="C732" s="23"/>
@@ -18963,7 +18966,7 @@
       <c r="N732" s="23"/>
       <c r="O732" s="23"/>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" ht="14.4">
       <c r="A733" s="23"/>
       <c r="B733" s="23"/>
       <c r="C733" s="23"/>
@@ -18980,7 +18983,7 @@
       <c r="N733" s="23"/>
       <c r="O733" s="23"/>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" ht="14.4">
       <c r="A734" s="23"/>
       <c r="B734" s="23"/>
       <c r="C734" s="23"/>
@@ -18997,7 +19000,7 @@
       <c r="N734" s="23"/>
       <c r="O734" s="23"/>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" ht="14.4">
       <c r="A735" s="23"/>
       <c r="B735" s="23"/>
       <c r="C735" s="23"/>
@@ -19014,7 +19017,7 @@
       <c r="N735" s="23"/>
       <c r="O735" s="23"/>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" ht="14.4">
       <c r="A736" s="23"/>
       <c r="B736" s="23"/>
       <c r="C736" s="23"/>
@@ -19031,7 +19034,7 @@
       <c r="N736" s="23"/>
       <c r="O736" s="23"/>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" ht="14.4">
       <c r="A737" s="23"/>
       <c r="B737" s="23"/>
       <c r="C737" s="23"/>
@@ -19048,7 +19051,7 @@
       <c r="N737" s="23"/>
       <c r="O737" s="23"/>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" ht="14.4">
       <c r="A738" s="23"/>
       <c r="B738" s="23"/>
       <c r="C738" s="23"/>
@@ -19065,7 +19068,7 @@
       <c r="N738" s="23"/>
       <c r="O738" s="23"/>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" ht="14.4">
       <c r="A739" s="23"/>
       <c r="B739" s="23"/>
       <c r="C739" s="23"/>
@@ -19082,7 +19085,7 @@
       <c r="N739" s="23"/>
       <c r="O739" s="23"/>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" ht="14.4">
       <c r="A740" s="23"/>
       <c r="B740" s="23"/>
       <c r="C740" s="23"/>
@@ -19099,7 +19102,7 @@
       <c r="N740" s="23"/>
       <c r="O740" s="23"/>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" ht="14.4">
       <c r="A741" s="23"/>
       <c r="B741" s="23"/>
       <c r="C741" s="23"/>
@@ -19116,7 +19119,7 @@
       <c r="N741" s="23"/>
       <c r="O741" s="23"/>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" ht="14.4">
       <c r="A742" s="23"/>
       <c r="B742" s="23"/>
       <c r="C742" s="23"/>
@@ -19133,7 +19136,7 @@
       <c r="N742" s="23"/>
       <c r="O742" s="23"/>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" ht="14.4">
       <c r="A743" s="23"/>
       <c r="B743" s="23"/>
       <c r="C743" s="23"/>
@@ -19150,7 +19153,7 @@
       <c r="N743" s="23"/>
       <c r="O743" s="23"/>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" ht="14.4">
       <c r="A744" s="23"/>
       <c r="B744" s="23"/>
       <c r="C744" s="23"/>
@@ -19167,7 +19170,7 @@
       <c r="N744" s="23"/>
       <c r="O744" s="23"/>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" ht="14.4">
       <c r="A745" s="23"/>
       <c r="B745" s="23"/>
       <c r="C745" s="23"/>
@@ -19184,7 +19187,7 @@
       <c r="N745" s="23"/>
       <c r="O745" s="23"/>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" ht="14.4">
       <c r="A746" s="23"/>
       <c r="B746" s="23"/>
       <c r="C746" s="23"/>
@@ -19201,7 +19204,7 @@
       <c r="N746" s="23"/>
       <c r="O746" s="23"/>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" ht="14.4">
       <c r="A747" s="23"/>
       <c r="B747" s="23"/>
       <c r="C747" s="23"/>
@@ -19218,7 +19221,7 @@
       <c r="N747" s="23"/>
       <c r="O747" s="23"/>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" ht="14.4">
       <c r="A748" s="23"/>
       <c r="B748" s="23"/>
       <c r="C748" s="23"/>
@@ -19235,7 +19238,7 @@
       <c r="N748" s="23"/>
       <c r="O748" s="23"/>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" ht="14.4">
       <c r="A749" s="23"/>
       <c r="B749" s="23"/>
       <c r="C749" s="23"/>
@@ -19252,7 +19255,7 @@
       <c r="N749" s="23"/>
       <c r="O749" s="23"/>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" ht="14.4">
       <c r="A750" s="23"/>
       <c r="B750" s="23"/>
       <c r="C750" s="23"/>
@@ -19269,7 +19272,7 @@
       <c r="N750" s="23"/>
       <c r="O750" s="23"/>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" ht="14.4">
       <c r="A751" s="23"/>
       <c r="B751" s="23"/>
       <c r="C751" s="23"/>
@@ -19286,7 +19289,7 @@
       <c r="N751" s="23"/>
       <c r="O751" s="23"/>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" ht="14.4">
       <c r="A752" s="23"/>
       <c r="B752" s="23"/>
       <c r="C752" s="23"/>
@@ -19303,7 +19306,7 @@
       <c r="N752" s="23"/>
       <c r="O752" s="23"/>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" ht="14.4">
       <c r="A753" s="23"/>
       <c r="B753" s="23"/>
       <c r="C753" s="23"/>
@@ -19320,7 +19323,7 @@
       <c r="N753" s="23"/>
       <c r="O753" s="23"/>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" ht="14.4">
       <c r="A754" s="23"/>
       <c r="B754" s="23"/>
       <c r="C754" s="23"/>
@@ -19337,7 +19340,7 @@
       <c r="N754" s="23"/>
       <c r="O754" s="23"/>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" ht="14.4">
       <c r="A755" s="23"/>
       <c r="B755" s="23"/>
       <c r="C755" s="23"/>
@@ -19354,7 +19357,7 @@
       <c r="N755" s="23"/>
       <c r="O755" s="23"/>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" ht="14.4">
       <c r="A756" s="23"/>
       <c r="B756" s="23"/>
       <c r="C756" s="23"/>
@@ -19371,7 +19374,7 @@
       <c r="N756" s="23"/>
       <c r="O756" s="23"/>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" ht="14.4">
       <c r="A757" s="23"/>
       <c r="B757" s="23"/>
       <c r="C757" s="23"/>
@@ -19388,7 +19391,7 @@
       <c r="N757" s="23"/>
       <c r="O757" s="23"/>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" ht="14.4">
       <c r="A758" s="23"/>
       <c r="B758" s="23"/>
       <c r="C758" s="23"/>
@@ -19405,7 +19408,7 @@
       <c r="N758" s="23"/>
       <c r="O758" s="23"/>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" ht="14.4">
       <c r="A759" s="23"/>
       <c r="B759" s="23"/>
       <c r="C759" s="23"/>
@@ -19422,7 +19425,7 @@
       <c r="N759" s="23"/>
       <c r="O759" s="23"/>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" ht="14.4">
       <c r="A760" s="23"/>
       <c r="B760" s="23"/>
       <c r="C760" s="23"/>
@@ -19439,7 +19442,7 @@
       <c r="N760" s="23"/>
       <c r="O760" s="23"/>
     </row>
-    <row r="761" spans="1:15">
+    <row r="761" spans="1:15" ht="14.4">
       <c r="A761" s="23"/>
       <c r="B761" s="23"/>
       <c r="C761" s="23"/>
@@ -19456,7 +19459,7 @@
       <c r="N761" s="23"/>
       <c r="O761" s="23"/>
     </row>
-    <row r="762" spans="1:15">
+    <row r="762" spans="1:15" ht="14.4">
       <c r="A762" s="23"/>
       <c r="B762" s="23"/>
       <c r="C762" s="23"/>
@@ -19473,7 +19476,7 @@
       <c r="N762" s="23"/>
       <c r="O762" s="23"/>
     </row>
-    <row r="763" spans="1:15">
+    <row r="763" spans="1:15" ht="14.4">
       <c r="A763" s="23"/>
       <c r="B763" s="23"/>
       <c r="C763" s="23"/>
@@ -19490,7 +19493,7 @@
       <c r="N763" s="23"/>
       <c r="O763" s="23"/>
     </row>
-    <row r="764" spans="1:15">
+    <row r="764" spans="1:15" ht="14.4">
       <c r="A764" s="23"/>
       <c r="B764" s="23"/>
       <c r="C764" s="23"/>
@@ -19507,7 +19510,7 @@
       <c r="N764" s="23"/>
       <c r="O764" s="23"/>
     </row>
-    <row r="765" spans="1:15">
+    <row r="765" spans="1:15" ht="14.4">
       <c r="A765" s="23"/>
       <c r="B765" s="23"/>
       <c r="C765" s="23"/>
@@ -19524,7 +19527,7 @@
       <c r="N765" s="23"/>
       <c r="O765" s="23"/>
     </row>
-    <row r="766" spans="1:15">
+    <row r="766" spans="1:15" ht="14.4">
       <c r="A766" s="23"/>
       <c r="B766" s="23"/>
       <c r="C766" s="23"/>
@@ -19541,7 +19544,7 @@
       <c r="N766" s="23"/>
       <c r="O766" s="23"/>
     </row>
-    <row r="767" spans="1:15">
+    <row r="767" spans="1:15" ht="14.4">
       <c r="A767" s="23"/>
       <c r="B767" s="23"/>
       <c r="C767" s="23"/>
@@ -19558,7 +19561,7 @@
       <c r="N767" s="23"/>
       <c r="O767" s="23"/>
     </row>
-    <row r="768" spans="1:15">
+    <row r="768" spans="1:15" ht="14.4">
       <c r="A768" s="23"/>
       <c r="B768" s="23"/>
       <c r="C768" s="23"/>
@@ -19575,7 +19578,7 @@
       <c r="N768" s="23"/>
       <c r="O768" s="23"/>
     </row>
-    <row r="769" spans="1:15">
+    <row r="769" spans="1:15" ht="14.4">
       <c r="A769" s="23"/>
       <c r="B769" s="23"/>
       <c r="C769" s="23"/>
@@ -19592,7 +19595,7 @@
       <c r="N769" s="23"/>
       <c r="O769" s="23"/>
     </row>
-    <row r="770" spans="1:15">
+    <row r="770" spans="1:15" ht="14.4">
       <c r="A770" s="23"/>
       <c r="B770" s="23"/>
       <c r="C770" s="23"/>
@@ -19609,7 +19612,7 @@
       <c r="N770" s="23"/>
       <c r="O770" s="23"/>
     </row>
-    <row r="771" spans="1:15">
+    <row r="771" spans="1:15" ht="14.4">
       <c r="A771" s="23"/>
       <c r="B771" s="23"/>
       <c r="C771" s="23"/>
@@ -19626,7 +19629,7 @@
       <c r="N771" s="23"/>
       <c r="O771" s="23"/>
     </row>
-    <row r="772" spans="1:15">
+    <row r="772" spans="1:15" ht="14.4">
       <c r="A772" s="23"/>
       <c r="B772" s="23"/>
       <c r="C772" s="23"/>
@@ -19643,7 +19646,7 @@
       <c r="N772" s="23"/>
       <c r="O772" s="23"/>
     </row>
-    <row r="773" spans="1:15">
+    <row r="773" spans="1:15" ht="14.4">
       <c r="A773" s="23"/>
       <c r="B773" s="23"/>
       <c r="C773" s="23"/>
@@ -19660,7 +19663,7 @@
       <c r="N773" s="23"/>
       <c r="O773" s="23"/>
     </row>
-    <row r="774" spans="1:15">
+    <row r="774" spans="1:15" ht="14.4">
       <c r="A774" s="23"/>
       <c r="B774" s="23"/>
       <c r="C774" s="23"/>
@@ -19677,7 +19680,7 @@
       <c r="N774" s="23"/>
       <c r="O774" s="23"/>
     </row>
-    <row r="775" spans="1:15">
+    <row r="775" spans="1:15" ht="14.4">
       <c r="A775" s="23"/>
       <c r="B775" s="23"/>
       <c r="C775" s="23"/>
@@ -19694,7 +19697,7 @@
       <c r="N775" s="23"/>
       <c r="O775" s="23"/>
     </row>
-    <row r="776" spans="1:15">
+    <row r="776" spans="1:15" ht="14.4">
       <c r="A776" s="23"/>
       <c r="B776" s="23"/>
       <c r="C776" s="23"/>
@@ -19711,7 +19714,7 @@
       <c r="N776" s="23"/>
       <c r="O776" s="23"/>
     </row>
-    <row r="777" spans="1:15">
+    <row r="777" spans="1:15" ht="14.4">
       <c r="A777" s="23"/>
       <c r="B777" s="23"/>
       <c r="C777" s="23"/>
@@ -19728,7 +19731,7 @@
       <c r="N777" s="23"/>
       <c r="O777" s="23"/>
     </row>
-    <row r="778" spans="1:15">
+    <row r="778" spans="1:15" ht="14.4">
       <c r="A778" s="23"/>
       <c r="B778" s="23"/>
       <c r="C778" s="23"/>
@@ -19745,7 +19748,7 @@
       <c r="N778" s="23"/>
       <c r="O778" s="23"/>
     </row>
-    <row r="779" spans="1:15">
+    <row r="779" spans="1:15" ht="14.4">
       <c r="A779" s="23"/>
       <c r="B779" s="23"/>
       <c r="C779" s="23"/>
@@ -19762,7 +19765,7 @@
       <c r="N779" s="23"/>
       <c r="O779" s="23"/>
     </row>
-    <row r="780" spans="1:15">
+    <row r="780" spans="1:15" ht="14.4">
       <c r="A780" s="23"/>
       <c r="B780" s="23"/>
       <c r="C780" s="23"/>
@@ -19779,7 +19782,7 @@
       <c r="N780" s="23"/>
       <c r="O780" s="23"/>
     </row>
-    <row r="781" spans="1:15">
+    <row r="781" spans="1:15" ht="14.4">
       <c r="A781" s="23"/>
       <c r="B781" s="23"/>
       <c r="C781" s="23"/>
@@ -19796,7 +19799,7 @@
       <c r="N781" s="23"/>
       <c r="O781" s="23"/>
     </row>
-    <row r="782" spans="1:15">
+    <row r="782" spans="1:15" ht="14.4">
       <c r="A782" s="23"/>
       <c r="B782" s="23"/>
       <c r="C782" s="23"/>
@@ -19813,7 +19816,7 @@
       <c r="N782" s="23"/>
       <c r="O782" s="23"/>
     </row>
-    <row r="783" spans="1:15">
+    <row r="783" spans="1:15" ht="14.4">
       <c r="A783" s="23"/>
       <c r="B783" s="23"/>
       <c r="C783" s="23"/>
@@ -19830,7 +19833,7 @@
       <c r="N783" s="23"/>
       <c r="O783" s="23"/>
     </row>
-    <row r="784" spans="1:15">
+    <row r="784" spans="1:15" ht="14.4">
       <c r="A784" s="23"/>
       <c r="B784" s="23"/>
       <c r="C784" s="23"/>
@@ -19847,7 +19850,7 @@
       <c r="N784" s="23"/>
       <c r="O784" s="23"/>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:15" ht="14.4">
       <c r="A785" s="23"/>
       <c r="B785" s="23"/>
       <c r="C785" s="23"/>
@@ -19864,7 +19867,7 @@
       <c r="N785" s="23"/>
       <c r="O785" s="23"/>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:15" ht="14.4">
       <c r="A786" s="23"/>
       <c r="B786" s="23"/>
       <c r="C786" s="23"/>
@@ -19881,7 +19884,7 @@
       <c r="N786" s="23"/>
       <c r="O786" s="23"/>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:15" ht="14.4">
       <c r="A787" s="23"/>
       <c r="B787" s="23"/>
       <c r="C787" s="23"/>
@@ -19898,7 +19901,7 @@
       <c r="N787" s="23"/>
       <c r="O787" s="23"/>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:15" ht="14.4">
       <c r="A788" s="23"/>
       <c r="B788" s="23"/>
       <c r="C788" s="23"/>
@@ -19915,7 +19918,7 @@
       <c r="N788" s="23"/>
       <c r="O788" s="23"/>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:15" ht="14.4">
       <c r="A789" s="23"/>
       <c r="B789" s="23"/>
       <c r="C789" s="23"/>
@@ -19932,7 +19935,7 @@
       <c r="N789" s="23"/>
       <c r="O789" s="23"/>
     </row>
-    <row r="790" spans="1:15">
+    <row r="790" spans="1:15" ht="14.4">
       <c r="A790" s="23"/>
       <c r="B790" s="23"/>
       <c r="C790" s="23"/>
@@ -19949,7 +19952,7 @@
       <c r="N790" s="23"/>
       <c r="O790" s="23"/>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:15" ht="14.4">
       <c r="A791" s="23"/>
       <c r="B791" s="23"/>
       <c r="C791" s="23"/>
@@ -19966,7 +19969,7 @@
       <c r="N791" s="23"/>
       <c r="O791" s="23"/>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:15" ht="14.4">
       <c r="A792" s="23"/>
       <c r="B792" s="23"/>
       <c r="C792" s="23"/>
@@ -19983,7 +19986,7 @@
       <c r="N792" s="23"/>
       <c r="O792" s="23"/>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:15" ht="14.4">
       <c r="A793" s="23"/>
       <c r="B793" s="23"/>
       <c r="C793" s="23"/>
@@ -20000,7 +20003,7 @@
       <c r="N793" s="23"/>
       <c r="O793" s="23"/>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:15" ht="14.4">
       <c r="A794" s="23"/>
       <c r="B794" s="23"/>
       <c r="C794" s="23"/>
@@ -20017,7 +20020,7 @@
       <c r="N794" s="23"/>
       <c r="O794" s="23"/>
     </row>
-    <row r="795" spans="1:15">
+    <row r="795" spans="1:15" ht="14.4">
       <c r="A795" s="23"/>
       <c r="B795" s="23"/>
       <c r="C795" s="23"/>
@@ -20034,7 +20037,7 @@
       <c r="N795" s="23"/>
       <c r="O795" s="23"/>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:15" ht="14.4">
       <c r="A796" s="23"/>
       <c r="B796" s="23"/>
       <c r="C796" s="23"/>
@@ -20051,7 +20054,7 @@
       <c r="N796" s="23"/>
       <c r="O796" s="23"/>
     </row>
-    <row r="797" spans="1:15">
+    <row r="797" spans="1:15" ht="14.4">
       <c r="A797" s="23"/>
       <c r="B797" s="23"/>
       <c r="C797" s="23"/>
@@ -20068,7 +20071,7 @@
       <c r="N797" s="23"/>
       <c r="O797" s="23"/>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:15" ht="14.4">
       <c r="A798" s="23"/>
       <c r="B798" s="23"/>
       <c r="C798" s="23"/>
@@ -20085,7 +20088,7 @@
       <c r="N798" s="23"/>
       <c r="O798" s="23"/>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:15" ht="14.4">
       <c r="A799" s="23"/>
       <c r="B799" s="23"/>
       <c r="C799" s="23"/>
@@ -20102,7 +20105,7 @@
       <c r="N799" s="23"/>
       <c r="O799" s="23"/>
     </row>
-    <row r="800" spans="1:15">
+    <row r="800" spans="1:15" ht="14.4">
       <c r="A800" s="23"/>
       <c r="B800" s="23"/>
       <c r="C800" s="23"/>
@@ -20119,7 +20122,7 @@
       <c r="N800" s="23"/>
       <c r="O800" s="23"/>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:15" ht="14.4">
       <c r="A801" s="23"/>
       <c r="B801" s="23"/>
       <c r="C801" s="23"/>
@@ -20136,7 +20139,7 @@
       <c r="N801" s="23"/>
       <c r="O801" s="23"/>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:15" ht="14.4">
       <c r="A802" s="23"/>
       <c r="B802" s="23"/>
       <c r="C802" s="23"/>
@@ -20153,7 +20156,7 @@
       <c r="N802" s="23"/>
       <c r="O802" s="23"/>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:15" ht="14.4">
       <c r="A803" s="23"/>
       <c r="B803" s="23"/>
       <c r="C803" s="23"/>
@@ -20170,7 +20173,7 @@
       <c r="N803" s="23"/>
       <c r="O803" s="23"/>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:15" ht="14.4">
       <c r="A804" s="23"/>
       <c r="B804" s="23"/>
       <c r="C804" s="23"/>
@@ -20187,7 +20190,7 @@
       <c r="N804" s="23"/>
       <c r="O804" s="23"/>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:15" ht="14.4">
       <c r="A805" s="23"/>
       <c r="B805" s="23"/>
       <c r="C805" s="23"/>
@@ -20204,7 +20207,7 @@
       <c r="N805" s="23"/>
       <c r="O805" s="23"/>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:15" ht="14.4">
       <c r="A806" s="23"/>
       <c r="B806" s="23"/>
       <c r="C806" s="23"/>
@@ -20221,7 +20224,7 @@
       <c r="N806" s="23"/>
       <c r="O806" s="23"/>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:15" ht="14.4">
       <c r="A807" s="23"/>
       <c r="B807" s="23"/>
       <c r="C807" s="23"/>
@@ -20238,7 +20241,7 @@
       <c r="N807" s="23"/>
       <c r="O807" s="23"/>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:15" ht="14.4">
       <c r="A808" s="23"/>
       <c r="B808" s="23"/>
       <c r="C808" s="23"/>
@@ -20255,7 +20258,7 @@
       <c r="N808" s="23"/>
       <c r="O808" s="23"/>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:15" ht="14.4">
       <c r="A809" s="23"/>
       <c r="B809" s="23"/>
       <c r="C809" s="23"/>
@@ -20272,7 +20275,7 @@
       <c r="N809" s="23"/>
       <c r="O809" s="23"/>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:15" ht="14.4">
       <c r="A810" s="23"/>
       <c r="B810" s="23"/>
       <c r="C810" s="23"/>
@@ -20289,7 +20292,7 @@
       <c r="N810" s="23"/>
       <c r="O810" s="23"/>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:15" ht="14.4">
       <c r="A811" s="23"/>
       <c r="B811" s="23"/>
       <c r="C811" s="23"/>
@@ -20306,7 +20309,7 @@
       <c r="N811" s="23"/>
       <c r="O811" s="23"/>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:15" ht="14.4">
       <c r="A812" s="23"/>
       <c r="B812" s="23"/>
       <c r="C812" s="23"/>
@@ -20323,7 +20326,7 @@
       <c r="N812" s="23"/>
       <c r="O812" s="23"/>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:15" ht="14.4">
       <c r="A813" s="23"/>
       <c r="B813" s="23"/>
       <c r="C813" s="23"/>
@@ -20340,7 +20343,7 @@
       <c r="N813" s="23"/>
       <c r="O813" s="23"/>
     </row>
-    <row r="814" spans="1:15">
+    <row r="814" spans="1:15" ht="14.4">
       <c r="A814" s="23"/>
       <c r="B814" s="23"/>
       <c r="C814" s="23"/>
@@ -20357,7 +20360,7 @@
       <c r="N814" s="23"/>
       <c r="O814" s="23"/>
     </row>
-    <row r="815" spans="1:15">
+    <row r="815" spans="1:15" ht="14.4">
       <c r="A815" s="23"/>
       <c r="B815" s="23"/>
       <c r="C815" s="23"/>
@@ -20374,7 +20377,7 @@
       <c r="N815" s="23"/>
       <c r="O815" s="23"/>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:15" ht="14.4">
       <c r="A816" s="23"/>
       <c r="B816" s="23"/>
       <c r="C816" s="23"/>
@@ -20391,7 +20394,7 @@
       <c r="N816" s="23"/>
       <c r="O816" s="23"/>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:15" ht="14.4">
       <c r="A817" s="23"/>
       <c r="B817" s="23"/>
       <c r="C817" s="23"/>
@@ -20408,7 +20411,7 @@
       <c r="N817" s="23"/>
       <c r="O817" s="23"/>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:15" ht="14.4">
       <c r="A818" s="23"/>
       <c r="B818" s="23"/>
       <c r="C818" s="23"/>
@@ -20425,7 +20428,7 @@
       <c r="N818" s="23"/>
       <c r="O818" s="23"/>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:15" ht="14.4">
       <c r="A819" s="23"/>
       <c r="B819" s="23"/>
       <c r="C819" s="23"/>
@@ -20442,7 +20445,7 @@
       <c r="N819" s="23"/>
       <c r="O819" s="23"/>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:15" ht="14.4">
       <c r="A820" s="23"/>
       <c r="B820" s="23"/>
       <c r="C820" s="23"/>
@@ -20459,7 +20462,7 @@
       <c r="N820" s="23"/>
       <c r="O820" s="23"/>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:15" ht="14.4">
       <c r="A821" s="23"/>
       <c r="B821" s="23"/>
       <c r="C821" s="23"/>
@@ -20476,7 +20479,7 @@
       <c r="N821" s="23"/>
       <c r="O821" s="23"/>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:15" ht="14.4">
       <c r="A822" s="23"/>
       <c r="B822" s="23"/>
       <c r="C822" s="23"/>
@@ -20493,7 +20496,7 @@
       <c r="N822" s="23"/>
       <c r="O822" s="23"/>
     </row>
-    <row r="823" spans="1:15">
+    <row r="823" spans="1:15" ht="14.4">
       <c r="A823" s="23"/>
       <c r="B823" s="23"/>
       <c r="C823" s="23"/>
@@ -20510,7 +20513,7 @@
       <c r="N823" s="23"/>
       <c r="O823" s="23"/>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="1:15" ht="14.4">
       <c r="A824" s="23"/>
       <c r="B824" s="23"/>
       <c r="C824" s="23"/>
@@ -20527,7 +20530,7 @@
       <c r="N824" s="23"/>
       <c r="O824" s="23"/>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="1:15" ht="14.4">
       <c r="A825" s="23"/>
       <c r="B825" s="23"/>
       <c r="C825" s="23"/>
@@ -20544,7 +20547,7 @@
       <c r="N825" s="23"/>
       <c r="O825" s="23"/>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="1:15" ht="14.4">
       <c r="A826" s="23"/>
       <c r="B826" s="23"/>
       <c r="C826" s="23"/>
@@ -20561,7 +20564,7 @@
       <c r="N826" s="23"/>
       <c r="O826" s="23"/>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="1:15" ht="14.4">
       <c r="A827" s="23"/>
       <c r="B827" s="23"/>
       <c r="C827" s="23"/>
@@ -20578,7 +20581,7 @@
       <c r="N827" s="23"/>
       <c r="O827" s="23"/>
     </row>
-    <row r="828" spans="1:15">
+    <row r="828" spans="1:15" ht="14.4">
       <c r="A828" s="23"/>
       <c r="B828" s="23"/>
       <c r="C828" s="23"/>
@@ -20595,7 +20598,7 @@
       <c r="N828" s="23"/>
       <c r="O828" s="23"/>
     </row>
-    <row r="829" spans="1:15">
+    <row r="829" spans="1:15" ht="14.4">
       <c r="A829" s="23"/>
       <c r="B829" s="23"/>
       <c r="C829" s="23"/>
@@ -20612,7 +20615,7 @@
       <c r="N829" s="23"/>
       <c r="O829" s="23"/>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="1:15" ht="14.4">
       <c r="A830" s="23"/>
       <c r="B830" s="23"/>
       <c r="C830" s="23"/>
@@ -20629,7 +20632,7 @@
       <c r="N830" s="23"/>
       <c r="O830" s="23"/>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="1:15" ht="14.4">
       <c r="A831" s="23"/>
       <c r="B831" s="23"/>
       <c r="C831" s="23"/>
@@ -20646,7 +20649,7 @@
       <c r="N831" s="23"/>
       <c r="O831" s="23"/>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="1:15" ht="14.4">
       <c r="A832" s="23"/>
       <c r="B832" s="23"/>
       <c r="C832" s="23"/>
@@ -20663,7 +20666,7 @@
       <c r="N832" s="23"/>
       <c r="O832" s="23"/>
     </row>
-    <row r="833" spans="1:15">
+    <row r="833" spans="1:15" ht="14.4">
       <c r="A833" s="23"/>
       <c r="B833" s="23"/>
       <c r="C833" s="23"/>
@@ -20680,7 +20683,7 @@
       <c r="N833" s="23"/>
       <c r="O833" s="23"/>
     </row>
-    <row r="834" spans="1:15">
+    <row r="834" spans="1:15" ht="14.4">
       <c r="A834" s="23"/>
       <c r="B834" s="23"/>
       <c r="C834" s="23"/>
@@ -20697,7 +20700,7 @@
       <c r="N834" s="23"/>
       <c r="O834" s="23"/>
     </row>
-    <row r="835" spans="1:15">
+    <row r="835" spans="1:15" ht="14.4">
       <c r="A835" s="23"/>
       <c r="B835" s="23"/>
       <c r="C835" s="23"/>
@@ -20714,7 +20717,7 @@
       <c r="N835" s="23"/>
       <c r="O835" s="23"/>
     </row>
-    <row r="836" spans="1:15">
+    <row r="836" spans="1:15" ht="14.4">
       <c r="A836" s="23"/>
       <c r="B836" s="23"/>
       <c r="C836" s="23"/>
@@ -20731,7 +20734,7 @@
       <c r="N836" s="23"/>
       <c r="O836" s="23"/>
     </row>
-    <row r="837" spans="1:15">
+    <row r="837" spans="1:15" ht="14.4">
       <c r="A837" s="23"/>
       <c r="B837" s="23"/>
       <c r="C837" s="23"/>
@@ -20748,7 +20751,7 @@
       <c r="N837" s="23"/>
       <c r="O837" s="23"/>
     </row>
-    <row r="838" spans="1:15">
+    <row r="838" spans="1:15" ht="14.4">
       <c r="A838" s="23"/>
       <c r="B838" s="23"/>
       <c r="C838" s="23"/>
@@ -20765,7 +20768,7 @@
       <c r="N838" s="23"/>
       <c r="O838" s="23"/>
     </row>
-    <row r="839" spans="1:15">
+    <row r="839" spans="1:15" ht="14.4">
       <c r="A839" s="23"/>
       <c r="B839" s="23"/>
       <c r="C839" s="23"/>
@@ -20782,7 +20785,7 @@
       <c r="N839" s="23"/>
       <c r="O839" s="23"/>
     </row>
-    <row r="840" spans="1:15">
+    <row r="840" spans="1:15" ht="14.4">
       <c r="A840" s="23"/>
       <c r="B840" s="23"/>
       <c r="C840" s="23"/>
@@ -20799,7 +20802,7 @@
       <c r="N840" s="23"/>
       <c r="O840" s="23"/>
     </row>
-    <row r="841" spans="1:15">
+    <row r="841" spans="1:15" ht="14.4">
       <c r="A841" s="23"/>
       <c r="B841" s="23"/>
       <c r="C841" s="23"/>
@@ -20816,7 +20819,7 @@
       <c r="N841" s="23"/>
       <c r="O841" s="23"/>
     </row>
-    <row r="842" spans="1:15">
+    <row r="842" spans="1:15" ht="14.4">
       <c r="A842" s="23"/>
       <c r="B842" s="23"/>
       <c r="C842" s="23"/>
@@ -20833,7 +20836,7 @@
       <c r="N842" s="23"/>
       <c r="O842" s="23"/>
     </row>
-    <row r="843" spans="1:15">
+    <row r="843" spans="1:15" ht="14.4">
       <c r="A843" s="23"/>
       <c r="B843" s="23"/>
       <c r="C843" s="23"/>
@@ -20850,7 +20853,7 @@
       <c r="N843" s="23"/>
       <c r="O843" s="23"/>
     </row>
-    <row r="844" spans="1:15">
+    <row r="844" spans="1:15" ht="14.4">
       <c r="A844" s="23"/>
       <c r="B844" s="23"/>
       <c r="C844" s="23"/>
@@ -20867,7 +20870,7 @@
       <c r="N844" s="23"/>
       <c r="O844" s="23"/>
     </row>
-    <row r="845" spans="1:15">
+    <row r="845" spans="1:15" ht="14.4">
       <c r="A845" s="23"/>
       <c r="B845" s="23"/>
       <c r="C845" s="23"/>
@@ -20884,7 +20887,7 @@
       <c r="N845" s="23"/>
       <c r="O845" s="23"/>
     </row>
-    <row r="846" spans="1:15">
+    <row r="846" spans="1:15" ht="14.4">
       <c r="A846" s="23"/>
       <c r="B846" s="23"/>
       <c r="C846" s="23"/>
@@ -20901,7 +20904,7 @@
       <c r="N846" s="23"/>
       <c r="O846" s="23"/>
     </row>
-    <row r="847" spans="1:15">
+    <row r="847" spans="1:15" ht="14.4">
       <c r="A847" s="23"/>
       <c r="B847" s="23"/>
       <c r="C847" s="23"/>
@@ -20918,7 +20921,7 @@
       <c r="N847" s="23"/>
       <c r="O847" s="23"/>
     </row>
-    <row r="848" spans="1:15">
+    <row r="848" spans="1:15" ht="14.4">
       <c r="A848" s="23"/>
       <c r="B848" s="23"/>
       <c r="C848" s="23"/>
@@ -20935,7 +20938,7 @@
       <c r="N848" s="23"/>
       <c r="O848" s="23"/>
     </row>
-    <row r="849" spans="1:15">
+    <row r="849" spans="1:15" ht="14.4">
       <c r="A849" s="23"/>
       <c r="B849" s="23"/>
       <c r="C849" s="23"/>
@@ -20952,7 +20955,7 @@
       <c r="N849" s="23"/>
       <c r="O849" s="23"/>
     </row>
-    <row r="850" spans="1:15">
+    <row r="850" spans="1:15" ht="14.4">
       <c r="A850" s="23"/>
       <c r="B850" s="23"/>
       <c r="C850" s="23"/>
@@ -20969,7 +20972,7 @@
       <c r="N850" s="23"/>
       <c r="O850" s="23"/>
     </row>
-    <row r="851" spans="1:15">
+    <row r="851" spans="1:15" ht="14.4">
       <c r="A851" s="23"/>
       <c r="B851" s="23"/>
       <c r="C851" s="23"/>
@@ -20986,7 +20989,7 @@
       <c r="N851" s="23"/>
       <c r="O851" s="23"/>
     </row>
-    <row r="852" spans="1:15">
+    <row r="852" spans="1:15" ht="14.4">
       <c r="A852" s="23"/>
       <c r="B852" s="23"/>
       <c r="C852" s="23"/>
@@ -21003,7 +21006,7 @@
       <c r="N852" s="23"/>
       <c r="O852" s="23"/>
     </row>
-    <row r="853" spans="1:15">
+    <row r="853" spans="1:15" ht="14.4">
       <c r="A853" s="23"/>
       <c r="B853" s="23"/>
       <c r="C853" s="23"/>
@@ -21020,7 +21023,7 @@
       <c r="N853" s="23"/>
       <c r="O853" s="23"/>
     </row>
-    <row r="854" spans="1:15">
+    <row r="854" spans="1:15" ht="14.4">
       <c r="A854" s="23"/>
       <c r="B854" s="23"/>
       <c r="C854" s="23"/>
@@ -21037,7 +21040,7 @@
       <c r="N854" s="23"/>
       <c r="O854" s="23"/>
     </row>
-    <row r="855" spans="1:15">
+    <row r="855" spans="1:15" ht="14.4">
       <c r="A855" s="23"/>
       <c r="B855" s="23"/>
       <c r="C855" s="23"/>
@@ -21054,7 +21057,7 @@
       <c r="N855" s="23"/>
       <c r="O855" s="23"/>
     </row>
-    <row r="856" spans="1:15">
+    <row r="856" spans="1:15" ht="14.4">
       <c r="A856" s="23"/>
       <c r="B856" s="23"/>
       <c r="C856" s="23"/>
@@ -21071,7 +21074,7 @@
       <c r="N856" s="23"/>
       <c r="O856" s="23"/>
     </row>
-    <row r="857" spans="1:15">
+    <row r="857" spans="1:15" ht="14.4">
       <c r="A857" s="23"/>
       <c r="B857" s="23"/>
       <c r="C857" s="23"/>
@@ -21088,7 +21091,7 @@
       <c r="N857" s="23"/>
       <c r="O857" s="23"/>
     </row>
-    <row r="858" spans="1:15">
+    <row r="858" spans="1:15" ht="14.4">
       <c r="A858" s="23"/>
       <c r="B858" s="23"/>
       <c r="C858" s="23"/>
@@ -21105,7 +21108,7 @@
       <c r="N858" s="23"/>
       <c r="O858" s="23"/>
     </row>
-    <row r="859" spans="1:15">
+    <row r="859" spans="1:15" ht="14.4">
       <c r="A859" s="23"/>
       <c r="B859" s="23"/>
       <c r="C859" s="23"/>
@@ -21122,7 +21125,7 @@
       <c r="N859" s="23"/>
       <c r="O859" s="23"/>
     </row>
-    <row r="860" spans="1:15">
+    <row r="860" spans="1:15" ht="14.4">
       <c r="A860" s="23"/>
       <c r="B860" s="23"/>
       <c r="C860" s="23"/>
@@ -21139,7 +21142,7 @@
       <c r="N860" s="23"/>
       <c r="O860" s="23"/>
     </row>
-    <row r="861" spans="1:15">
+    <row r="861" spans="1:15" ht="14.4">
       <c r="A861" s="23"/>
       <c r="B861" s="23"/>
       <c r="C861" s="23"/>
@@ -21156,7 +21159,7 @@
       <c r="N861" s="23"/>
       <c r="O861" s="23"/>
     </row>
-    <row r="862" spans="1:15">
+    <row r="862" spans="1:15" ht="14.4">
       <c r="A862" s="23"/>
       <c r="B862" s="23"/>
       <c r="C862" s="23"/>
@@ -21173,7 +21176,7 @@
       <c r="N862" s="23"/>
       <c r="O862" s="23"/>
     </row>
-    <row r="863" spans="1:15">
+    <row r="863" spans="1:15" ht="14.4">
       <c r="A863" s="23"/>
       <c r="B863" s="23"/>
       <c r="C863" s="23"/>
@@ -21190,7 +21193,7 @@
       <c r="N863" s="23"/>
       <c r="O863" s="23"/>
     </row>
-    <row r="864" spans="1:15">
+    <row r="864" spans="1:15" ht="14.4">
       <c r="A864" s="23"/>
       <c r="B864" s="23"/>
       <c r="C864" s="23"/>
@@ -21207,7 +21210,7 @@
       <c r="N864" s="23"/>
       <c r="O864" s="23"/>
     </row>
-    <row r="865" spans="1:15">
+    <row r="865" spans="1:15" ht="14.4">
       <c r="A865" s="23"/>
       <c r="B865" s="23"/>
       <c r="C865" s="23"/>
@@ -21224,7 +21227,7 @@
       <c r="N865" s="23"/>
       <c r="O865" s="23"/>
     </row>
-    <row r="866" spans="1:15">
+    <row r="866" spans="1:15" ht="14.4">
       <c r="A866" s="23"/>
       <c r="B866" s="23"/>
       <c r="C866" s="23"/>
@@ -21241,7 +21244,7 @@
       <c r="N866" s="23"/>
       <c r="O866" s="23"/>
     </row>
-    <row r="867" spans="1:15">
+    <row r="867" spans="1:15" ht="14.4">
       <c r="A867" s="23"/>
       <c r="B867" s="23"/>
       <c r="C867" s="23"/>
@@ -21258,7 +21261,7 @@
       <c r="N867" s="23"/>
       <c r="O867" s="23"/>
     </row>
-    <row r="868" spans="1:15">
+    <row r="868" spans="1:15" ht="14.4">
       <c r="A868" s="23"/>
       <c r="B868" s="23"/>
       <c r="C868" s="23"/>
@@ -21275,7 +21278,7 @@
       <c r="N868" s="23"/>
       <c r="O868" s="23"/>
     </row>
-    <row r="869" spans="1:15">
+    <row r="869" spans="1:15" ht="14.4">
       <c r="A869" s="23"/>
       <c r="B869" s="23"/>
       <c r="C869" s="23"/>
@@ -21292,7 +21295,7 @@
       <c r="N869" s="23"/>
       <c r="O869" s="23"/>
     </row>
-    <row r="870" spans="1:15">
+    <row r="870" spans="1:15" ht="14.4">
       <c r="A870" s="23"/>
       <c r="B870" s="23"/>
       <c r="C870" s="23"/>
@@ -21309,7 +21312,7 @@
       <c r="N870" s="23"/>
       <c r="O870" s="23"/>
     </row>
-    <row r="871" spans="1:15">
+    <row r="871" spans="1:15" ht="14.4">
       <c r="A871" s="23"/>
       <c r="B871" s="23"/>
       <c r="C871" s="23"/>
@@ -21326,7 +21329,7 @@
       <c r="N871" s="23"/>
       <c r="O871" s="23"/>
     </row>
-    <row r="872" spans="1:15">
+    <row r="872" spans="1:15" ht="14.4">
       <c r="A872" s="23"/>
       <c r="B872" s="23"/>
       <c r="C872" s="23"/>
@@ -21343,7 +21346,7 @@
       <c r="N872" s="23"/>
       <c r="O872" s="23"/>
     </row>
-    <row r="873" spans="1:15">
+    <row r="873" spans="1:15" ht="14.4">
       <c r="A873" s="23"/>
       <c r="B873" s="23"/>
       <c r="C873" s="23"/>
@@ -21360,7 +21363,7 @@
       <c r="N873" s="23"/>
       <c r="O873" s="23"/>
     </row>
-    <row r="874" spans="1:15">
+    <row r="874" spans="1:15" ht="14.4">
       <c r="A874" s="23"/>
       <c r="B874" s="23"/>
       <c r="C874" s="23"/>
@@ -21377,7 +21380,7 @@
       <c r="N874" s="23"/>
       <c r="O874" s="23"/>
     </row>
-    <row r="875" spans="1:15">
+    <row r="875" spans="1:15" ht="14.4">
       <c r="A875" s="23"/>
       <c r="B875" s="23"/>
       <c r="C875" s="23"/>
@@ -21394,7 +21397,7 @@
       <c r="N875" s="23"/>
       <c r="O875" s="23"/>
     </row>
-    <row r="876" spans="1:15">
+    <row r="876" spans="1:15" ht="14.4">
       <c r="A876" s="23"/>
       <c r="B876" s="23"/>
       <c r="C876" s="23"/>
@@ -21411,7 +21414,7 @@
       <c r="N876" s="23"/>
       <c r="O876" s="23"/>
     </row>
-    <row r="877" spans="1:15">
+    <row r="877" spans="1:15" ht="14.4">
       <c r="A877" s="23"/>
       <c r="B877" s="23"/>
       <c r="C877" s="23"/>
@@ -21428,7 +21431,7 @@
       <c r="N877" s="23"/>
       <c r="O877" s="23"/>
     </row>
-    <row r="878" spans="1:15">
+    <row r="878" spans="1:15" ht="14.4">
       <c r="A878" s="23"/>
       <c r="B878" s="23"/>
       <c r="C878" s="23"/>
@@ -21445,7 +21448,7 @@
       <c r="N878" s="23"/>
       <c r="O878" s="23"/>
     </row>
-    <row r="879" spans="1:15">
+    <row r="879" spans="1:15" ht="14.4">
       <c r="A879" s="23"/>
       <c r="B879" s="23"/>
       <c r="C879" s="23"/>
@@ -21462,7 +21465,7 @@
       <c r="N879" s="23"/>
       <c r="O879" s="23"/>
     </row>
-    <row r="880" spans="1:15">
+    <row r="880" spans="1:15" ht="14.4">
       <c r="A880" s="23"/>
       <c r="B880" s="23"/>
       <c r="C880" s="23"/>
@@ -21479,7 +21482,7 @@
       <c r="N880" s="23"/>
       <c r="O880" s="23"/>
     </row>
-    <row r="881" spans="1:15">
+    <row r="881" spans="1:15" ht="14.4">
       <c r="A881" s="23"/>
       <c r="B881" s="23"/>
       <c r="C881" s="23"/>
@@ -21496,7 +21499,7 @@
       <c r="N881" s="23"/>
       <c r="O881" s="23"/>
     </row>
-    <row r="882" spans="1:15">
+    <row r="882" spans="1:15" ht="14.4">
       <c r="A882" s="23"/>
       <c r="B882" s="23"/>
       <c r="C882" s="23"/>
@@ -21513,7 +21516,7 @@
       <c r="N882" s="23"/>
       <c r="O882" s="23"/>
     </row>
-    <row r="883" spans="1:15">
+    <row r="883" spans="1:15" ht="14.4">
       <c r="A883" s="23"/>
       <c r="B883" s="23"/>
       <c r="C883" s="23"/>
@@ -21530,7 +21533,7 @@
       <c r="N883" s="23"/>
       <c r="O883" s="23"/>
     </row>
-    <row r="884" spans="1:15">
+    <row r="884" spans="1:15" ht="14.4">
       <c r="A884" s="23"/>
       <c r="B884" s="23"/>
       <c r="C884" s="23"/>
@@ -21547,7 +21550,7 @@
       <c r="N884" s="23"/>
       <c r="O884" s="23"/>
     </row>
-    <row r="885" spans="1:15">
+    <row r="885" spans="1:15" ht="14.4">
       <c r="A885" s="23"/>
       <c r="B885" s="23"/>
       <c r="C885" s="23"/>
@@ -21564,7 +21567,7 @@
       <c r="N885" s="23"/>
       <c r="O885" s="23"/>
     </row>
-    <row r="886" spans="1:15">
+    <row r="886" spans="1:15" ht="14.4">
       <c r="A886" s="23"/>
       <c r="B886" s="23"/>
       <c r="C886" s="23"/>
@@ -21581,7 +21584,7 @@
       <c r="N886" s="23"/>
       <c r="O886" s="23"/>
     </row>
-    <row r="887" spans="1:15">
+    <row r="887" spans="1:15" ht="14.4">
       <c r="A887" s="23"/>
       <c r="B887" s="23"/>
       <c r="C887" s="23"/>
@@ -21598,7 +21601,7 @@
       <c r="N887" s="23"/>
       <c r="O887" s="23"/>
     </row>
-    <row r="888" spans="1:15">
+    <row r="888" spans="1:15" ht="14.4">
       <c r="A888" s="23"/>
       <c r="B888" s="23"/>
       <c r="C888" s="23"/>
@@ -21615,7 +21618,7 @@
       <c r="N888" s="23"/>
       <c r="O888" s="23"/>
     </row>
-    <row r="889" spans="1:15">
+    <row r="889" spans="1:15" ht="14.4">
       <c r="A889" s="23"/>
       <c r="B889" s="23"/>
       <c r="C889" s="23"/>
@@ -21632,7 +21635,7 @@
       <c r="N889" s="23"/>
       <c r="O889" s="23"/>
     </row>
-    <row r="890" spans="1:15">
+    <row r="890" spans="1:15" ht="14.4">
       <c r="A890" s="23"/>
       <c r="B890" s="23"/>
       <c r="C890" s="23"/>
@@ -21649,7 +21652,7 @@
       <c r="N890" s="23"/>
       <c r="O890" s="23"/>
     </row>
-    <row r="891" spans="1:15">
+    <row r="891" spans="1:15" ht="14.4">
       <c r="A891" s="23"/>
       <c r="B891" s="23"/>
       <c r="C891" s="23"/>
@@ -21666,7 +21669,7 @@
       <c r="N891" s="23"/>
       <c r="O891" s="23"/>
     </row>
-    <row r="892" spans="1:15">
+    <row r="892" spans="1:15" ht="14.4">
       <c r="A892" s="23"/>
       <c r="B892" s="23"/>
       <c r="C892" s="23"/>
@@ -21683,7 +21686,7 @@
       <c r="N892" s="23"/>
       <c r="O892" s="23"/>
     </row>
-    <row r="893" spans="1:15">
+    <row r="893" spans="1:15" ht="14.4">
       <c r="A893" s="23"/>
       <c r="B893" s="23"/>
       <c r="C893" s="23"/>
@@ -21700,7 +21703,7 @@
       <c r="N893" s="23"/>
       <c r="O893" s="23"/>
     </row>
-    <row r="894" spans="1:15">
+    <row r="894" spans="1:15" ht="14.4">
       <c r="A894" s="23"/>
       <c r="B894" s="23"/>
       <c r="C894" s="23"/>
@@ -21717,7 +21720,7 @@
       <c r="N894" s="23"/>
       <c r="O894" s="23"/>
     </row>
-    <row r="895" spans="1:15">
+    <row r="895" spans="1:15" ht="14.4">
       <c r="A895" s="23"/>
       <c r="B895" s="23"/>
       <c r="C895" s="23"/>
@@ -21734,7 +21737,7 @@
       <c r="N895" s="23"/>
       <c r="O895" s="23"/>
     </row>
-    <row r="896" spans="1:15">
+    <row r="896" spans="1:15" ht="14.4">
       <c r="A896" s="23"/>
       <c r="B896" s="23"/>
       <c r="C896" s="23"/>
@@ -21751,7 +21754,7 @@
       <c r="N896" s="23"/>
       <c r="O896" s="23"/>
     </row>
-    <row r="897" spans="1:15">
+    <row r="897" spans="1:15" ht="14.4">
       <c r="A897" s="23"/>
       <c r="B897" s="23"/>
       <c r="C897" s="23"/>
@@ -21768,7 +21771,7 @@
       <c r="N897" s="23"/>
       <c r="O897" s="23"/>
     </row>
-    <row r="898" spans="1:15">
+    <row r="898" spans="1:15" ht="14.4">
       <c r="A898" s="23"/>
       <c r="B898" s="23"/>
       <c r="C898" s="23"/>
@@ -21785,7 +21788,7 @@
       <c r="N898" s="23"/>
       <c r="O898" s="23"/>
     </row>
-    <row r="899" spans="1:15">
+    <row r="899" spans="1:15" ht="14.4">
       <c r="A899" s="23"/>
       <c r="B899" s="23"/>
       <c r="C899" s="23"/>
@@ -21802,7 +21805,7 @@
       <c r="N899" s="23"/>
       <c r="O899" s="23"/>
     </row>
-    <row r="900" spans="1:15">
+    <row r="900" spans="1:15" ht="14.4">
       <c r="A900" s="23"/>
       <c r="B900" s="23"/>
       <c r="C900" s="23"/>
@@ -21819,7 +21822,7 @@
       <c r="N900" s="23"/>
       <c r="O900" s="23"/>
     </row>
-    <row r="901" spans="1:15">
+    <row r="901" spans="1:15" ht="14.4">
       <c r="A901" s="23"/>
       <c r="B901" s="23"/>
       <c r="C901" s="23"/>
@@ -21836,7 +21839,7 @@
       <c r="N901" s="23"/>
       <c r="O901" s="23"/>
     </row>
-    <row r="902" spans="1:15">
+    <row r="902" spans="1:15" ht="14.4">
       <c r="A902" s="23"/>
       <c r="B902" s="23"/>
       <c r="C902" s="23"/>
@@ -21853,7 +21856,7 @@
       <c r="N902" s="23"/>
       <c r="O902" s="23"/>
     </row>
-    <row r="903" spans="1:15">
+    <row r="903" spans="1:15" ht="14.4">
       <c r="A903" s="23"/>
       <c r="B903" s="23"/>
       <c r="C903" s="23"/>
@@ -21870,7 +21873,7 @@
       <c r="N903" s="23"/>
       <c r="O903" s="23"/>
     </row>
-    <row r="904" spans="1:15">
+    <row r="904" spans="1:15" ht="14.4">
       <c r="A904" s="23"/>
       <c r="B904" s="23"/>
       <c r="C904" s="23"/>
@@ -21887,7 +21890,7 @@
       <c r="N904" s="23"/>
       <c r="O904" s="23"/>
     </row>
-    <row r="905" spans="1:15">
+    <row r="905" spans="1:15" ht="14.4">
       <c r="A905" s="23"/>
       <c r="B905" s="23"/>
       <c r="C905" s="23"/>
@@ -21904,7 +21907,7 @@
       <c r="N905" s="23"/>
       <c r="O905" s="23"/>
     </row>
-    <row r="906" spans="1:15">
+    <row r="906" spans="1:15" ht="14.4">
       <c r="A906" s="23"/>
       <c r="B906" s="23"/>
       <c r="C906" s="23"/>
@@ -21921,7 +21924,7 @@
       <c r="N906" s="23"/>
       <c r="O906" s="23"/>
     </row>
-    <row r="907" spans="1:15">
+    <row r="907" spans="1:15" ht="14.4">
       <c r="A907" s="23"/>
       <c r="B907" s="23"/>
       <c r="C907" s="23"/>
@@ -21938,7 +21941,7 @@
       <c r="N907" s="23"/>
       <c r="O907" s="23"/>
     </row>
-    <row r="908" spans="1:15">
+    <row r="908" spans="1:15" ht="14.4">
       <c r="A908" s="23"/>
       <c r="B908" s="23"/>
       <c r="C908" s="23"/>
@@ -21955,7 +21958,7 @@
       <c r="N908" s="23"/>
       <c r="O908" s="23"/>
     </row>
-    <row r="909" spans="1:15">
+    <row r="909" spans="1:15" ht="14.4">
       <c r="A909" s="23"/>
       <c r="B909" s="23"/>
       <c r="C909" s="23"/>
@@ -21972,7 +21975,7 @@
       <c r="N909" s="23"/>
       <c r="O909" s="23"/>
     </row>
-    <row r="910" spans="1:15">
+    <row r="910" spans="1:15" ht="14.4">
       <c r="A910" s="23"/>
       <c r="B910" s="23"/>
       <c r="C910" s="23"/>
@@ -21989,7 +21992,7 @@
       <c r="N910" s="23"/>
       <c r="O910" s="23"/>
     </row>
-    <row r="911" spans="1:15">
+    <row r="911" spans="1:15" ht="14.4">
       <c r="A911" s="23"/>
       <c r="B911" s="23"/>
       <c r="C911" s="23"/>
@@ -22006,7 +22009,7 @@
       <c r="N911" s="23"/>
       <c r="O911" s="23"/>
     </row>
-    <row r="912" spans="1:15">
+    <row r="912" spans="1:15" ht="14.4">
       <c r="A912" s="23"/>
       <c r="B912" s="23"/>
       <c r="C912" s="23"/>
@@ -22023,7 +22026,7 @@
       <c r="N912" s="23"/>
       <c r="O912" s="23"/>
     </row>
-    <row r="913" spans="1:15">
+    <row r="913" spans="1:15" ht="14.4">
       <c r="A913" s="23"/>
       <c r="B913" s="23"/>
       <c r="C913" s="23"/>
@@ -22040,7 +22043,7 @@
       <c r="N913" s="23"/>
       <c r="O913" s="23"/>
     </row>
-    <row r="914" spans="1:15">
+    <row r="914" spans="1:15" ht="14.4">
       <c r="A914" s="23"/>
       <c r="B914" s="23"/>
       <c r="C914" s="23"/>
@@ -22057,7 +22060,7 @@
       <c r="N914" s="23"/>
       <c r="O914" s="23"/>
     </row>
-    <row r="915" spans="1:15">
+    <row r="915" spans="1:15" ht="14.4">
       <c r="A915" s="23"/>
       <c r="B915" s="23"/>
       <c r="C915" s="23"/>
@@ -22074,7 +22077,7 @@
       <c r="N915" s="23"/>
       <c r="O915" s="23"/>
     </row>
-    <row r="916" spans="1:15">
+    <row r="916" spans="1:15" ht="14.4">
       <c r="A916" s="23"/>
       <c r="B916" s="23"/>
       <c r="C916" s="23"/>
@@ -22091,7 +22094,7 @@
       <c r="N916" s="23"/>
       <c r="O916" s="23"/>
     </row>
-    <row r="917" spans="1:15">
+    <row r="917" spans="1:15" ht="14.4">
       <c r="A917" s="23"/>
       <c r="B917" s="23"/>
       <c r="C917" s="23"/>
@@ -22108,7 +22111,7 @@
       <c r="N917" s="23"/>
       <c r="O917" s="23"/>
     </row>
-    <row r="918" spans="1:15">
+    <row r="918" spans="1:15" ht="14.4">
       <c r="A918" s="23"/>
       <c r="B918" s="23"/>
       <c r="C918" s="23"/>
@@ -22125,7 +22128,7 @@
       <c r="N918" s="23"/>
       <c r="O918" s="23"/>
     </row>
-    <row r="919" spans="1:15">
+    <row r="919" spans="1:15" ht="14.4">
       <c r="A919" s="23"/>
       <c r="B919" s="23"/>
       <c r="C919" s="23"/>
@@ -22142,7 +22145,7 @@
       <c r="N919" s="23"/>
       <c r="O919" s="23"/>
     </row>
-    <row r="920" spans="1:15">
+    <row r="920" spans="1:15" ht="14.4">
       <c r="A920" s="23"/>
       <c r="B920" s="23"/>
       <c r="C920" s="23"/>
@@ -22159,7 +22162,7 @@
       <c r="N920" s="23"/>
       <c r="O920" s="23"/>
     </row>
-    <row r="921" spans="1:15">
+    <row r="921" spans="1:15" ht="14.4">
       <c r="A921" s="23"/>
       <c r="B921" s="23"/>
       <c r="C921" s="23"/>
@@ -22176,7 +22179,7 @@
       <c r="N921" s="23"/>
       <c r="O921" s="23"/>
     </row>
-    <row r="922" spans="1:15">
+    <row r="922" spans="1:15" ht="14.4">
       <c r="A922" s="23"/>
       <c r="B922" s="23"/>
       <c r="C922" s="23"/>
@@ -22193,7 +22196,7 @@
       <c r="N922" s="23"/>
       <c r="O922" s="23"/>
     </row>
-    <row r="923" spans="1:15">
+    <row r="923" spans="1:15" ht="14.4">
       <c r="A923" s="23"/>
       <c r="B923" s="23"/>
       <c r="C923" s="23"/>
@@ -22210,7 +22213,7 @@
       <c r="N923" s="23"/>
       <c r="O923" s="23"/>
     </row>
-    <row r="924" spans="1:15">
+    <row r="924" spans="1:15" ht="14.4">
       <c r="A924" s="23"/>
       <c r="B924" s="23"/>
       <c r="C924" s="23"/>
@@ -22227,7 +22230,7 @@
       <c r="N924" s="23"/>
       <c r="O924" s="23"/>
     </row>
-    <row r="925" spans="1:15">
+    <row r="925" spans="1:15" ht="14.4">
       <c r="A925" s="23"/>
       <c r="B925" s="23"/>
       <c r="C925" s="23"/>
@@ -22244,7 +22247,7 @@
       <c r="N925" s="23"/>
       <c r="O925" s="23"/>
     </row>
-    <row r="926" spans="1:15">
+    <row r="926" spans="1:15" ht="14.4">
       <c r="A926" s="23"/>
       <c r="B926" s="23"/>
       <c r="C926" s="23"/>
@@ -22261,7 +22264,7 @@
       <c r="N926" s="23"/>
       <c r="O926" s="23"/>
     </row>
-    <row r="927" spans="1:15">
+    <row r="927" spans="1:15" ht="14.4">
       <c r="A927" s="23"/>
       <c r="B927" s="23"/>
       <c r="C927" s="23"/>
@@ -22278,7 +22281,7 @@
       <c r="N927" s="23"/>
       <c r="O927" s="23"/>
     </row>
-    <row r="928" spans="1:15">
+    <row r="928" spans="1:15" ht="14.4">
       <c r="A928" s="23"/>
       <c r="B928" s="23"/>
       <c r="C928" s="23"/>
@@ -22295,7 +22298,7 @@
       <c r="N928" s="23"/>
       <c r="O928" s="23"/>
     </row>
-    <row r="929" spans="1:15">
+    <row r="929" spans="1:15" ht="14.4">
       <c r="A929" s="23"/>
       <c r="B929" s="23"/>
       <c r="C929" s="23"/>
@@ -22312,7 +22315,7 @@
       <c r="N929" s="23"/>
       <c r="O929" s="23"/>
     </row>
-    <row r="930" spans="1:15">
+    <row r="930" spans="1:15" ht="14.4">
       <c r="A930" s="23"/>
       <c r="B930" s="23"/>
       <c r="C930" s="23"/>
@@ -22329,7 +22332,7 @@
       <c r="N930" s="23"/>
       <c r="O930" s="23"/>
     </row>
-    <row r="931" spans="1:15">
+    <row r="931" spans="1:15" ht="14.4">
       <c r="A931" s="23"/>
       <c r="B931" s="23"/>
       <c r="C931" s="23"/>
@@ -22346,7 +22349,7 @@
       <c r="N931" s="23"/>
       <c r="O931" s="23"/>
     </row>
-    <row r="932" spans="1:15">
+    <row r="932" spans="1:15" ht="14.4">
       <c r="A932" s="23"/>
       <c r="B932" s="23"/>
       <c r="C932" s="23"/>
@@ -22363,7 +22366,7 @@
       <c r="N932" s="23"/>
       <c r="O932" s="23"/>
     </row>
-    <row r="933" spans="1:15">
+    <row r="933" spans="1:15" ht="14.4">
       <c r="A933" s="23"/>
       <c r="B933" s="23"/>
       <c r="C933" s="23"/>
@@ -22380,7 +22383,7 @@
       <c r="N933" s="23"/>
       <c r="O933" s="23"/>
     </row>
-    <row r="934" spans="1:15">
+    <row r="934" spans="1:15" ht="14.4">
       <c r="A934" s="23"/>
       <c r="B934" s="23"/>
       <c r="C934" s="23"/>
@@ -22397,7 +22400,7 @@
       <c r="N934" s="23"/>
       <c r="O934" s="23"/>
     </row>
-    <row r="935" spans="1:15">
+    <row r="935" spans="1:15" ht="14.4">
       <c r="A935" s="23"/>
       <c r="B935" s="23"/>
       <c r="C935" s="23"/>
@@ -22414,7 +22417,7 @@
       <c r="N935" s="23"/>
       <c r="O935" s="23"/>
     </row>
-    <row r="936" spans="1:15">
+    <row r="936" spans="1:15" ht="14.4">
       <c r="A936" s="23"/>
       <c r="B936" s="23"/>
       <c r="C936" s="23"/>
@@ -22431,7 +22434,7 @@
       <c r="N936" s="23"/>
       <c r="O936" s="23"/>
     </row>
-    <row r="937" spans="1:15">
+    <row r="937" spans="1:15" ht="14.4">
       <c r="A937" s="23"/>
       <c r="B937" s="23"/>
       <c r="C937" s="23"/>
@@ -22448,7 +22451,7 @@
       <c r="N937" s="23"/>
       <c r="O937" s="23"/>
     </row>
-    <row r="938" spans="1:15">
+    <row r="938" spans="1:15" ht="14.4">
       <c r="A938" s="23"/>
       <c r="B938" s="23"/>
       <c r="C938" s="23"/>
@@ -22465,7 +22468,7 @@
       <c r="N938" s="23"/>
       <c r="O938" s="23"/>
     </row>
-    <row r="939" spans="1:15">
+    <row r="939" spans="1:15" ht="14.4">
       <c r="A939" s="23"/>
       <c r="B939" s="23"/>
       <c r="C939" s="23"/>
@@ -22482,7 +22485,7 @@
       <c r="N939" s="23"/>
       <c r="O939" s="23"/>
     </row>
-    <row r="940" spans="1:15">
+    <row r="940" spans="1:15" ht="14.4">
       <c r="A940" s="23"/>
       <c r="B940" s="23"/>
       <c r="C940" s="23"/>
@@ -22499,7 +22502,7 @@
       <c r="N940" s="23"/>
       <c r="O940" s="23"/>
     </row>
-    <row r="941" spans="1:15">
+    <row r="941" spans="1:15" ht="14.4">
       <c r="A941" s="23"/>
       <c r="B941" s="23"/>
       <c r="C941" s="23"/>
@@ -22516,7 +22519,7 @@
       <c r="N941" s="23"/>
       <c r="O941" s="23"/>
     </row>
-    <row r="942" spans="1:15">
+    <row r="942" spans="1:15" ht="14.4">
       <c r="A942" s="23"/>
       <c r="B942" s="23"/>
       <c r="C942" s="23"/>
@@ -22533,7 +22536,7 @@
       <c r="N942" s="23"/>
       <c r="O942" s="23"/>
     </row>
-    <row r="943" spans="1:15">
+    <row r="943" spans="1:15" ht="14.4">
       <c r="A943" s="23"/>
       <c r="B943" s="23"/>
       <c r="C943" s="23"/>
@@ -22550,7 +22553,7 @@
       <c r="N943" s="23"/>
       <c r="O943" s="23"/>
     </row>
-    <row r="944" spans="1:15">
+    <row r="944" spans="1:15" ht="14.4">
       <c r="A944" s="23"/>
       <c r="B944" s="23"/>
       <c r="C944" s="23"/>
@@ -22567,7 +22570,7 @@
       <c r="N944" s="23"/>
       <c r="O944" s="23"/>
     </row>
-    <row r="945" spans="1:15">
+    <row r="945" spans="1:15" ht="14.4">
       <c r="A945" s="23"/>
       <c r="B945" s="23"/>
       <c r="C945" s="23"/>
@@ -22584,7 +22587,7 @@
       <c r="N945" s="23"/>
       <c r="O945" s="23"/>
     </row>
-    <row r="946" spans="1:15">
+    <row r="946" spans="1:15" ht="14.4">
       <c r="A946" s="23"/>
       <c r="B946" s="23"/>
       <c r="C946" s="23"/>
@@ -22601,7 +22604,7 @@
       <c r="N946" s="23"/>
       <c r="O946" s="23"/>
     </row>
-    <row r="947" spans="1:15">
+    <row r="947" spans="1:15" ht="14.4">
       <c r="A947" s="23"/>
       <c r="B947" s="23"/>
       <c r="C947" s="23"/>
@@ -22618,7 +22621,7 @@
       <c r="N947" s="23"/>
       <c r="O947" s="23"/>
     </row>
-    <row r="948" spans="1:15">
+    <row r="948" spans="1:15" ht="14.4">
       <c r="A948" s="23"/>
       <c r="B948" s="23"/>
       <c r="C948" s="23"/>
@@ -22635,7 +22638,7 @@
       <c r="N948" s="23"/>
       <c r="O948" s="23"/>
     </row>
-    <row r="949" spans="1:15">
+    <row r="949" spans="1:15" ht="14.4">
       <c r="A949" s="23"/>
       <c r="B949" s="23"/>
       <c r="C949" s="23"/>
@@ -22652,7 +22655,7 @@
       <c r="N949" s="23"/>
       <c r="O949" s="23"/>
     </row>
-    <row r="950" spans="1:15">
+    <row r="950" spans="1:15" ht="14.4">
       <c r="A950" s="23"/>
       <c r="B950" s="23"/>
       <c r="C950" s="23"/>
@@ -22669,7 +22672,7 @@
       <c r="N950" s="23"/>
       <c r="O950" s="23"/>
     </row>
-    <row r="951" spans="1:15">
+    <row r="951" spans="1:15" ht="14.4">
       <c r="A951" s="23"/>
       <c r="B951" s="23"/>
       <c r="C951" s="23"/>
@@ -22686,7 +22689,7 @@
       <c r="N951" s="23"/>
       <c r="O951" s="23"/>
     </row>
-    <row r="952" spans="1:15">
+    <row r="952" spans="1:15" ht="14.4">
       <c r="A952" s="23"/>
       <c r="B952" s="23"/>
       <c r="C952" s="23"/>
@@ -22703,7 +22706,7 @@
       <c r="N952" s="23"/>
       <c r="O952" s="23"/>
     </row>
-    <row r="953" spans="1:15">
+    <row r="953" spans="1:15" ht="14.4">
       <c r="A953" s="23"/>
       <c r="B953" s="23"/>
       <c r="C953" s="23"/>
@@ -22720,7 +22723,7 @@
       <c r="N953" s="23"/>
       <c r="O953" s="23"/>
     </row>
-    <row r="954" spans="1:15">
+    <row r="954" spans="1:15" ht="14.4">
       <c r="A954" s="23"/>
       <c r="B954" s="23"/>
       <c r="C954" s="23"/>
@@ -22737,7 +22740,7 @@
       <c r="N954" s="23"/>
       <c r="O954" s="23"/>
     </row>
-    <row r="955" spans="1:15">
+    <row r="955" spans="1:15" ht="14.4">
       <c r="A955" s="23"/>
       <c r="B955" s="23"/>
       <c r="C955" s="23"/>
@@ -22754,7 +22757,7 @@
       <c r="N955" s="23"/>
       <c r="O955" s="23"/>
     </row>
-    <row r="956" spans="1:15">
+    <row r="956" spans="1:15" ht="14.4">
       <c r="A956" s="23"/>
       <c r="B956" s="23"/>
       <c r="C956" s="23"/>
@@ -22771,7 +22774,7 @@
       <c r="N956" s="23"/>
       <c r="O956" s="23"/>
     </row>
-    <row r="957" spans="1:15">
+    <row r="957" spans="1:15" ht="14.4">
       <c r="A957" s="23"/>
       <c r="B957" s="23"/>
       <c r="C957" s="23"/>
@@ -22788,7 +22791,7 @@
       <c r="N957" s="23"/>
       <c r="O957" s="23"/>
     </row>
-    <row r="958" spans="1:15">
+    <row r="958" spans="1:15" ht="14.4">
       <c r="A958" s="23"/>
       <c r="B958" s="23"/>
       <c r="C958" s="23"/>
@@ -22805,7 +22808,7 @@
       <c r="N958" s="23"/>
       <c r="O958" s="23"/>
     </row>
-    <row r="959" spans="1:15">
+    <row r="959" spans="1:15" ht="14.4">
       <c r="A959" s="23"/>
       <c r="B959" s="23"/>
       <c r="C959" s="23"/>
@@ -22822,7 +22825,7 @@
       <c r="N959" s="23"/>
       <c r="O959" s="23"/>
     </row>
-    <row r="960" spans="1:15">
+    <row r="960" spans="1:15" ht="14.4">
       <c r="A960" s="23"/>
       <c r="B960" s="23"/>
       <c r="C960" s="23"/>
@@ -22839,7 +22842,7 @@
       <c r="N960" s="23"/>
       <c r="O960" s="23"/>
     </row>
-    <row r="961" spans="1:15">
+    <row r="961" spans="1:15" ht="14.4">
       <c r="A961" s="23"/>
       <c r="B961" s="23"/>
       <c r="C961" s="23"/>
@@ -22856,7 +22859,7 @@
       <c r="N961" s="23"/>
       <c r="O961" s="23"/>
     </row>
-    <row r="962" spans="1:15">
+    <row r="962" spans="1:15" ht="14.4">
       <c r="A962" s="23"/>
       <c r="B962" s="23"/>
       <c r="C962" s="23"/>
@@ -22873,7 +22876,7 @@
       <c r="N962" s="23"/>
       <c r="O962" s="23"/>
     </row>
-    <row r="963" spans="1:15">
+    <row r="963" spans="1:15" ht="14.4">
       <c r="A963" s="23"/>
       <c r="B963" s="23"/>
       <c r="C963" s="23"/>
@@ -22890,7 +22893,7 @@
       <c r="N963" s="23"/>
       <c r="O963" s="23"/>
     </row>
-    <row r="964" spans="1:15">
+    <row r="964" spans="1:15" ht="14.4">
       <c r="A964" s="23"/>
       <c r="B964" s="23"/>
       <c r="C964" s="23"/>
@@ -22907,7 +22910,7 @@
       <c r="N964" s="23"/>
       <c r="O964" s="23"/>
     </row>
-    <row r="965" spans="1:15">
+    <row r="965" spans="1:15" ht="14.4">
       <c r="A965" s="23"/>
       <c r="B965" s="23"/>
       <c r="C965" s="23"/>
@@ -22924,7 +22927,7 @@
       <c r="N965" s="23"/>
       <c r="O965" s="23"/>
     </row>
-    <row r="966" spans="1:15">
+    <row r="966" spans="1:15" ht="14.4">
       <c r="A966" s="23"/>
       <c r="B966" s="23"/>
       <c r="C966" s="23"/>
@@ -22941,7 +22944,7 @@
       <c r="N966" s="23"/>
       <c r="O966" s="23"/>
     </row>
-    <row r="967" spans="1:15">
+    <row r="967" spans="1:15" ht="14.4">
       <c r="A967" s="23"/>
       <c r="B967" s="23"/>
       <c r="C967" s="23"/>
@@ -22958,7 +22961,7 @@
       <c r="N967" s="23"/>
       <c r="O967" s="23"/>
     </row>
-    <row r="968" spans="1:15">
+    <row r="968" spans="1:15" ht="14.4">
       <c r="A968" s="23"/>
       <c r="B968" s="23"/>
       <c r="C968" s="23"/>
@@ -22975,7 +22978,7 @@
       <c r="N968" s="23"/>
       <c r="O968" s="23"/>
     </row>
-    <row r="969" spans="1:15">
+    <row r="969" spans="1:15" ht="14.4">
       <c r="A969" s="23"/>
       <c r="B969" s="23"/>
       <c r="C969" s="23"/>
@@ -22992,7 +22995,7 @@
       <c r="N969" s="23"/>
       <c r="O969" s="23"/>
     </row>
-    <row r="970" spans="1:15">
+    <row r="970" spans="1:15" ht="14.4">
       <c r="A970" s="23"/>
       <c r="B970" s="23"/>
       <c r="C970" s="23"/>
@@ -23009,7 +23012,7 @@
       <c r="N970" s="23"/>
       <c r="O970" s="23"/>
     </row>
-    <row r="971" spans="1:15">
+    <row r="971" spans="1:15" ht="14.4">
       <c r="A971" s="23"/>
       <c r="B971" s="23"/>
       <c r="C971" s="23"/>
@@ -23026,7 +23029,7 @@
       <c r="N971" s="23"/>
       <c r="O971" s="23"/>
     </row>
-    <row r="972" spans="1:15">
+    <row r="972" spans="1:15" ht="14.4">
       <c r="A972" s="23"/>
       <c r="B972" s="23"/>
       <c r="C972" s="23"/>
@@ -23043,7 +23046,7 @@
       <c r="N972" s="23"/>
       <c r="O972" s="23"/>
     </row>
-    <row r="973" spans="1:15">
+    <row r="973" spans="1:15" ht="14.4">
       <c r="A973" s="23"/>
       <c r="B973" s="23"/>
       <c r="C973" s="23"/>
@@ -23060,7 +23063,7 @@
       <c r="N973" s="23"/>
       <c r="O973" s="23"/>
     </row>
-    <row r="974" spans="1:15">
+    <row r="974" spans="1:15" ht="14.4">
       <c r="A974" s="23"/>
       <c r="B974" s="23"/>
       <c r="C974" s="23"/>
@@ -23077,7 +23080,7 @@
       <c r="N974" s="23"/>
       <c r="O974" s="23"/>
     </row>
-    <row r="975" spans="1:15">
+    <row r="975" spans="1:15" ht="14.4">
       <c r="A975" s="23"/>
       <c r="B975" s="23"/>
       <c r="C975" s="23"/>
@@ -23125,16 +23128,16 @@
   </sheetPr>
   <dimension ref="A1:N2545"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="8" width="24.28515625" customWidth="1"/>
+    <col min="1" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23518,7 +23521,9 @@
       <c r="G12" s="22">
         <v>6</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -64194,13 +64199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64282,9 +64287,9 @@
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -64451,3879 +64456,3879 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" ht="12.75">
+    <row r="32" spans="1:2" ht="13.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" ht="12.75">
+    <row r="33" spans="1:2" ht="13.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="12.75">
+    <row r="34" spans="1:2" ht="13.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="12.75">
+    <row r="35" spans="1:2" ht="13.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="12.75">
+    <row r="36" spans="1:2" ht="13.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="12.75">
+    <row r="37" spans="1:2" ht="13.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="12.75">
+    <row r="38" spans="1:2" ht="13.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="12.75">
+    <row r="39" spans="1:2" ht="13.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="12.75">
+    <row r="40" spans="1:2" ht="13.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="12.75">
+    <row r="41" spans="1:2" ht="13.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="12.75">
+    <row r="42" spans="1:2" ht="13.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="12.75">
+    <row r="43" spans="1:2" ht="13.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="12.75">
+    <row r="44" spans="1:2" ht="13.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="12.75">
+    <row r="45" spans="1:2" ht="13.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="12.75">
+    <row r="46" spans="1:2" ht="13.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="12.75">
+    <row r="47" spans="1:2" ht="13.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="12.75">
+    <row r="48" spans="1:2" ht="13.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="12.75">
+    <row r="49" spans="1:2" ht="13.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="12.75">
+    <row r="50" spans="1:2" ht="13.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="12.75">
+    <row r="51" spans="1:2" ht="13.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="12.75">
+    <row r="52" spans="1:2" ht="13.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="12.75">
+    <row r="53" spans="1:2" ht="13.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="12.75">
+    <row r="54" spans="1:2" ht="13.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="12.75">
+    <row r="55" spans="1:2" ht="13.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="12.75">
+    <row r="56" spans="1:2" ht="13.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="12.75">
+    <row r="57" spans="1:2" ht="13.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="12.75">
+    <row r="58" spans="1:2" ht="13.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="12.75">
+    <row r="59" spans="1:2" ht="13.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="12.75">
+    <row r="60" spans="1:2" ht="13.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="12.75">
+    <row r="61" spans="1:2" ht="13.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="12.75">
+    <row r="62" spans="1:2" ht="13.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="12.75">
+    <row r="63" spans="1:2" ht="13.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="12.75">
+    <row r="64" spans="1:2" ht="13.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="12.75">
+    <row r="65" spans="1:2" ht="13.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="12.75">
+    <row r="66" spans="1:2" ht="13.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="12.75">
+    <row r="67" spans="1:2" ht="13.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="12.75">
+    <row r="68" spans="1:2" ht="13.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="12.75">
+    <row r="69" spans="1:2" ht="13.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="12.75">
+    <row r="70" spans="1:2" ht="13.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="12.75">
+    <row r="71" spans="1:2" ht="13.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="12.75">
+    <row r="72" spans="1:2" ht="13.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="12.75">
+    <row r="73" spans="1:2" ht="13.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="12.75">
+    <row r="74" spans="1:2" ht="13.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" ht="12.75">
+    <row r="75" spans="1:2" ht="13.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:2" ht="12.75">
+    <row r="76" spans="1:2" ht="13.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2" ht="12.75">
+    <row r="77" spans="1:2" ht="13.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" ht="12.75">
+    <row r="78" spans="1:2" ht="13.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2" ht="12.75">
+    <row r="79" spans="1:2" ht="13.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" ht="12.75">
+    <row r="80" spans="1:2" ht="13.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" ht="12.75">
+    <row r="81" spans="1:2" ht="13.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="1:2" ht="12.75">
+    <row r="82" spans="1:2" ht="13.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2" ht="12.75">
+    <row r="83" spans="1:2" ht="13.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2" ht="12.75">
+    <row r="84" spans="1:2" ht="13.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2" ht="12.75">
+    <row r="85" spans="1:2" ht="13.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:2" ht="12.75">
+    <row r="86" spans="1:2" ht="13.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:2" ht="12.75">
+    <row r="87" spans="1:2" ht="13.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2" ht="12.75">
+    <row r="88" spans="1:2" ht="13.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2" ht="12.75">
+    <row r="89" spans="1:2" ht="13.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="1:2" ht="12.75">
+    <row r="90" spans="1:2" ht="13.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2" ht="12.75">
+    <row r="91" spans="1:2" ht="13.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" ht="12.75">
+    <row r="92" spans="1:2" ht="13.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2" ht="12.75">
+    <row r="93" spans="1:2" ht="13.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:2" ht="12.75">
+    <row r="94" spans="1:2" ht="13.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2" ht="12.75">
+    <row r="95" spans="1:2" ht="13.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:2" ht="12.75">
+    <row r="96" spans="1:2" ht="13.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2" ht="12.75">
+    <row r="97" spans="1:2" ht="13.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:2" ht="12.75">
+    <row r="98" spans="1:2" ht="13.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2" ht="12.75">
+    <row r="99" spans="1:2" ht="13.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" ht="12.75">
+    <row r="100" spans="1:2" ht="13.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" ht="12.75">
+    <row r="101" spans="1:2" ht="13.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" ht="12.75">
+    <row r="102" spans="1:2" ht="13.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" ht="12.75">
+    <row r="103" spans="1:2" ht="13.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" ht="12.75">
+    <row r="104" spans="1:2" ht="13.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" ht="12.75">
+    <row r="105" spans="1:2" ht="13.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" ht="12.75">
+    <row r="106" spans="1:2" ht="13.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" ht="12.75">
+    <row r="107" spans="1:2" ht="13.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" ht="12.75">
+    <row r="108" spans="1:2" ht="13.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" ht="12.75">
+    <row r="109" spans="1:2" ht="13.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" ht="12.75">
+    <row r="110" spans="1:2" ht="13.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" ht="12.75">
+    <row r="111" spans="1:2" ht="13.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" ht="12.75">
+    <row r="112" spans="1:2" ht="13.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2" ht="12.75">
+    <row r="113" spans="1:2" ht="13.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2" ht="12.75">
+    <row r="114" spans="1:2" ht="13.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="1:2" ht="12.75">
+    <row r="115" spans="1:2" ht="13.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:2" ht="12.75">
+    <row r="116" spans="1:2" ht="13.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="1:2" ht="12.75">
+    <row r="117" spans="1:2" ht="13.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:2" ht="12.75">
+    <row r="118" spans="1:2" ht="13.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="1:2" ht="12.75">
+    <row r="119" spans="1:2" ht="13.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="1:2" ht="12.75">
+    <row r="120" spans="1:2" ht="13.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="1:2" ht="12.75">
+    <row r="121" spans="1:2" ht="13.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:2" ht="12.75">
+    <row r="122" spans="1:2" ht="13.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="1:2" ht="12.75">
+    <row r="123" spans="1:2" ht="13.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:2" ht="12.75">
+    <row r="124" spans="1:2" ht="13.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:2" ht="12.75">
+    <row r="125" spans="1:2" ht="13.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="1:2" ht="12.75">
+    <row r="126" spans="1:2" ht="13.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="1:2" ht="12.75">
+    <row r="127" spans="1:2" ht="13.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="1:2" ht="12.75">
+    <row r="128" spans="1:2" ht="13.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="1:2" ht="12.75">
+    <row r="129" spans="1:2" ht="13.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="1:2" ht="12.75">
+    <row r="130" spans="1:2" ht="13.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="1:2" ht="12.75">
+    <row r="131" spans="1:2" ht="13.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="1:2" ht="12.75">
+    <row r="132" spans="1:2" ht="13.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:2" ht="12.75">
+    <row r="133" spans="1:2" ht="13.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="1:2" ht="12.75">
+    <row r="134" spans="1:2" ht="13.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:2" ht="12.75">
+    <row r="135" spans="1:2" ht="13.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:2" ht="12.75">
+    <row r="136" spans="1:2" ht="13.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:2" ht="12.75">
+    <row r="137" spans="1:2" ht="13.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="1:2" ht="12.75">
+    <row r="138" spans="1:2" ht="13.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:2" ht="12.75">
+    <row r="139" spans="1:2" ht="13.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="1:2" ht="12.75">
+    <row r="140" spans="1:2" ht="13.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="1:2" ht="12.75">
+    <row r="141" spans="1:2" ht="13.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:2" ht="12.75">
+    <row r="142" spans="1:2" ht="13.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:2" ht="12.75">
+    <row r="143" spans="1:2" ht="13.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:2" ht="12.75">
+    <row r="144" spans="1:2" ht="13.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="1:2" ht="12.75">
+    <row r="145" spans="1:2" ht="13.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="1:2" ht="12.75">
+    <row r="146" spans="1:2" ht="13.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="1:2" ht="12.75">
+    <row r="147" spans="1:2" ht="13.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="1:2" ht="12.75">
+    <row r="148" spans="1:2" ht="13.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="1:2" ht="12.75">
+    <row r="149" spans="1:2" ht="13.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="1:2" ht="12.75">
+    <row r="150" spans="1:2" ht="13.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2" ht="12.75">
+    <row r="151" spans="1:2" ht="13.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2" ht="12.75">
+    <row r="152" spans="1:2" ht="13.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2" ht="12.75">
+    <row r="153" spans="1:2" ht="13.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2" ht="12.75">
+    <row r="154" spans="1:2" ht="13.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2" ht="12.75">
+    <row r="155" spans="1:2" ht="13.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2" ht="12.75">
+    <row r="156" spans="1:2" ht="13.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2" ht="12.75">
+    <row r="157" spans="1:2" ht="13.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2" ht="12.75">
+    <row r="158" spans="1:2" ht="13.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2" ht="12.75">
+    <row r="159" spans="1:2" ht="13.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2" ht="12.75">
+    <row r="160" spans="1:2" ht="13.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2" ht="12.75">
+    <row r="161" spans="1:2" ht="13.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="1:2" ht="12.75">
+    <row r="162" spans="1:2" ht="13.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2" ht="12.75">
+    <row r="163" spans="1:2" ht="13.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="1:2" ht="12.75">
+    <row r="164" spans="1:2" ht="13.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2" ht="12.75">
+    <row r="165" spans="1:2" ht="13.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="1:2" ht="12.75">
+    <row r="166" spans="1:2" ht="13.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:2" ht="12.75">
+    <row r="167" spans="1:2" ht="13.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="1:2" ht="12.75">
+    <row r="168" spans="1:2" ht="13.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2" ht="12.75">
+    <row r="169" spans="1:2" ht="13.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2" ht="12.75">
+    <row r="170" spans="1:2" ht="13.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2" ht="12.75">
+    <row r="171" spans="1:2" ht="13.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="1:2" ht="12.75">
+    <row r="172" spans="1:2" ht="13.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2" ht="12.75">
+    <row r="173" spans="1:2" ht="13.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="1:2" ht="12.75">
+    <row r="174" spans="1:2" ht="13.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="1:2" ht="12.75">
+    <row r="175" spans="1:2" ht="13.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="1:2" ht="12.75">
+    <row r="176" spans="1:2" ht="13.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="1:2" ht="12.75">
+    <row r="177" spans="1:2" ht="13.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="1:2" ht="12.75">
+    <row r="178" spans="1:2" ht="13.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="1:2" ht="12.75">
+    <row r="179" spans="1:2" ht="13.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="1:2" ht="12.75">
+    <row r="180" spans="1:2" ht="13.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="1:2" ht="12.75">
+    <row r="181" spans="1:2" ht="13.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="1:2" ht="12.75">
+    <row r="182" spans="1:2" ht="13.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="1:2" ht="12.75">
+    <row r="183" spans="1:2" ht="13.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="1:2" ht="12.75">
+    <row r="184" spans="1:2" ht="13.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="1:2" ht="12.75">
+    <row r="185" spans="1:2" ht="13.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="1:2" ht="12.75">
+    <row r="186" spans="1:2" ht="13.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="1:2" ht="12.75">
+    <row r="187" spans="1:2" ht="13.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="1:2" ht="12.75">
+    <row r="188" spans="1:2" ht="13.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:2" ht="12.75">
+    <row r="189" spans="1:2" ht="13.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:2" ht="12.75">
+    <row r="190" spans="1:2" ht="13.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="1:2" ht="12.75">
+    <row r="191" spans="1:2" ht="13.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:2" ht="12.75">
+    <row r="192" spans="1:2" ht="13.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" ht="12.75">
+    <row r="193" spans="1:2" ht="13.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" ht="12.75">
+    <row r="194" spans="1:2" ht="13.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" ht="12.75">
+    <row r="195" spans="1:2" ht="13.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" ht="12.75">
+    <row r="196" spans="1:2" ht="13.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" ht="12.75">
+    <row r="197" spans="1:2" ht="13.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" ht="12.75">
+    <row r="198" spans="1:2" ht="13.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" ht="12.75">
+    <row r="199" spans="1:2" ht="13.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="1:2" ht="12.75">
+    <row r="200" spans="1:2" ht="13.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="1:2" ht="12.75">
+    <row r="201" spans="1:2" ht="13.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="1:2" ht="12.75">
+    <row r="202" spans="1:2" ht="13.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2" ht="12.75">
+    <row r="203" spans="1:2" ht="13.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="1:2" ht="12.75">
+    <row r="204" spans="1:2" ht="13.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:2" ht="12.75">
+    <row r="205" spans="1:2" ht="13.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="1:2" ht="12.75">
+    <row r="206" spans="1:2" ht="13.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="1:2" ht="12.75">
+    <row r="207" spans="1:2" ht="13.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="1:2" ht="12.75">
+    <row r="208" spans="1:2" ht="13.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="1:2" ht="12.75">
+    <row r="209" spans="1:2" ht="13.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="1:2" ht="12.75">
+    <row r="210" spans="1:2" ht="13.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="1:2" ht="12.75">
+    <row r="211" spans="1:2" ht="13.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="1:2" ht="12.75">
+    <row r="212" spans="1:2" ht="13.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="1:2" ht="12.75">
+    <row r="213" spans="1:2" ht="13.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="1:2" ht="12.75">
+    <row r="214" spans="1:2" ht="13.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="1:2" ht="12.75">
+    <row r="215" spans="1:2" ht="13.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="1:2" ht="12.75">
+    <row r="216" spans="1:2" ht="13.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="1:2" ht="12.75">
+    <row r="217" spans="1:2" ht="13.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="1:2" ht="12.75">
+    <row r="218" spans="1:2" ht="13.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="1:2" ht="12.75">
+    <row r="219" spans="1:2" ht="13.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="1:2" ht="12.75">
+    <row r="220" spans="1:2" ht="13.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:2" ht="12.75">
+    <row r="221" spans="1:2" ht="13.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="1:2" ht="12.75">
+    <row r="222" spans="1:2" ht="13.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="1:2" ht="12.75">
+    <row r="223" spans="1:2" ht="13.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="1:2" ht="12.75">
+    <row r="224" spans="1:2" ht="13.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="1:2" ht="12.75">
+    <row r="225" spans="1:2" ht="13.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="1:2" ht="12.75">
+    <row r="226" spans="1:2" ht="13.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="1:2" ht="12.75">
+    <row r="227" spans="1:2" ht="13.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="1:2" ht="12.75">
+    <row r="228" spans="1:2" ht="13.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="1:2" ht="12.75">
+    <row r="229" spans="1:2" ht="13.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="1:2" ht="12.75">
+    <row r="230" spans="1:2" ht="13.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="1:2" ht="12.75">
+    <row r="231" spans="1:2" ht="13.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="1:2" ht="12.75">
+    <row r="232" spans="1:2" ht="13.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="1:2" ht="12.75">
+    <row r="233" spans="1:2" ht="13.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="1:2" ht="12.75">
+    <row r="234" spans="1:2" ht="13.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="1:2" ht="12.75">
+    <row r="235" spans="1:2" ht="13.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="1:2" ht="12.75">
+    <row r="236" spans="1:2" ht="13.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:2" ht="12.75">
+    <row r="237" spans="1:2" ht="13.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:2" ht="12.75">
+    <row r="238" spans="1:2" ht="13.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="1:2" ht="12.75">
+    <row r="239" spans="1:2" ht="13.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="1:2" ht="12.75">
+    <row r="240" spans="1:2" ht="13.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="1:2" ht="12.75">
+    <row r="241" spans="1:2" ht="13.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="1:2" ht="12.75">
+    <row r="242" spans="1:2" ht="13.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="1:2" ht="12.75">
+    <row r="243" spans="1:2" ht="13.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:2" ht="12.75">
+    <row r="244" spans="1:2" ht="13.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="1:2" ht="12.75">
+    <row r="245" spans="1:2" ht="13.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="1:2" ht="12.75">
+    <row r="246" spans="1:2" ht="13.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="1:2" ht="12.75">
+    <row r="247" spans="1:2" ht="13.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="1:2" ht="12.75">
+    <row r="248" spans="1:2" ht="13.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="1:2" ht="12.75">
+    <row r="249" spans="1:2" ht="13.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="1:2" ht="12.75">
+    <row r="250" spans="1:2" ht="13.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="1:2" ht="12.75">
+    <row r="251" spans="1:2" ht="13.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:2" ht="12.75">
+    <row r="252" spans="1:2" ht="13.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="1:2" ht="12.75">
+    <row r="253" spans="1:2" ht="13.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:2" ht="12.75">
+    <row r="254" spans="1:2" ht="13.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:2" ht="12.75">
+    <row r="255" spans="1:2" ht="13.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="1:2" ht="12.75">
+    <row r="256" spans="1:2" ht="13.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="1:2" ht="12.75">
+    <row r="257" spans="1:2" ht="13.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="1:2" ht="12.75">
+    <row r="258" spans="1:2" ht="13.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="1:2" ht="12.75">
+    <row r="259" spans="1:2" ht="13.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="1:2" ht="12.75">
+    <row r="260" spans="1:2" ht="13.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="1:2" ht="12.75">
+    <row r="261" spans="1:2" ht="13.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="1:2" ht="12.75">
+    <row r="262" spans="1:2" ht="13.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="1:2" ht="12.75">
+    <row r="263" spans="1:2" ht="13.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="1:2" ht="12.75">
+    <row r="264" spans="1:2" ht="13.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="1:2" ht="12.75">
+    <row r="265" spans="1:2" ht="13.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="1:2" ht="12.75">
+    <row r="266" spans="1:2" ht="13.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="1:2" ht="12.75">
+    <row r="267" spans="1:2" ht="13.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="1:2" ht="12.75">
+    <row r="268" spans="1:2" ht="13.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="1:2" ht="12.75">
+    <row r="269" spans="1:2" ht="13.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:2" ht="12.75">
+    <row r="270" spans="1:2" ht="13.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:2" ht="12.75">
+    <row r="271" spans="1:2" ht="13.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:2" ht="12.75">
+    <row r="272" spans="1:2" ht="13.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="1:2" ht="12.75">
+    <row r="273" spans="1:2" ht="13.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="1:2" ht="12.75">
+    <row r="274" spans="1:2" ht="13.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="1:2" ht="12.75">
+    <row r="275" spans="1:2" ht="13.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="1:2" ht="12.75">
+    <row r="276" spans="1:2" ht="13.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="1:2" ht="12.75">
+    <row r="277" spans="1:2" ht="13.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="1:2" ht="12.75">
+    <row r="278" spans="1:2" ht="13.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="1:2" ht="12.75">
+    <row r="279" spans="1:2" ht="13.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="1:2" ht="12.75">
+    <row r="280" spans="1:2" ht="13.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="1:2" ht="12.75">
+    <row r="281" spans="1:2" ht="13.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="1:2" ht="12.75">
+    <row r="282" spans="1:2" ht="13.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="1:2" ht="12.75">
+    <row r="283" spans="1:2" ht="13.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="1:2" ht="12.75">
+    <row r="284" spans="1:2" ht="13.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="1:2" ht="12.75">
+    <row r="285" spans="1:2" ht="13.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="1:2" ht="12.75">
+    <row r="286" spans="1:2" ht="13.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:2" ht="12.75">
+    <row r="287" spans="1:2" ht="13.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="1:2" ht="12.75">
+    <row r="288" spans="1:2" ht="13.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="1:2" ht="12.75">
+    <row r="289" spans="1:2" ht="13.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:2" ht="12.75">
+    <row r="290" spans="1:2" ht="13.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="1:2" ht="12.75">
+    <row r="291" spans="1:2" ht="13.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="1:2" ht="12.75">
+    <row r="292" spans="1:2" ht="13.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
     </row>
-    <row r="293" spans="1:2" ht="12.75">
+    <row r="293" spans="1:2" ht="13.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" ht="12.75">
+    <row r="294" spans="1:2" ht="13.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
     </row>
-    <row r="295" spans="1:2" ht="12.75">
+    <row r="295" spans="1:2" ht="13.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
     </row>
-    <row r="296" spans="1:2" ht="12.75">
+    <row r="296" spans="1:2" ht="13.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
     </row>
-    <row r="297" spans="1:2" ht="12.75">
+    <row r="297" spans="1:2" ht="13.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" ht="12.75">
+    <row r="298" spans="1:2" ht="13.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
     </row>
-    <row r="299" spans="1:2" ht="12.75">
+    <row r="299" spans="1:2" ht="13.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
     </row>
-    <row r="300" spans="1:2" ht="12.75">
+    <row r="300" spans="1:2" ht="13.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" ht="12.75">
+    <row r="301" spans="1:2" ht="13.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:2" ht="12.75">
+    <row r="302" spans="1:2" ht="13.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="12.75">
+    <row r="303" spans="1:2" ht="13.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" ht="12.75">
+    <row r="304" spans="1:2" ht="13.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="1:2" ht="12.75">
+    <row r="305" spans="1:2" ht="13.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="1:2" ht="12.75">
+    <row r="306" spans="1:2" ht="13.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="1:2" ht="12.75">
+    <row r="307" spans="1:2" ht="13.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="1:2" ht="12.75">
+    <row r="308" spans="1:2" ht="13.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="1:2" ht="12.75">
+    <row r="309" spans="1:2" ht="13.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="1:2" ht="12.75">
+    <row r="310" spans="1:2" ht="13.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="1:2" ht="12.75">
+    <row r="311" spans="1:2" ht="13.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="1:2" ht="12.75">
+    <row r="312" spans="1:2" ht="13.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="1:2" ht="12.75">
+    <row r="313" spans="1:2" ht="13.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="1:2" ht="12.75">
+    <row r="314" spans="1:2" ht="13.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="1:2" ht="12.75">
+    <row r="315" spans="1:2" ht="13.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="1:2" ht="12.75">
+    <row r="316" spans="1:2" ht="13.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="1:2" ht="12.75">
+    <row r="317" spans="1:2" ht="13.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="1:2" ht="12.75">
+    <row r="318" spans="1:2" ht="13.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="1:2" ht="12.75">
+    <row r="319" spans="1:2" ht="13.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="1:2" ht="12.75">
+    <row r="320" spans="1:2" ht="13.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
     </row>
-    <row r="321" spans="1:2" ht="12.75">
+    <row r="321" spans="1:2" ht="13.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
     </row>
-    <row r="322" spans="1:2" ht="12.75">
+    <row r="322" spans="1:2" ht="13.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
     </row>
-    <row r="323" spans="1:2" ht="12.75">
+    <row r="323" spans="1:2" ht="13.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="1:2" ht="12.75">
+    <row r="324" spans="1:2" ht="13.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
     </row>
-    <row r="325" spans="1:2" ht="12.75">
+    <row r="325" spans="1:2" ht="13.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
     </row>
-    <row r="326" spans="1:2" ht="12.75">
+    <row r="326" spans="1:2" ht="13.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
     </row>
-    <row r="327" spans="1:2" ht="12.75">
+    <row r="327" spans="1:2" ht="13.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
     </row>
-    <row r="328" spans="1:2" ht="12.75">
+    <row r="328" spans="1:2" ht="13.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
     </row>
-    <row r="329" spans="1:2" ht="12.75">
+    <row r="329" spans="1:2" ht="13.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
     </row>
-    <row r="330" spans="1:2" ht="12.75">
+    <row r="330" spans="1:2" ht="13.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
     </row>
-    <row r="331" spans="1:2" ht="12.75">
+    <row r="331" spans="1:2" ht="13.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="1:2" ht="12.75">
+    <row r="332" spans="1:2" ht="13.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="1:2" ht="12.75">
+    <row r="333" spans="1:2" ht="13.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="1:2" ht="12.75">
+    <row r="334" spans="1:2" ht="13.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="1:2" ht="12.75">
+    <row r="335" spans="1:2" ht="13.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" ht="12.75">
+    <row r="336" spans="1:2" ht="13.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="1:2" ht="12.75">
+    <row r="337" spans="1:2" ht="13.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
     </row>
-    <row r="338" spans="1:2" ht="12.75">
+    <row r="338" spans="1:2" ht="13.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
     </row>
-    <row r="339" spans="1:2" ht="12.75">
+    <row r="339" spans="1:2" ht="13.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="1:2" ht="12.75">
+    <row r="340" spans="1:2" ht="13.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="1:2" ht="12.75">
+    <row r="341" spans="1:2" ht="13.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="1:2" ht="12.75">
+    <row r="342" spans="1:2" ht="13.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="1:2" ht="12.75">
+    <row r="343" spans="1:2" ht="13.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" ht="12.75">
+    <row r="344" spans="1:2" ht="13.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="1:2" ht="12.75">
+    <row r="345" spans="1:2" ht="13.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
     </row>
-    <row r="346" spans="1:2" ht="12.75">
+    <row r="346" spans="1:2" ht="13.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" ht="12.75">
+    <row r="347" spans="1:2" ht="13.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="1:2" ht="12.75">
+    <row r="348" spans="1:2" ht="13.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="12.75">
+    <row r="349" spans="1:2" ht="13.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
     </row>
-    <row r="350" spans="1:2" ht="12.75">
+    <row r="350" spans="1:2" ht="13.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
     </row>
-    <row r="351" spans="1:2" ht="12.75">
+    <row r="351" spans="1:2" ht="13.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
     </row>
-    <row r="352" spans="1:2" ht="12.75">
+    <row r="352" spans="1:2" ht="13.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
     </row>
-    <row r="353" spans="1:2" ht="12.75">
+    <row r="353" spans="1:2" ht="13.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
     </row>
-    <row r="354" spans="1:2" ht="12.75">
+    <row r="354" spans="1:2" ht="13.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
     </row>
-    <row r="355" spans="1:2" ht="12.75">
+    <row r="355" spans="1:2" ht="13.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="1:2" ht="12.75">
+    <row r="356" spans="1:2" ht="13.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
     </row>
-    <row r="357" spans="1:2" ht="12.75">
+    <row r="357" spans="1:2" ht="13.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
     </row>
-    <row r="358" spans="1:2" ht="12.75">
+    <row r="358" spans="1:2" ht="13.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
     </row>
-    <row r="359" spans="1:2" ht="12.75">
+    <row r="359" spans="1:2" ht="13.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
     </row>
-    <row r="360" spans="1:2" ht="12.75">
+    <row r="360" spans="1:2" ht="13.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="1:2" ht="12.75">
+    <row r="361" spans="1:2" ht="13.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="1:2" ht="12.75">
+    <row r="362" spans="1:2" ht="13.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
     </row>
-    <row r="363" spans="1:2" ht="12.75">
+    <row r="363" spans="1:2" ht="13.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
     </row>
-    <row r="364" spans="1:2" ht="12.75">
+    <row r="364" spans="1:2" ht="13.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
     </row>
-    <row r="365" spans="1:2" ht="12.75">
+    <row r="365" spans="1:2" ht="13.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
     </row>
-    <row r="366" spans="1:2" ht="12.75">
+    <row r="366" spans="1:2" ht="13.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
     </row>
-    <row r="367" spans="1:2" ht="12.75">
+    <row r="367" spans="1:2" ht="13.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
     </row>
-    <row r="368" spans="1:2" ht="12.75">
+    <row r="368" spans="1:2" ht="13.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
     </row>
-    <row r="369" spans="1:2" ht="12.75">
+    <row r="369" spans="1:2" ht="13.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
     </row>
-    <row r="370" spans="1:2" ht="12.75">
+    <row r="370" spans="1:2" ht="13.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
     </row>
-    <row r="371" spans="1:2" ht="12.75">
+    <row r="371" spans="1:2" ht="13.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="1:2" ht="12.75">
+    <row r="372" spans="1:2" ht="13.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="1:2" ht="12.75">
+    <row r="373" spans="1:2" ht="13.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="1:2" ht="12.75">
+    <row r="374" spans="1:2" ht="13.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
     </row>
-    <row r="375" spans="1:2" ht="12.75">
+    <row r="375" spans="1:2" ht="13.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
     </row>
-    <row r="376" spans="1:2" ht="12.75">
+    <row r="376" spans="1:2" ht="13.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="1:2" ht="12.75">
+    <row r="377" spans="1:2" ht="13.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
     </row>
-    <row r="378" spans="1:2" ht="12.75">
+    <row r="378" spans="1:2" ht="13.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="1:2" ht="12.75">
+    <row r="379" spans="1:2" ht="13.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="1:2" ht="12.75">
+    <row r="380" spans="1:2" ht="13.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
     </row>
-    <row r="381" spans="1:2" ht="12.75">
+    <row r="381" spans="1:2" ht="13.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" ht="12.75">
+    <row r="382" spans="1:2" ht="13.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="1:2" ht="12.75">
+    <row r="383" spans="1:2" ht="13.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
     </row>
-    <row r="384" spans="1:2" ht="12.75">
+    <row r="384" spans="1:2" ht="13.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
     </row>
-    <row r="385" spans="1:2" ht="12.75">
+    <row r="385" spans="1:2" ht="13.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="1:2" ht="12.75">
+    <row r="386" spans="1:2" ht="13.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="1:2" ht="12.75">
+    <row r="387" spans="1:2" ht="13.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
     </row>
-    <row r="388" spans="1:2" ht="12.75">
+    <row r="388" spans="1:2" ht="13.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="1:2" ht="12.75">
+    <row r="389" spans="1:2" ht="13.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" ht="12.75">
+    <row r="390" spans="1:2" ht="13.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
     </row>
-    <row r="391" spans="1:2" ht="12.75">
+    <row r="391" spans="1:2" ht="13.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="1:2" ht="12.75">
+    <row r="392" spans="1:2" ht="13.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" ht="12.75">
+    <row r="393" spans="1:2" ht="13.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="1:2" ht="12.75">
+    <row r="394" spans="1:2" ht="13.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="12.75">
+    <row r="395" spans="1:2" ht="13.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
     </row>
-    <row r="396" spans="1:2" ht="12.75">
+    <row r="396" spans="1:2" ht="13.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="1:2" ht="12.75">
+    <row r="397" spans="1:2" ht="13.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="1:2" ht="12.75">
+    <row r="398" spans="1:2" ht="13.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="1:2" ht="12.75">
+    <row r="399" spans="1:2" ht="13.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="1:2" ht="12.75">
+    <row r="400" spans="1:2" ht="13.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="1:2" ht="12.75">
+    <row r="401" spans="1:2" ht="13.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="1:2" ht="12.75">
+    <row r="402" spans="1:2" ht="13.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="1:2" ht="12.75">
+    <row r="403" spans="1:2" ht="13.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="1:2" ht="12.75">
+    <row r="404" spans="1:2" ht="13.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="1:2" ht="12.75">
+    <row r="405" spans="1:2" ht="13.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
     </row>
-    <row r="406" spans="1:2" ht="12.75">
+    <row r="406" spans="1:2" ht="13.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="1:2" ht="12.75">
+    <row r="407" spans="1:2" ht="13.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
     </row>
-    <row r="408" spans="1:2" ht="12.75">
+    <row r="408" spans="1:2" ht="13.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
     </row>
-    <row r="409" spans="1:2" ht="12.75">
+    <row r="409" spans="1:2" ht="13.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
     </row>
-    <row r="410" spans="1:2" ht="12.75">
+    <row r="410" spans="1:2" ht="13.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
     </row>
-    <row r="411" spans="1:2" ht="12.75">
+    <row r="411" spans="1:2" ht="13.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
     </row>
-    <row r="412" spans="1:2" ht="12.75">
+    <row r="412" spans="1:2" ht="13.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
     </row>
-    <row r="413" spans="1:2" ht="12.75">
+    <row r="413" spans="1:2" ht="13.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
     </row>
-    <row r="414" spans="1:2" ht="12.75">
+    <row r="414" spans="1:2" ht="13.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
     </row>
-    <row r="415" spans="1:2" ht="12.75">
+    <row r="415" spans="1:2" ht="13.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
     </row>
-    <row r="416" spans="1:2" ht="12.75">
+    <row r="416" spans="1:2" ht="13.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
     </row>
-    <row r="417" spans="1:2" ht="12.75">
+    <row r="417" spans="1:2" ht="13.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
     </row>
-    <row r="418" spans="1:2" ht="12.75">
+    <row r="418" spans="1:2" ht="13.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
     </row>
-    <row r="419" spans="1:2" ht="12.75">
+    <row r="419" spans="1:2" ht="13.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
     </row>
-    <row r="420" spans="1:2" ht="12.75">
+    <row r="420" spans="1:2" ht="13.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
     </row>
-    <row r="421" spans="1:2" ht="12.75">
+    <row r="421" spans="1:2" ht="13.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:2" ht="12.75">
+    <row r="422" spans="1:2" ht="13.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
     </row>
-    <row r="423" spans="1:2" ht="12.75">
+    <row r="423" spans="1:2" ht="13.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
     </row>
-    <row r="424" spans="1:2" ht="12.75">
+    <row r="424" spans="1:2" ht="13.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
     </row>
-    <row r="425" spans="1:2" ht="12.75">
+    <row r="425" spans="1:2" ht="13.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
     </row>
-    <row r="426" spans="1:2" ht="12.75">
+    <row r="426" spans="1:2" ht="13.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
     </row>
-    <row r="427" spans="1:2" ht="12.75">
+    <row r="427" spans="1:2" ht="13.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" ht="12.75">
+    <row r="428" spans="1:2" ht="13.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
     </row>
-    <row r="429" spans="1:2" ht="12.75">
+    <row r="429" spans="1:2" ht="13.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
     </row>
-    <row r="430" spans="1:2" ht="12.75">
+    <row r="430" spans="1:2" ht="13.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
     </row>
-    <row r="431" spans="1:2" ht="12.75">
+    <row r="431" spans="1:2" ht="13.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
     </row>
-    <row r="432" spans="1:2" ht="12.75">
+    <row r="432" spans="1:2" ht="13.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
     </row>
-    <row r="433" spans="1:2" ht="12.75">
+    <row r="433" spans="1:2" ht="13.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
     </row>
-    <row r="434" spans="1:2" ht="12.75">
+    <row r="434" spans="1:2" ht="13.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
     </row>
-    <row r="435" spans="1:2" ht="12.75">
+    <row r="435" spans="1:2" ht="13.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:2" ht="12.75">
+    <row r="436" spans="1:2" ht="13.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:2" ht="12.75">
+    <row r="437" spans="1:2" ht="13.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
     </row>
-    <row r="438" spans="1:2" ht="12.75">
+    <row r="438" spans="1:2" ht="13.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" ht="12.75">
+    <row r="439" spans="1:2" ht="13.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
     </row>
-    <row r="440" spans="1:2" ht="12.75">
+    <row r="440" spans="1:2" ht="13.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="12.75">
+    <row r="441" spans="1:2" ht="13.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
     </row>
-    <row r="442" spans="1:2" ht="12.75">
+    <row r="442" spans="1:2" ht="13.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
     </row>
-    <row r="443" spans="1:2" ht="12.75">
+    <row r="443" spans="1:2" ht="13.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
     </row>
-    <row r="444" spans="1:2" ht="12.75">
+    <row r="444" spans="1:2" ht="13.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
     </row>
-    <row r="445" spans="1:2" ht="12.75">
+    <row r="445" spans="1:2" ht="13.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
     </row>
-    <row r="446" spans="1:2" ht="12.75">
+    <row r="446" spans="1:2" ht="13.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
     </row>
-    <row r="447" spans="1:2" ht="12.75">
+    <row r="447" spans="1:2" ht="13.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
     </row>
-    <row r="448" spans="1:2" ht="12.75">
+    <row r="448" spans="1:2" ht="13.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
     </row>
-    <row r="449" spans="1:2" ht="12.75">
+    <row r="449" spans="1:2" ht="13.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
     </row>
-    <row r="450" spans="1:2" ht="12.75">
+    <row r="450" spans="1:2" ht="13.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
     </row>
-    <row r="451" spans="1:2" ht="12.75">
+    <row r="451" spans="1:2" ht="13.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
     </row>
-    <row r="452" spans="1:2" ht="12.75">
+    <row r="452" spans="1:2" ht="13.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
     </row>
-    <row r="453" spans="1:2" ht="12.75">
+    <row r="453" spans="1:2" ht="13.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
     </row>
-    <row r="454" spans="1:2" ht="12.75">
+    <row r="454" spans="1:2" ht="13.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
     </row>
-    <row r="455" spans="1:2" ht="12.75">
+    <row r="455" spans="1:2" ht="13.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
     </row>
-    <row r="456" spans="1:2" ht="12.75">
+    <row r="456" spans="1:2" ht="13.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
     </row>
-    <row r="457" spans="1:2" ht="12.75">
+    <row r="457" spans="1:2" ht="13.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
     </row>
-    <row r="458" spans="1:2" ht="12.75">
+    <row r="458" spans="1:2" ht="13.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
     </row>
-    <row r="459" spans="1:2" ht="12.75">
+    <row r="459" spans="1:2" ht="13.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
     </row>
-    <row r="460" spans="1:2" ht="12.75">
+    <row r="460" spans="1:2" ht="13.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
     </row>
-    <row r="461" spans="1:2" ht="12.75">
+    <row r="461" spans="1:2" ht="13.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
     </row>
-    <row r="462" spans="1:2" ht="12.75">
+    <row r="462" spans="1:2" ht="13.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
     </row>
-    <row r="463" spans="1:2" ht="12.75">
+    <row r="463" spans="1:2" ht="13.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
     </row>
-    <row r="464" spans="1:2" ht="12.75">
+    <row r="464" spans="1:2" ht="13.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
     </row>
-    <row r="465" spans="1:2" ht="12.75">
+    <row r="465" spans="1:2" ht="13.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
     </row>
-    <row r="466" spans="1:2" ht="12.75">
+    <row r="466" spans="1:2" ht="13.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
     </row>
-    <row r="467" spans="1:2" ht="12.75">
+    <row r="467" spans="1:2" ht="13.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
     </row>
-    <row r="468" spans="1:2" ht="12.75">
+    <row r="468" spans="1:2" ht="13.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
     </row>
-    <row r="469" spans="1:2" ht="12.75">
+    <row r="469" spans="1:2" ht="13.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
     </row>
-    <row r="470" spans="1:2" ht="12.75">
+    <row r="470" spans="1:2" ht="13.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
     </row>
-    <row r="471" spans="1:2" ht="12.75">
+    <row r="471" spans="1:2" ht="13.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
     </row>
-    <row r="472" spans="1:2" ht="12.75">
+    <row r="472" spans="1:2" ht="13.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" ht="12.75">
+    <row r="473" spans="1:2" ht="13.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
     </row>
-    <row r="474" spans="1:2" ht="12.75">
+    <row r="474" spans="1:2" ht="13.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
     </row>
-    <row r="475" spans="1:2" ht="12.75">
+    <row r="475" spans="1:2" ht="13.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
     </row>
-    <row r="476" spans="1:2" ht="12.75">
+    <row r="476" spans="1:2" ht="13.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
     </row>
-    <row r="477" spans="1:2" ht="12.75">
+    <row r="477" spans="1:2" ht="13.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
     </row>
-    <row r="478" spans="1:2" ht="12.75">
+    <row r="478" spans="1:2" ht="13.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
     </row>
-    <row r="479" spans="1:2" ht="12.75">
+    <row r="479" spans="1:2" ht="13.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
     </row>
-    <row r="480" spans="1:2" ht="12.75">
+    <row r="480" spans="1:2" ht="13.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:2" ht="12.75">
+    <row r="481" spans="1:2" ht="13.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
     </row>
-    <row r="482" spans="1:2" ht="12.75">
+    <row r="482" spans="1:2" ht="13.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
     </row>
-    <row r="483" spans="1:2" ht="12.75">
+    <row r="483" spans="1:2" ht="13.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:2" ht="12.75">
+    <row r="484" spans="1:2" ht="13.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
     </row>
-    <row r="485" spans="1:2" ht="12.75">
+    <row r="485" spans="1:2" ht="13.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
     </row>
-    <row r="486" spans="1:2" ht="12.75">
+    <row r="486" spans="1:2" ht="13.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
     </row>
-    <row r="487" spans="1:2" ht="12.75">
+    <row r="487" spans="1:2" ht="13.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
     </row>
-    <row r="488" spans="1:2" ht="12.75">
+    <row r="488" spans="1:2" ht="13.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
     </row>
-    <row r="489" spans="1:2" ht="12.75">
+    <row r="489" spans="1:2" ht="13.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
     </row>
-    <row r="490" spans="1:2" ht="12.75">
+    <row r="490" spans="1:2" ht="13.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
     </row>
-    <row r="491" spans="1:2" ht="12.75">
+    <row r="491" spans="1:2" ht="13.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
     </row>
-    <row r="492" spans="1:2" ht="12.75">
+    <row r="492" spans="1:2" ht="13.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
     </row>
-    <row r="493" spans="1:2" ht="12.75">
+    <row r="493" spans="1:2" ht="13.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
     </row>
-    <row r="494" spans="1:2" ht="12.75">
+    <row r="494" spans="1:2" ht="13.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
     </row>
-    <row r="495" spans="1:2" ht="12.75">
+    <row r="495" spans="1:2" ht="13.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
     </row>
-    <row r="496" spans="1:2" ht="12.75">
+    <row r="496" spans="1:2" ht="13.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
     </row>
-    <row r="497" spans="1:2" ht="12.75">
+    <row r="497" spans="1:2" ht="13.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
     </row>
-    <row r="498" spans="1:2" ht="12.75">
+    <row r="498" spans="1:2" ht="13.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
     </row>
-    <row r="499" spans="1:2" ht="12.75">
+    <row r="499" spans="1:2" ht="13.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
     </row>
-    <row r="500" spans="1:2" ht="12.75">
+    <row r="500" spans="1:2" ht="13.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
     </row>
-    <row r="501" spans="1:2" ht="12.75">
+    <row r="501" spans="1:2" ht="13.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
     </row>
-    <row r="502" spans="1:2" ht="12.75">
+    <row r="502" spans="1:2" ht="13.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
     </row>
-    <row r="503" spans="1:2" ht="12.75">
+    <row r="503" spans="1:2" ht="13.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
     </row>
-    <row r="504" spans="1:2" ht="12.75">
+    <row r="504" spans="1:2" ht="13.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
     </row>
-    <row r="505" spans="1:2" ht="12.75">
+    <row r="505" spans="1:2" ht="13.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
     </row>
-    <row r="506" spans="1:2" ht="12.75">
+    <row r="506" spans="1:2" ht="13.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
     </row>
-    <row r="507" spans="1:2" ht="12.75">
+    <row r="507" spans="1:2" ht="13.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
     </row>
-    <row r="508" spans="1:2" ht="12.75">
+    <row r="508" spans="1:2" ht="13.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
     </row>
-    <row r="509" spans="1:2" ht="12.75">
+    <row r="509" spans="1:2" ht="13.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
     </row>
-    <row r="510" spans="1:2" ht="12.75">
+    <row r="510" spans="1:2" ht="13.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
     </row>
-    <row r="511" spans="1:2" ht="12.75">
+    <row r="511" spans="1:2" ht="13.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
     </row>
-    <row r="512" spans="1:2" ht="12.75">
+    <row r="512" spans="1:2" ht="13.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
     </row>
-    <row r="513" spans="1:2" ht="12.75">
+    <row r="513" spans="1:2" ht="13.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
     </row>
-    <row r="514" spans="1:2" ht="12.75">
+    <row r="514" spans="1:2" ht="13.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
     </row>
-    <row r="515" spans="1:2" ht="12.75">
+    <row r="515" spans="1:2" ht="13.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
     </row>
-    <row r="516" spans="1:2" ht="12.75">
+    <row r="516" spans="1:2" ht="13.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
     </row>
-    <row r="517" spans="1:2" ht="12.75">
+    <row r="517" spans="1:2" ht="13.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
     </row>
-    <row r="518" spans="1:2" ht="12.75">
+    <row r="518" spans="1:2" ht="13.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" ht="12.75">
+    <row r="519" spans="1:2" ht="13.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
     </row>
-    <row r="520" spans="1:2" ht="12.75">
+    <row r="520" spans="1:2" ht="13.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
     </row>
-    <row r="521" spans="1:2" ht="12.75">
+    <row r="521" spans="1:2" ht="13.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
     </row>
-    <row r="522" spans="1:2" ht="12.75">
+    <row r="522" spans="1:2" ht="13.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
     </row>
-    <row r="523" spans="1:2" ht="12.75">
+    <row r="523" spans="1:2" ht="13.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
     </row>
-    <row r="524" spans="1:2" ht="12.75">
+    <row r="524" spans="1:2" ht="13.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
     </row>
-    <row r="525" spans="1:2" ht="12.75">
+    <row r="525" spans="1:2" ht="13.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
     </row>
-    <row r="526" spans="1:2" ht="12.75">
+    <row r="526" spans="1:2" ht="13.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" ht="12.75">
+    <row r="527" spans="1:2" ht="13.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
     </row>
-    <row r="528" spans="1:2" ht="12.75">
+    <row r="528" spans="1:2" ht="13.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
     </row>
-    <row r="529" spans="1:2" ht="12.75">
+    <row r="529" spans="1:2" ht="13.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:2" ht="12.75">
+    <row r="530" spans="1:2" ht="13.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
     </row>
-    <row r="531" spans="1:2" ht="12.75">
+    <row r="531" spans="1:2" ht="13.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
     </row>
-    <row r="532" spans="1:2" ht="12.75">
+    <row r="532" spans="1:2" ht="13.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
     </row>
-    <row r="533" spans="1:2" ht="12.75">
+    <row r="533" spans="1:2" ht="13.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
     </row>
-    <row r="534" spans="1:2" ht="12.75">
+    <row r="534" spans="1:2" ht="13.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
     </row>
-    <row r="535" spans="1:2" ht="12.75">
+    <row r="535" spans="1:2" ht="13.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
     </row>
-    <row r="536" spans="1:2" ht="12.75">
+    <row r="536" spans="1:2" ht="13.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
     </row>
-    <row r="537" spans="1:2" ht="12.75">
+    <row r="537" spans="1:2" ht="13.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
     </row>
-    <row r="538" spans="1:2" ht="12.75">
+    <row r="538" spans="1:2" ht="13.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
     </row>
-    <row r="539" spans="1:2" ht="12.75">
+    <row r="539" spans="1:2" ht="13.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
     </row>
-    <row r="540" spans="1:2" ht="12.75">
+    <row r="540" spans="1:2" ht="13.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
     </row>
-    <row r="541" spans="1:2" ht="12.75">
+    <row r="541" spans="1:2" ht="13.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
     </row>
-    <row r="542" spans="1:2" ht="12.75">
+    <row r="542" spans="1:2" ht="13.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
     </row>
-    <row r="543" spans="1:2" ht="12.75">
+    <row r="543" spans="1:2" ht="13.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
     </row>
-    <row r="544" spans="1:2" ht="12.75">
+    <row r="544" spans="1:2" ht="13.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
     </row>
-    <row r="545" spans="1:2" ht="12.75">
+    <row r="545" spans="1:2" ht="13.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
     </row>
-    <row r="546" spans="1:2" ht="12.75">
+    <row r="546" spans="1:2" ht="13.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
     </row>
-    <row r="547" spans="1:2" ht="12.75">
+    <row r="547" spans="1:2" ht="13.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
     </row>
-    <row r="548" spans="1:2" ht="12.75">
+    <row r="548" spans="1:2" ht="13.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
     </row>
-    <row r="549" spans="1:2" ht="12.75">
+    <row r="549" spans="1:2" ht="13.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
     </row>
-    <row r="550" spans="1:2" ht="12.75">
+    <row r="550" spans="1:2" ht="13.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
     </row>
-    <row r="551" spans="1:2" ht="12.75">
+    <row r="551" spans="1:2" ht="13.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
     </row>
-    <row r="552" spans="1:2" ht="12.75">
+    <row r="552" spans="1:2" ht="13.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
     </row>
-    <row r="553" spans="1:2" ht="12.75">
+    <row r="553" spans="1:2" ht="13.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
     </row>
-    <row r="554" spans="1:2" ht="12.75">
+    <row r="554" spans="1:2" ht="13.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
     </row>
-    <row r="555" spans="1:2" ht="12.75">
+    <row r="555" spans="1:2" ht="13.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
     </row>
-    <row r="556" spans="1:2" ht="12.75">
+    <row r="556" spans="1:2" ht="13.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
     </row>
-    <row r="557" spans="1:2" ht="12.75">
+    <row r="557" spans="1:2" ht="13.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
     </row>
-    <row r="558" spans="1:2" ht="12.75">
+    <row r="558" spans="1:2" ht="13.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
     </row>
-    <row r="559" spans="1:2" ht="12.75">
+    <row r="559" spans="1:2" ht="13.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
     </row>
-    <row r="560" spans="1:2" ht="12.75">
+    <row r="560" spans="1:2" ht="13.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
     </row>
-    <row r="561" spans="1:2" ht="12.75">
+    <row r="561" spans="1:2" ht="13.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="1:2" ht="12.75">
+    <row r="562" spans="1:2" ht="13.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
     </row>
-    <row r="563" spans="1:2" ht="12.75">
+    <row r="563" spans="1:2" ht="13.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
     </row>
-    <row r="564" spans="1:2" ht="12.75">
+    <row r="564" spans="1:2" ht="13.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
     </row>
-    <row r="565" spans="1:2" ht="12.75">
+    <row r="565" spans="1:2" ht="13.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
     </row>
-    <row r="566" spans="1:2" ht="12.75">
+    <row r="566" spans="1:2" ht="13.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
     </row>
-    <row r="567" spans="1:2" ht="12.75">
+    <row r="567" spans="1:2" ht="13.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
     </row>
-    <row r="568" spans="1:2" ht="12.75">
+    <row r="568" spans="1:2" ht="13.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
     </row>
-    <row r="569" spans="1:2" ht="12.75">
+    <row r="569" spans="1:2" ht="13.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
     </row>
-    <row r="570" spans="1:2" ht="12.75">
+    <row r="570" spans="1:2" ht="13.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
     </row>
-    <row r="571" spans="1:2" ht="12.75">
+    <row r="571" spans="1:2" ht="13.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
     </row>
-    <row r="572" spans="1:2" ht="12.75">
+    <row r="572" spans="1:2" ht="13.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
     </row>
-    <row r="573" spans="1:2" ht="12.75">
+    <row r="573" spans="1:2" ht="13.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
     </row>
-    <row r="574" spans="1:2" ht="12.75">
+    <row r="574" spans="1:2" ht="13.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
     </row>
-    <row r="575" spans="1:2" ht="12.75">
+    <row r="575" spans="1:2" ht="13.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
     </row>
-    <row r="576" spans="1:2" ht="12.75">
+    <row r="576" spans="1:2" ht="13.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
     </row>
-    <row r="577" spans="1:2" ht="12.75">
+    <row r="577" spans="1:2" ht="13.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
     </row>
-    <row r="578" spans="1:2" ht="12.75">
+    <row r="578" spans="1:2" ht="13.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
     </row>
-    <row r="579" spans="1:2" ht="12.75">
+    <row r="579" spans="1:2" ht="13.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
     </row>
-    <row r="580" spans="1:2" ht="12.75">
+    <row r="580" spans="1:2" ht="13.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
     </row>
-    <row r="581" spans="1:2" ht="12.75">
+    <row r="581" spans="1:2" ht="13.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
     </row>
-    <row r="582" spans="1:2" ht="12.75">
+    <row r="582" spans="1:2" ht="13.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
     </row>
-    <row r="583" spans="1:2" ht="12.75">
+    <row r="583" spans="1:2" ht="13.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
     </row>
-    <row r="584" spans="1:2" ht="12.75">
+    <row r="584" spans="1:2" ht="13.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
     </row>
-    <row r="585" spans="1:2" ht="12.75">
+    <row r="585" spans="1:2" ht="13.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
     </row>
-    <row r="586" spans="1:2" ht="12.75">
+    <row r="586" spans="1:2" ht="13.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
     </row>
-    <row r="587" spans="1:2" ht="12.75">
+    <row r="587" spans="1:2" ht="13.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
     </row>
-    <row r="588" spans="1:2" ht="12.75">
+    <row r="588" spans="1:2" ht="13.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
     </row>
-    <row r="589" spans="1:2" ht="12.75">
+    <row r="589" spans="1:2" ht="13.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
     </row>
-    <row r="590" spans="1:2" ht="12.75">
+    <row r="590" spans="1:2" ht="13.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
     </row>
-    <row r="591" spans="1:2" ht="12.75">
+    <row r="591" spans="1:2" ht="13.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
     </row>
-    <row r="592" spans="1:2" ht="12.75">
+    <row r="592" spans="1:2" ht="13.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
     </row>
-    <row r="593" spans="1:2" ht="12.75">
+    <row r="593" spans="1:2" ht="13.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
     </row>
-    <row r="594" spans="1:2" ht="12.75">
+    <row r="594" spans="1:2" ht="13.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
     </row>
-    <row r="595" spans="1:2" ht="12.75">
+    <row r="595" spans="1:2" ht="13.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
     </row>
-    <row r="596" spans="1:2" ht="12.75">
+    <row r="596" spans="1:2" ht="13.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
     </row>
-    <row r="597" spans="1:2" ht="12.75">
+    <row r="597" spans="1:2" ht="13.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
     </row>
-    <row r="598" spans="1:2" ht="12.75">
+    <row r="598" spans="1:2" ht="13.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
     </row>
-    <row r="599" spans="1:2" ht="12.75">
+    <row r="599" spans="1:2" ht="13.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
     </row>
-    <row r="600" spans="1:2" ht="12.75">
+    <row r="600" spans="1:2" ht="13.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
     </row>
-    <row r="601" spans="1:2" ht="12.75">
+    <row r="601" spans="1:2" ht="13.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
     </row>
-    <row r="602" spans="1:2" ht="12.75">
+    <row r="602" spans="1:2" ht="13.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
     </row>
-    <row r="603" spans="1:2" ht="12.75">
+    <row r="603" spans="1:2" ht="13.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
     </row>
-    <row r="604" spans="1:2" ht="12.75">
+    <row r="604" spans="1:2" ht="13.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
     </row>
-    <row r="605" spans="1:2" ht="12.75">
+    <row r="605" spans="1:2" ht="13.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
     </row>
-    <row r="606" spans="1:2" ht="12.75">
+    <row r="606" spans="1:2" ht="13.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
     </row>
-    <row r="607" spans="1:2" ht="12.75">
+    <row r="607" spans="1:2" ht="13.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
     </row>
-    <row r="608" spans="1:2" ht="12.75">
+    <row r="608" spans="1:2" ht="13.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
     </row>
-    <row r="609" spans="1:2" ht="12.75">
+    <row r="609" spans="1:2" ht="13.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
     </row>
-    <row r="610" spans="1:2" ht="12.75">
+    <row r="610" spans="1:2" ht="13.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
     </row>
-    <row r="611" spans="1:2" ht="12.75">
+    <row r="611" spans="1:2" ht="13.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
     </row>
-    <row r="612" spans="1:2" ht="12.75">
+    <row r="612" spans="1:2" ht="13.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
     </row>
-    <row r="613" spans="1:2" ht="12.75">
+    <row r="613" spans="1:2" ht="13.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
     </row>
-    <row r="614" spans="1:2" ht="12.75">
+    <row r="614" spans="1:2" ht="13.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
     </row>
-    <row r="615" spans="1:2" ht="12.75">
+    <row r="615" spans="1:2" ht="13.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
     </row>
-    <row r="616" spans="1:2" ht="12.75">
+    <row r="616" spans="1:2" ht="13.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
     </row>
-    <row r="617" spans="1:2" ht="12.75">
+    <row r="617" spans="1:2" ht="13.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
     </row>
-    <row r="618" spans="1:2" ht="12.75">
+    <row r="618" spans="1:2" ht="13.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
     </row>
-    <row r="619" spans="1:2" ht="12.75">
+    <row r="619" spans="1:2" ht="13.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
     </row>
-    <row r="620" spans="1:2" ht="12.75">
+    <row r="620" spans="1:2" ht="13.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
     </row>
-    <row r="621" spans="1:2" ht="12.75">
+    <row r="621" spans="1:2" ht="13.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
     </row>
-    <row r="622" spans="1:2" ht="12.75">
+    <row r="622" spans="1:2" ht="13.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
     </row>
-    <row r="623" spans="1:2" ht="12.75">
+    <row r="623" spans="1:2" ht="13.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
     </row>
-    <row r="624" spans="1:2" ht="12.75">
+    <row r="624" spans="1:2" ht="13.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
     </row>
-    <row r="625" spans="1:2" ht="12.75">
+    <row r="625" spans="1:2" ht="13.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
     </row>
-    <row r="626" spans="1:2" ht="12.75">
+    <row r="626" spans="1:2" ht="13.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
     </row>
-    <row r="627" spans="1:2" ht="12.75">
+    <row r="627" spans="1:2" ht="13.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
     </row>
-    <row r="628" spans="1:2" ht="12.75">
+    <row r="628" spans="1:2" ht="13.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
     </row>
-    <row r="629" spans="1:2" ht="12.75">
+    <row r="629" spans="1:2" ht="13.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
     </row>
-    <row r="630" spans="1:2" ht="12.75">
+    <row r="630" spans="1:2" ht="13.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
     </row>
-    <row r="631" spans="1:2" ht="12.75">
+    <row r="631" spans="1:2" ht="13.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
     </row>
-    <row r="632" spans="1:2" ht="12.75">
+    <row r="632" spans="1:2" ht="13.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
     </row>
-    <row r="633" spans="1:2" ht="12.75">
+    <row r="633" spans="1:2" ht="13.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
     </row>
-    <row r="634" spans="1:2" ht="12.75">
+    <row r="634" spans="1:2" ht="13.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
     </row>
-    <row r="635" spans="1:2" ht="12.75">
+    <row r="635" spans="1:2" ht="13.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
     </row>
-    <row r="636" spans="1:2" ht="12.75">
+    <row r="636" spans="1:2" ht="13.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
     </row>
-    <row r="637" spans="1:2" ht="12.75">
+    <row r="637" spans="1:2" ht="13.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
     </row>
-    <row r="638" spans="1:2" ht="12.75">
+    <row r="638" spans="1:2" ht="13.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
     </row>
-    <row r="639" spans="1:2" ht="12.75">
+    <row r="639" spans="1:2" ht="13.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
     </row>
-    <row r="640" spans="1:2" ht="12.75">
+    <row r="640" spans="1:2" ht="13.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
     </row>
-    <row r="641" spans="1:2" ht="12.75">
+    <row r="641" spans="1:2" ht="13.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
     </row>
-    <row r="642" spans="1:2" ht="12.75">
+    <row r="642" spans="1:2" ht="13.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
     </row>
-    <row r="643" spans="1:2" ht="12.75">
+    <row r="643" spans="1:2" ht="13.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
     </row>
-    <row r="644" spans="1:2" ht="12.75">
+    <row r="644" spans="1:2" ht="13.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
     </row>
-    <row r="645" spans="1:2" ht="12.75">
+    <row r="645" spans="1:2" ht="13.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
     </row>
-    <row r="646" spans="1:2" ht="12.75">
+    <row r="646" spans="1:2" ht="13.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
     </row>
-    <row r="647" spans="1:2" ht="12.75">
+    <row r="647" spans="1:2" ht="13.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
     </row>
-    <row r="648" spans="1:2" ht="12.75">
+    <row r="648" spans="1:2" ht="13.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
     </row>
-    <row r="649" spans="1:2" ht="12.75">
+    <row r="649" spans="1:2" ht="13.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
     </row>
-    <row r="650" spans="1:2" ht="12.75">
+    <row r="650" spans="1:2" ht="13.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
     </row>
-    <row r="651" spans="1:2" ht="12.75">
+    <row r="651" spans="1:2" ht="13.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
     </row>
-    <row r="652" spans="1:2" ht="12.75">
+    <row r="652" spans="1:2" ht="13.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
     </row>
-    <row r="653" spans="1:2" ht="12.75">
+    <row r="653" spans="1:2" ht="13.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
     </row>
-    <row r="654" spans="1:2" ht="12.75">
+    <row r="654" spans="1:2" ht="13.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
     </row>
-    <row r="655" spans="1:2" ht="12.75">
+    <row r="655" spans="1:2" ht="13.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
     </row>
-    <row r="656" spans="1:2" ht="12.75">
+    <row r="656" spans="1:2" ht="13.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
     </row>
-    <row r="657" spans="1:2" ht="12.75">
+    <row r="657" spans="1:2" ht="13.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
     </row>
-    <row r="658" spans="1:2" ht="12.75">
+    <row r="658" spans="1:2" ht="13.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
     </row>
-    <row r="659" spans="1:2" ht="12.75">
+    <row r="659" spans="1:2" ht="13.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
     </row>
-    <row r="660" spans="1:2" ht="12.75">
+    <row r="660" spans="1:2" ht="13.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
     </row>
-    <row r="661" spans="1:2" ht="12.75">
+    <row r="661" spans="1:2" ht="13.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
     </row>
-    <row r="662" spans="1:2" ht="12.75">
+    <row r="662" spans="1:2" ht="13.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
     </row>
-    <row r="663" spans="1:2" ht="12.75">
+    <row r="663" spans="1:2" ht="13.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
     </row>
-    <row r="664" spans="1:2" ht="12.75">
+    <row r="664" spans="1:2" ht="13.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
     </row>
-    <row r="665" spans="1:2" ht="12.75">
+    <row r="665" spans="1:2" ht="13.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
     </row>
-    <row r="666" spans="1:2" ht="12.75">
+    <row r="666" spans="1:2" ht="13.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
     </row>
-    <row r="667" spans="1:2" ht="12.75">
+    <row r="667" spans="1:2" ht="13.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
     </row>
-    <row r="668" spans="1:2" ht="12.75">
+    <row r="668" spans="1:2" ht="13.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
     </row>
-    <row r="669" spans="1:2" ht="12.75">
+    <row r="669" spans="1:2" ht="13.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
     </row>
-    <row r="670" spans="1:2" ht="12.75">
+    <row r="670" spans="1:2" ht="13.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
     </row>
-    <row r="671" spans="1:2" ht="12.75">
+    <row r="671" spans="1:2" ht="13.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
     </row>
-    <row r="672" spans="1:2" ht="12.75">
+    <row r="672" spans="1:2" ht="13.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
     </row>
-    <row r="673" spans="1:2" ht="12.75">
+    <row r="673" spans="1:2" ht="13.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
     </row>
-    <row r="674" spans="1:2" ht="12.75">
+    <row r="674" spans="1:2" ht="13.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
     </row>
-    <row r="675" spans="1:2" ht="12.75">
+    <row r="675" spans="1:2" ht="13.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
     </row>
-    <row r="676" spans="1:2" ht="12.75">
+    <row r="676" spans="1:2" ht="13.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
     </row>
-    <row r="677" spans="1:2" ht="12.75">
+    <row r="677" spans="1:2" ht="13.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
     </row>
-    <row r="678" spans="1:2" ht="12.75">
+    <row r="678" spans="1:2" ht="13.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
     </row>
-    <row r="679" spans="1:2" ht="12.75">
+    <row r="679" spans="1:2" ht="13.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
     </row>
-    <row r="680" spans="1:2" ht="12.75">
+    <row r="680" spans="1:2" ht="13.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
     </row>
-    <row r="681" spans="1:2" ht="12.75">
+    <row r="681" spans="1:2" ht="13.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
     </row>
-    <row r="682" spans="1:2" ht="12.75">
+    <row r="682" spans="1:2" ht="13.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
     </row>
-    <row r="683" spans="1:2" ht="12.75">
+    <row r="683" spans="1:2" ht="13.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
     </row>
-    <row r="684" spans="1:2" ht="12.75">
+    <row r="684" spans="1:2" ht="13.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
     </row>
-    <row r="685" spans="1:2" ht="12.75">
+    <row r="685" spans="1:2" ht="13.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
     </row>
-    <row r="686" spans="1:2" ht="12.75">
+    <row r="686" spans="1:2" ht="13.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
     </row>
-    <row r="687" spans="1:2" ht="12.75">
+    <row r="687" spans="1:2" ht="13.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
     </row>
-    <row r="688" spans="1:2" ht="12.75">
+    <row r="688" spans="1:2" ht="13.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
     </row>
-    <row r="689" spans="1:2" ht="12.75">
+    <row r="689" spans="1:2" ht="13.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
     </row>
-    <row r="690" spans="1:2" ht="12.75">
+    <row r="690" spans="1:2" ht="13.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
     </row>
-    <row r="691" spans="1:2" ht="12.75">
+    <row r="691" spans="1:2" ht="13.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
     </row>
-    <row r="692" spans="1:2" ht="12.75">
+    <row r="692" spans="1:2" ht="13.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
     </row>
-    <row r="693" spans="1:2" ht="12.75">
+    <row r="693" spans="1:2" ht="13.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
     </row>
-    <row r="694" spans="1:2" ht="12.75">
+    <row r="694" spans="1:2" ht="13.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
     </row>
-    <row r="695" spans="1:2" ht="12.75">
+    <row r="695" spans="1:2" ht="13.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
     </row>
-    <row r="696" spans="1:2" ht="12.75">
+    <row r="696" spans="1:2" ht="13.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
     </row>
-    <row r="697" spans="1:2" ht="12.75">
+    <row r="697" spans="1:2" ht="13.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
     </row>
-    <row r="698" spans="1:2" ht="12.75">
+    <row r="698" spans="1:2" ht="13.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
     </row>
-    <row r="699" spans="1:2" ht="12.75">
+    <row r="699" spans="1:2" ht="13.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
     </row>
-    <row r="700" spans="1:2" ht="12.75">
+    <row r="700" spans="1:2" ht="13.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
     </row>
-    <row r="701" spans="1:2" ht="12.75">
+    <row r="701" spans="1:2" ht="13.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
     </row>
-    <row r="702" spans="1:2" ht="12.75">
+    <row r="702" spans="1:2" ht="13.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
     </row>
-    <row r="703" spans="1:2" ht="12.75">
+    <row r="703" spans="1:2" ht="13.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
     </row>
-    <row r="704" spans="1:2" ht="12.75">
+    <row r="704" spans="1:2" ht="13.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
     </row>
-    <row r="705" spans="1:2" ht="12.75">
+    <row r="705" spans="1:2" ht="13.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
     </row>
-    <row r="706" spans="1:2" ht="12.75">
+    <row r="706" spans="1:2" ht="13.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
     </row>
-    <row r="707" spans="1:2" ht="12.75">
+    <row r="707" spans="1:2" ht="13.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
     </row>
-    <row r="708" spans="1:2" ht="12.75">
+    <row r="708" spans="1:2" ht="13.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
     </row>
-    <row r="709" spans="1:2" ht="12.75">
+    <row r="709" spans="1:2" ht="13.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
     </row>
-    <row r="710" spans="1:2" ht="12.75">
+    <row r="710" spans="1:2" ht="13.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
     </row>
-    <row r="711" spans="1:2" ht="12.75">
+    <row r="711" spans="1:2" ht="13.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
     </row>
-    <row r="712" spans="1:2" ht="12.75">
+    <row r="712" spans="1:2" ht="13.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
     </row>
-    <row r="713" spans="1:2" ht="12.75">
+    <row r="713" spans="1:2" ht="13.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
     </row>
-    <row r="714" spans="1:2" ht="12.75">
+    <row r="714" spans="1:2" ht="13.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
     </row>
-    <row r="715" spans="1:2" ht="12.75">
+    <row r="715" spans="1:2" ht="13.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
     </row>
-    <row r="716" spans="1:2" ht="12.75">
+    <row r="716" spans="1:2" ht="13.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
     </row>
-    <row r="717" spans="1:2" ht="12.75">
+    <row r="717" spans="1:2" ht="13.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
     </row>
-    <row r="718" spans="1:2" ht="12.75">
+    <row r="718" spans="1:2" ht="13.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
     </row>
-    <row r="719" spans="1:2" ht="12.75">
+    <row r="719" spans="1:2" ht="13.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
     </row>
-    <row r="720" spans="1:2" ht="12.75">
+    <row r="720" spans="1:2" ht="13.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
     </row>
-    <row r="721" spans="1:2" ht="12.75">
+    <row r="721" spans="1:2" ht="13.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
     </row>
-    <row r="722" spans="1:2" ht="12.75">
+    <row r="722" spans="1:2" ht="13.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
     </row>
-    <row r="723" spans="1:2" ht="12.75">
+    <row r="723" spans="1:2" ht="13.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
     </row>
-    <row r="724" spans="1:2" ht="12.75">
+    <row r="724" spans="1:2" ht="13.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
     </row>
-    <row r="725" spans="1:2" ht="12.75">
+    <row r="725" spans="1:2" ht="13.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
     </row>
-    <row r="726" spans="1:2" ht="12.75">
+    <row r="726" spans="1:2" ht="13.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
     </row>
-    <row r="727" spans="1:2" ht="12.75">
+    <row r="727" spans="1:2" ht="13.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
     </row>
-    <row r="728" spans="1:2" ht="12.75">
+    <row r="728" spans="1:2" ht="13.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
     </row>
-    <row r="729" spans="1:2" ht="12.75">
+    <row r="729" spans="1:2" ht="13.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
     </row>
-    <row r="730" spans="1:2" ht="12.75">
+    <row r="730" spans="1:2" ht="13.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
     </row>
-    <row r="731" spans="1:2" ht="12.75">
+    <row r="731" spans="1:2" ht="13.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
     </row>
-    <row r="732" spans="1:2" ht="12.75">
+    <row r="732" spans="1:2" ht="13.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
     </row>
-    <row r="733" spans="1:2" ht="12.75">
+    <row r="733" spans="1:2" ht="13.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
     </row>
-    <row r="734" spans="1:2" ht="12.75">
+    <row r="734" spans="1:2" ht="13.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
     </row>
-    <row r="735" spans="1:2" ht="12.75">
+    <row r="735" spans="1:2" ht="13.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
     </row>
-    <row r="736" spans="1:2" ht="12.75">
+    <row r="736" spans="1:2" ht="13.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
     </row>
-    <row r="737" spans="1:2" ht="12.75">
+    <row r="737" spans="1:2" ht="13.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
     </row>
-    <row r="738" spans="1:2" ht="12.75">
+    <row r="738" spans="1:2" ht="13.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
     </row>
-    <row r="739" spans="1:2" ht="12.75">
+    <row r="739" spans="1:2" ht="13.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
     </row>
-    <row r="740" spans="1:2" ht="12.75">
+    <row r="740" spans="1:2" ht="13.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
     </row>
-    <row r="741" spans="1:2" ht="12.75">
+    <row r="741" spans="1:2" ht="13.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
     </row>
-    <row r="742" spans="1:2" ht="12.75">
+    <row r="742" spans="1:2" ht="13.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
     </row>
-    <row r="743" spans="1:2" ht="12.75">
+    <row r="743" spans="1:2" ht="13.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
     </row>
-    <row r="744" spans="1:2" ht="12.75">
+    <row r="744" spans="1:2" ht="13.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
     </row>
-    <row r="745" spans="1:2" ht="12.75">
+    <row r="745" spans="1:2" ht="13.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
     </row>
-    <row r="746" spans="1:2" ht="12.75">
+    <row r="746" spans="1:2" ht="13.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
     </row>
-    <row r="747" spans="1:2" ht="12.75">
+    <row r="747" spans="1:2" ht="13.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
     </row>
-    <row r="748" spans="1:2" ht="12.75">
+    <row r="748" spans="1:2" ht="13.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
     </row>
-    <row r="749" spans="1:2" ht="12.75">
+    <row r="749" spans="1:2" ht="13.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
     </row>
-    <row r="750" spans="1:2" ht="12.75">
+    <row r="750" spans="1:2" ht="13.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
     </row>
-    <row r="751" spans="1:2" ht="12.75">
+    <row r="751" spans="1:2" ht="13.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
     </row>
-    <row r="752" spans="1:2" ht="12.75">
+    <row r="752" spans="1:2" ht="13.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
     </row>
-    <row r="753" spans="1:2" ht="12.75">
+    <row r="753" spans="1:2" ht="13.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
     </row>
-    <row r="754" spans="1:2" ht="12.75">
+    <row r="754" spans="1:2" ht="13.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
     </row>
-    <row r="755" spans="1:2" ht="12.75">
+    <row r="755" spans="1:2" ht="13.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
     </row>
-    <row r="756" spans="1:2" ht="12.75">
+    <row r="756" spans="1:2" ht="13.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
     </row>
-    <row r="757" spans="1:2" ht="12.75">
+    <row r="757" spans="1:2" ht="13.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
     </row>
-    <row r="758" spans="1:2" ht="12.75">
+    <row r="758" spans="1:2" ht="13.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
     </row>
-    <row r="759" spans="1:2" ht="12.75">
+    <row r="759" spans="1:2" ht="13.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
     </row>
-    <row r="760" spans="1:2" ht="12.75">
+    <row r="760" spans="1:2" ht="13.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
     </row>
-    <row r="761" spans="1:2" ht="12.75">
+    <row r="761" spans="1:2" ht="13.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
     </row>
-    <row r="762" spans="1:2" ht="12.75">
+    <row r="762" spans="1:2" ht="13.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
     </row>
-    <row r="763" spans="1:2" ht="12.75">
+    <row r="763" spans="1:2" ht="13.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
     </row>
-    <row r="764" spans="1:2" ht="12.75">
+    <row r="764" spans="1:2" ht="13.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
     </row>
-    <row r="765" spans="1:2" ht="12.75">
+    <row r="765" spans="1:2" ht="13.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
     </row>
-    <row r="766" spans="1:2" ht="12.75">
+    <row r="766" spans="1:2" ht="13.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
     </row>
-    <row r="767" spans="1:2" ht="12.75">
+    <row r="767" spans="1:2" ht="13.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
     </row>
-    <row r="768" spans="1:2" ht="12.75">
+    <row r="768" spans="1:2" ht="13.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
     </row>
-    <row r="769" spans="1:2" ht="12.75">
+    <row r="769" spans="1:2" ht="13.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
     </row>
-    <row r="770" spans="1:2" ht="12.75">
+    <row r="770" spans="1:2" ht="13.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
     </row>
-    <row r="771" spans="1:2" ht="12.75">
+    <row r="771" spans="1:2" ht="13.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
     </row>
-    <row r="772" spans="1:2" ht="12.75">
+    <row r="772" spans="1:2" ht="13.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
     </row>
-    <row r="773" spans="1:2" ht="12.75">
+    <row r="773" spans="1:2" ht="13.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
     </row>
-    <row r="774" spans="1:2" ht="12.75">
+    <row r="774" spans="1:2" ht="13.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
     </row>
-    <row r="775" spans="1:2" ht="12.75">
+    <row r="775" spans="1:2" ht="13.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
     </row>
-    <row r="776" spans="1:2" ht="12.75">
+    <row r="776" spans="1:2" ht="13.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
     </row>
-    <row r="777" spans="1:2" ht="12.75">
+    <row r="777" spans="1:2" ht="13.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
     </row>
-    <row r="778" spans="1:2" ht="12.75">
+    <row r="778" spans="1:2" ht="13.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
     </row>
-    <row r="779" spans="1:2" ht="12.75">
+    <row r="779" spans="1:2" ht="13.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
     </row>
-    <row r="780" spans="1:2" ht="12.75">
+    <row r="780" spans="1:2" ht="13.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
     </row>
-    <row r="781" spans="1:2" ht="12.75">
+    <row r="781" spans="1:2" ht="13.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
     </row>
-    <row r="782" spans="1:2" ht="12.75">
+    <row r="782" spans="1:2" ht="13.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
     </row>
-    <row r="783" spans="1:2" ht="12.75">
+    <row r="783" spans="1:2" ht="13.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
     </row>
-    <row r="784" spans="1:2" ht="12.75">
+    <row r="784" spans="1:2" ht="13.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
     </row>
-    <row r="785" spans="1:2" ht="12.75">
+    <row r="785" spans="1:2" ht="13.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
     </row>
-    <row r="786" spans="1:2" ht="12.75">
+    <row r="786" spans="1:2" ht="13.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
     </row>
-    <row r="787" spans="1:2" ht="12.75">
+    <row r="787" spans="1:2" ht="13.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
     </row>
-    <row r="788" spans="1:2" ht="12.75">
+    <row r="788" spans="1:2" ht="13.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
     </row>
-    <row r="789" spans="1:2" ht="12.75">
+    <row r="789" spans="1:2" ht="13.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
     </row>
-    <row r="790" spans="1:2" ht="12.75">
+    <row r="790" spans="1:2" ht="13.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
     </row>
-    <row r="791" spans="1:2" ht="12.75">
+    <row r="791" spans="1:2" ht="13.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
     </row>
-    <row r="792" spans="1:2" ht="12.75">
+    <row r="792" spans="1:2" ht="13.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
     </row>
-    <row r="793" spans="1:2" ht="12.75">
+    <row r="793" spans="1:2" ht="13.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
     </row>
-    <row r="794" spans="1:2" ht="12.75">
+    <row r="794" spans="1:2" ht="13.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
     </row>
-    <row r="795" spans="1:2" ht="12.75">
+    <row r="795" spans="1:2" ht="13.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
     </row>
-    <row r="796" spans="1:2" ht="12.75">
+    <row r="796" spans="1:2" ht="13.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
     </row>
-    <row r="797" spans="1:2" ht="12.75">
+    <row r="797" spans="1:2" ht="13.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
     </row>
-    <row r="798" spans="1:2" ht="12.75">
+    <row r="798" spans="1:2" ht="13.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
     </row>
-    <row r="799" spans="1:2" ht="12.75">
+    <row r="799" spans="1:2" ht="13.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
     </row>
-    <row r="800" spans="1:2" ht="12.75">
+    <row r="800" spans="1:2" ht="13.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
     </row>
-    <row r="801" spans="1:2" ht="12.75">
+    <row r="801" spans="1:2" ht="13.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
     </row>
-    <row r="802" spans="1:2" ht="12.75">
+    <row r="802" spans="1:2" ht="13.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
     </row>
-    <row r="803" spans="1:2" ht="12.75">
+    <row r="803" spans="1:2" ht="13.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
     </row>
-    <row r="804" spans="1:2" ht="12.75">
+    <row r="804" spans="1:2" ht="13.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
     </row>
-    <row r="805" spans="1:2" ht="12.75">
+    <row r="805" spans="1:2" ht="13.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
     </row>
-    <row r="806" spans="1:2" ht="12.75">
+    <row r="806" spans="1:2" ht="13.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
     </row>
-    <row r="807" spans="1:2" ht="12.75">
+    <row r="807" spans="1:2" ht="13.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
     </row>
-    <row r="808" spans="1:2" ht="12.75">
+    <row r="808" spans="1:2" ht="13.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
     </row>
-    <row r="809" spans="1:2" ht="12.75">
+    <row r="809" spans="1:2" ht="13.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
     </row>
-    <row r="810" spans="1:2" ht="12.75">
+    <row r="810" spans="1:2" ht="13.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
     </row>
-    <row r="811" spans="1:2" ht="12.75">
+    <row r="811" spans="1:2" ht="13.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
     </row>
-    <row r="812" spans="1:2" ht="12.75">
+    <row r="812" spans="1:2" ht="13.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
     </row>
-    <row r="813" spans="1:2" ht="12.75">
+    <row r="813" spans="1:2" ht="13.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
     </row>
-    <row r="814" spans="1:2" ht="12.75">
+    <row r="814" spans="1:2" ht="13.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
     </row>
-    <row r="815" spans="1:2" ht="12.75">
+    <row r="815" spans="1:2" ht="13.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
     </row>
-    <row r="816" spans="1:2" ht="12.75">
+    <row r="816" spans="1:2" ht="13.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
     </row>
-    <row r="817" spans="1:2" ht="12.75">
+    <row r="817" spans="1:2" ht="13.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
     </row>
-    <row r="818" spans="1:2" ht="12.75">
+    <row r="818" spans="1:2" ht="13.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
     </row>
-    <row r="819" spans="1:2" ht="12.75">
+    <row r="819" spans="1:2" ht="13.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
     </row>
-    <row r="820" spans="1:2" ht="12.75">
+    <row r="820" spans="1:2" ht="13.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
     </row>
-    <row r="821" spans="1:2" ht="12.75">
+    <row r="821" spans="1:2" ht="13.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
     </row>
-    <row r="822" spans="1:2" ht="12.75">
+    <row r="822" spans="1:2" ht="13.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
     </row>
-    <row r="823" spans="1:2" ht="12.75">
+    <row r="823" spans="1:2" ht="13.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
     </row>
-    <row r="824" spans="1:2" ht="12.75">
+    <row r="824" spans="1:2" ht="13.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
     </row>
-    <row r="825" spans="1:2" ht="12.75">
+    <row r="825" spans="1:2" ht="13.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
     </row>
-    <row r="826" spans="1:2" ht="12.75">
+    <row r="826" spans="1:2" ht="13.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
     </row>
-    <row r="827" spans="1:2" ht="12.75">
+    <row r="827" spans="1:2" ht="13.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
     </row>
-    <row r="828" spans="1:2" ht="12.75">
+    <row r="828" spans="1:2" ht="13.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
     </row>
-    <row r="829" spans="1:2" ht="12.75">
+    <row r="829" spans="1:2" ht="13.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
     </row>
-    <row r="830" spans="1:2" ht="12.75">
+    <row r="830" spans="1:2" ht="13.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
     </row>
-    <row r="831" spans="1:2" ht="12.75">
+    <row r="831" spans="1:2" ht="13.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
     </row>
-    <row r="832" spans="1:2" ht="12.75">
+    <row r="832" spans="1:2" ht="13.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
     </row>
-    <row r="833" spans="1:2" ht="12.75">
+    <row r="833" spans="1:2" ht="13.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
     </row>
-    <row r="834" spans="1:2" ht="12.75">
+    <row r="834" spans="1:2" ht="13.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
     </row>
-    <row r="835" spans="1:2" ht="12.75">
+    <row r="835" spans="1:2" ht="13.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
     </row>
-    <row r="836" spans="1:2" ht="12.75">
+    <row r="836" spans="1:2" ht="13.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
     </row>
-    <row r="837" spans="1:2" ht="12.75">
+    <row r="837" spans="1:2" ht="13.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
     </row>
-    <row r="838" spans="1:2" ht="12.75">
+    <row r="838" spans="1:2" ht="13.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
     </row>
-    <row r="839" spans="1:2" ht="12.75">
+    <row r="839" spans="1:2" ht="13.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
     </row>
-    <row r="840" spans="1:2" ht="12.75">
+    <row r="840" spans="1:2" ht="13.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
     </row>
-    <row r="841" spans="1:2" ht="12.75">
+    <row r="841" spans="1:2" ht="13.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
     </row>
-    <row r="842" spans="1:2" ht="12.75">
+    <row r="842" spans="1:2" ht="13.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
     </row>
-    <row r="843" spans="1:2" ht="12.75">
+    <row r="843" spans="1:2" ht="13.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
     </row>
-    <row r="844" spans="1:2" ht="12.75">
+    <row r="844" spans="1:2" ht="13.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
     </row>
-    <row r="845" spans="1:2" ht="12.75">
+    <row r="845" spans="1:2" ht="13.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
     </row>
-    <row r="846" spans="1:2" ht="12.75">
+    <row r="846" spans="1:2" ht="13.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
     </row>
-    <row r="847" spans="1:2" ht="12.75">
+    <row r="847" spans="1:2" ht="13.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
     </row>
-    <row r="848" spans="1:2" ht="12.75">
+    <row r="848" spans="1:2" ht="13.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
     </row>
-    <row r="849" spans="1:2" ht="12.75">
+    <row r="849" spans="1:2" ht="13.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
     </row>
-    <row r="850" spans="1:2" ht="12.75">
+    <row r="850" spans="1:2" ht="13.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
     </row>
-    <row r="851" spans="1:2" ht="12.75">
+    <row r="851" spans="1:2" ht="13.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
     </row>
-    <row r="852" spans="1:2" ht="12.75">
+    <row r="852" spans="1:2" ht="13.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
     </row>
-    <row r="853" spans="1:2" ht="12.75">
+    <row r="853" spans="1:2" ht="13.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
     </row>
-    <row r="854" spans="1:2" ht="12.75">
+    <row r="854" spans="1:2" ht="13.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
     </row>
-    <row r="855" spans="1:2" ht="12.75">
+    <row r="855" spans="1:2" ht="13.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
     </row>
-    <row r="856" spans="1:2" ht="12.75">
+    <row r="856" spans="1:2" ht="13.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
     </row>
-    <row r="857" spans="1:2" ht="12.75">
+    <row r="857" spans="1:2" ht="13.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
     </row>
-    <row r="858" spans="1:2" ht="12.75">
+    <row r="858" spans="1:2" ht="13.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
     </row>
-    <row r="859" spans="1:2" ht="12.75">
+    <row r="859" spans="1:2" ht="13.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
     </row>
-    <row r="860" spans="1:2" ht="12.75">
+    <row r="860" spans="1:2" ht="13.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
     </row>
-    <row r="861" spans="1:2" ht="12.75">
+    <row r="861" spans="1:2" ht="13.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
     </row>
-    <row r="862" spans="1:2" ht="12.75">
+    <row r="862" spans="1:2" ht="13.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
     </row>
-    <row r="863" spans="1:2" ht="12.75">
+    <row r="863" spans="1:2" ht="13.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
     </row>
-    <row r="864" spans="1:2" ht="12.75">
+    <row r="864" spans="1:2" ht="13.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
     </row>
-    <row r="865" spans="1:2" ht="12.75">
+    <row r="865" spans="1:2" ht="13.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
     </row>
-    <row r="866" spans="1:2" ht="12.75">
+    <row r="866" spans="1:2" ht="13.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
     </row>
-    <row r="867" spans="1:2" ht="12.75">
+    <row r="867" spans="1:2" ht="13.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
     </row>
-    <row r="868" spans="1:2" ht="12.75">
+    <row r="868" spans="1:2" ht="13.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
     </row>
-    <row r="869" spans="1:2" ht="12.75">
+    <row r="869" spans="1:2" ht="13.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
     </row>
-    <row r="870" spans="1:2" ht="12.75">
+    <row r="870" spans="1:2" ht="13.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
     </row>
-    <row r="871" spans="1:2" ht="12.75">
+    <row r="871" spans="1:2" ht="13.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
     </row>
-    <row r="872" spans="1:2" ht="12.75">
+    <row r="872" spans="1:2" ht="13.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
     </row>
-    <row r="873" spans="1:2" ht="12.75">
+    <row r="873" spans="1:2" ht="13.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
     </row>
-    <row r="874" spans="1:2" ht="12.75">
+    <row r="874" spans="1:2" ht="13.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
     </row>
-    <row r="875" spans="1:2" ht="12.75">
+    <row r="875" spans="1:2" ht="13.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
     </row>
-    <row r="876" spans="1:2" ht="12.75">
+    <row r="876" spans="1:2" ht="13.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
     </row>
-    <row r="877" spans="1:2" ht="12.75">
+    <row r="877" spans="1:2" ht="13.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
     </row>
-    <row r="878" spans="1:2" ht="12.75">
+    <row r="878" spans="1:2" ht="13.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
     </row>
-    <row r="879" spans="1:2" ht="12.75">
+    <row r="879" spans="1:2" ht="13.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
     </row>
-    <row r="880" spans="1:2" ht="12.75">
+    <row r="880" spans="1:2" ht="13.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
     </row>
-    <row r="881" spans="1:2" ht="12.75">
+    <row r="881" spans="1:2" ht="13.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
     </row>
-    <row r="882" spans="1:2" ht="12.75">
+    <row r="882" spans="1:2" ht="13.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
     </row>
-    <row r="883" spans="1:2" ht="12.75">
+    <row r="883" spans="1:2" ht="13.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
     </row>
-    <row r="884" spans="1:2" ht="12.75">
+    <row r="884" spans="1:2" ht="13.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
     </row>
-    <row r="885" spans="1:2" ht="12.75">
+    <row r="885" spans="1:2" ht="13.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
     </row>
-    <row r="886" spans="1:2" ht="12.75">
+    <row r="886" spans="1:2" ht="13.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
     </row>
-    <row r="887" spans="1:2" ht="12.75">
+    <row r="887" spans="1:2" ht="13.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
     </row>
-    <row r="888" spans="1:2" ht="12.75">
+    <row r="888" spans="1:2" ht="13.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
     </row>
-    <row r="889" spans="1:2" ht="12.75">
+    <row r="889" spans="1:2" ht="13.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
     </row>
-    <row r="890" spans="1:2" ht="12.75">
+    <row r="890" spans="1:2" ht="13.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
     </row>
-    <row r="891" spans="1:2" ht="12.75">
+    <row r="891" spans="1:2" ht="13.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
     </row>
-    <row r="892" spans="1:2" ht="12.75">
+    <row r="892" spans="1:2" ht="13.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
     </row>
-    <row r="893" spans="1:2" ht="12.75">
+    <row r="893" spans="1:2" ht="13.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
     </row>
-    <row r="894" spans="1:2" ht="12.75">
+    <row r="894" spans="1:2" ht="13.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
     </row>
-    <row r="895" spans="1:2" ht="12.75">
+    <row r="895" spans="1:2" ht="13.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
     </row>
-    <row r="896" spans="1:2" ht="12.75">
+    <row r="896" spans="1:2" ht="13.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
     </row>
-    <row r="897" spans="1:2" ht="12.75">
+    <row r="897" spans="1:2" ht="13.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
     </row>
-    <row r="898" spans="1:2" ht="12.75">
+    <row r="898" spans="1:2" ht="13.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
     </row>
-    <row r="899" spans="1:2" ht="12.75">
+    <row r="899" spans="1:2" ht="13.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
     </row>
-    <row r="900" spans="1:2" ht="12.75">
+    <row r="900" spans="1:2" ht="13.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
     </row>
-    <row r="901" spans="1:2" ht="12.75">
+    <row r="901" spans="1:2" ht="13.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
     </row>
-    <row r="902" spans="1:2" ht="12.75">
+    <row r="902" spans="1:2" ht="13.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
     </row>
-    <row r="903" spans="1:2" ht="12.75">
+    <row r="903" spans="1:2" ht="13.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
     </row>
-    <row r="904" spans="1:2" ht="12.75">
+    <row r="904" spans="1:2" ht="13.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
     </row>
-    <row r="905" spans="1:2" ht="12.75">
+    <row r="905" spans="1:2" ht="13.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
     </row>
-    <row r="906" spans="1:2" ht="12.75">
+    <row r="906" spans="1:2" ht="13.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
     </row>
-    <row r="907" spans="1:2" ht="12.75">
+    <row r="907" spans="1:2" ht="13.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
     </row>
-    <row r="908" spans="1:2" ht="12.75">
+    <row r="908" spans="1:2" ht="13.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
     </row>
-    <row r="909" spans="1:2" ht="12.75">
+    <row r="909" spans="1:2" ht="13.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
     </row>
-    <row r="910" spans="1:2" ht="12.75">
+    <row r="910" spans="1:2" ht="13.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
     </row>
-    <row r="911" spans="1:2" ht="12.75">
+    <row r="911" spans="1:2" ht="13.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
     </row>
-    <row r="912" spans="1:2" ht="12.75">
+    <row r="912" spans="1:2" ht="13.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
     </row>
-    <row r="913" spans="1:2" ht="12.75">
+    <row r="913" spans="1:2" ht="13.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
     </row>
-    <row r="914" spans="1:2" ht="12.75">
+    <row r="914" spans="1:2" ht="13.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
     </row>
-    <row r="915" spans="1:2" ht="12.75">
+    <row r="915" spans="1:2" ht="13.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
     </row>
-    <row r="916" spans="1:2" ht="12.75">
+    <row r="916" spans="1:2" ht="13.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
     </row>
-    <row r="917" spans="1:2" ht="12.75">
+    <row r="917" spans="1:2" ht="13.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
     </row>
-    <row r="918" spans="1:2" ht="12.75">
+    <row r="918" spans="1:2" ht="13.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
     </row>
-    <row r="919" spans="1:2" ht="12.75">
+    <row r="919" spans="1:2" ht="13.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
     </row>
-    <row r="920" spans="1:2" ht="12.75">
+    <row r="920" spans="1:2" ht="13.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
     </row>
-    <row r="921" spans="1:2" ht="12.75">
+    <row r="921" spans="1:2" ht="13.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
     </row>
-    <row r="922" spans="1:2" ht="12.75">
+    <row r="922" spans="1:2" ht="13.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
     </row>
-    <row r="923" spans="1:2" ht="12.75">
+    <row r="923" spans="1:2" ht="13.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
     </row>
-    <row r="924" spans="1:2" ht="12.75">
+    <row r="924" spans="1:2" ht="13.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
     </row>
-    <row r="925" spans="1:2" ht="12.75">
+    <row r="925" spans="1:2" ht="13.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
     </row>
-    <row r="926" spans="1:2" ht="12.75">
+    <row r="926" spans="1:2" ht="13.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
     </row>
-    <row r="927" spans="1:2" ht="12.75">
+    <row r="927" spans="1:2" ht="13.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
     </row>
-    <row r="928" spans="1:2" ht="12.75">
+    <row r="928" spans="1:2" ht="13.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
     </row>
-    <row r="929" spans="1:2" ht="12.75">
+    <row r="929" spans="1:2" ht="13.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
     </row>
-    <row r="930" spans="1:2" ht="12.75">
+    <row r="930" spans="1:2" ht="13.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
     </row>
-    <row r="931" spans="1:2" ht="12.75">
+    <row r="931" spans="1:2" ht="13.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
     </row>
-    <row r="932" spans="1:2" ht="12.75">
+    <row r="932" spans="1:2" ht="13.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
     </row>
-    <row r="933" spans="1:2" ht="12.75">
+    <row r="933" spans="1:2" ht="13.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
     </row>
-    <row r="934" spans="1:2" ht="12.75">
+    <row r="934" spans="1:2" ht="13.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
     </row>
-    <row r="935" spans="1:2" ht="12.75">
+    <row r="935" spans="1:2" ht="13.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
     </row>
-    <row r="936" spans="1:2" ht="12.75">
+    <row r="936" spans="1:2" ht="13.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
     </row>
-    <row r="937" spans="1:2" ht="12.75">
+    <row r="937" spans="1:2" ht="13.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
     </row>
-    <row r="938" spans="1:2" ht="12.75">
+    <row r="938" spans="1:2" ht="13.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
     </row>
-    <row r="939" spans="1:2" ht="12.75">
+    <row r="939" spans="1:2" ht="13.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
     </row>
-    <row r="940" spans="1:2" ht="12.75">
+    <row r="940" spans="1:2" ht="13.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
     </row>
-    <row r="941" spans="1:2" ht="12.75">
+    <row r="941" spans="1:2" ht="13.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
     </row>
-    <row r="942" spans="1:2" ht="12.75">
+    <row r="942" spans="1:2" ht="13.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
     </row>
-    <row r="943" spans="1:2" ht="12.75">
+    <row r="943" spans="1:2" ht="13.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
     </row>
-    <row r="944" spans="1:2" ht="12.75">
+    <row r="944" spans="1:2" ht="13.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
     </row>
-    <row r="945" spans="1:2" ht="12.75">
+    <row r="945" spans="1:2" ht="13.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
     </row>
-    <row r="946" spans="1:2" ht="12.75">
+    <row r="946" spans="1:2" ht="13.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
     </row>
-    <row r="947" spans="1:2" ht="12.75">
+    <row r="947" spans="1:2" ht="13.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
     </row>
-    <row r="948" spans="1:2" ht="12.75">
+    <row r="948" spans="1:2" ht="13.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
     </row>
-    <row r="949" spans="1:2" ht="12.75">
+    <row r="949" spans="1:2" ht="13.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
     </row>
-    <row r="950" spans="1:2" ht="12.75">
+    <row r="950" spans="1:2" ht="13.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
     </row>
-    <row r="951" spans="1:2" ht="12.75">
+    <row r="951" spans="1:2" ht="13.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
     </row>
-    <row r="952" spans="1:2" ht="12.75">
+    <row r="952" spans="1:2" ht="13.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
     </row>
-    <row r="953" spans="1:2" ht="12.75">
+    <row r="953" spans="1:2" ht="13.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
     </row>
-    <row r="954" spans="1:2" ht="12.75">
+    <row r="954" spans="1:2" ht="13.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
     </row>
-    <row r="955" spans="1:2" ht="12.75">
+    <row r="955" spans="1:2" ht="13.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
     </row>
-    <row r="956" spans="1:2" ht="12.75">
+    <row r="956" spans="1:2" ht="13.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
     </row>
-    <row r="957" spans="1:2" ht="12.75">
+    <row r="957" spans="1:2" ht="13.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
     </row>
-    <row r="958" spans="1:2" ht="12.75">
+    <row r="958" spans="1:2" ht="13.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
     </row>
-    <row r="959" spans="1:2" ht="12.75">
+    <row r="959" spans="1:2" ht="13.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
     </row>
-    <row r="960" spans="1:2" ht="12.75">
+    <row r="960" spans="1:2" ht="13.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
     </row>
-    <row r="961" spans="1:2" ht="12.75">
+    <row r="961" spans="1:2" ht="13.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
     </row>
-    <row r="962" spans="1:2" ht="12.75">
+    <row r="962" spans="1:2" ht="13.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
     </row>
-    <row r="963" spans="1:2" ht="12.75">
+    <row r="963" spans="1:2" ht="13.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
     </row>
-    <row r="964" spans="1:2" ht="12.75">
+    <row r="964" spans="1:2" ht="13.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
     </row>
-    <row r="965" spans="1:2" ht="12.75">
+    <row r="965" spans="1:2" ht="13.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
     </row>
-    <row r="966" spans="1:2" ht="12.75">
+    <row r="966" spans="1:2" ht="13.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
     </row>
-    <row r="967" spans="1:2" ht="12.75">
+    <row r="967" spans="1:2" ht="13.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
     </row>
-    <row r="968" spans="1:2" ht="12.75">
+    <row r="968" spans="1:2" ht="13.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
     </row>
-    <row r="969" spans="1:2" ht="12.75">
+    <row r="969" spans="1:2" ht="13.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
     </row>
-    <row r="970" spans="1:2" ht="12.75">
+    <row r="970" spans="1:2" ht="13.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
     </row>
-    <row r="971" spans="1:2" ht="12.75">
+    <row r="971" spans="1:2" ht="13.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
     </row>
-    <row r="972" spans="1:2" ht="12.75">
+    <row r="972" spans="1:2" ht="13.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
     </row>
-    <row r="973" spans="1:2" ht="12.75">
+    <row r="973" spans="1:2" ht="13.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
     </row>
-    <row r="974" spans="1:2" ht="12.75">
+    <row r="974" spans="1:2" ht="13.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
     </row>
-    <row r="975" spans="1:2" ht="12.75">
+    <row r="975" spans="1:2" ht="13.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
     </row>
-    <row r="976" spans="1:2" ht="12.75">
+    <row r="976" spans="1:2" ht="13.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
     </row>
-    <row r="977" spans="1:2" ht="12.75">
+    <row r="977" spans="1:2" ht="13.2">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
     </row>
-    <row r="978" spans="1:2" ht="12.75">
+    <row r="978" spans="1:2" ht="13.2">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
     </row>
-    <row r="979" spans="1:2" ht="12.75">
+    <row r="979" spans="1:2" ht="13.2">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
     </row>
-    <row r="980" spans="1:2" ht="12.75">
+    <row r="980" spans="1:2" ht="13.2">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
     </row>
-    <row r="981" spans="1:2" ht="12.75">
+    <row r="981" spans="1:2" ht="13.2">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
     </row>
-    <row r="982" spans="1:2" ht="12.75">
+    <row r="982" spans="1:2" ht="13.2">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
     </row>
-    <row r="983" spans="1:2" ht="12.75">
+    <row r="983" spans="1:2" ht="13.2">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
     </row>
-    <row r="984" spans="1:2" ht="12.75">
+    <row r="984" spans="1:2" ht="13.2">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
     </row>
-    <row r="985" spans="1:2" ht="12.75">
+    <row r="985" spans="1:2" ht="13.2">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
     </row>
-    <row r="986" spans="1:2" ht="12.75">
+    <row r="986" spans="1:2" ht="13.2">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
     </row>
-    <row r="987" spans="1:2" ht="12.75">
+    <row r="987" spans="1:2" ht="13.2">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
     </row>
-    <row r="988" spans="1:2" ht="12.75">
+    <row r="988" spans="1:2" ht="13.2">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
     </row>
-    <row r="989" spans="1:2" ht="12.75">
+    <row r="989" spans="1:2" ht="13.2">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
     </row>
-    <row r="990" spans="1:2" ht="12.75">
+    <row r="990" spans="1:2" ht="13.2">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
     </row>
-    <row r="991" spans="1:2" ht="12.75">
+    <row r="991" spans="1:2" ht="13.2">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
     </row>
-    <row r="992" spans="1:2" ht="12.75">
+    <row r="992" spans="1:2" ht="13.2">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
     </row>
-    <row r="993" spans="1:2" ht="12.75">
+    <row r="993" spans="1:2" ht="13.2">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
     </row>
-    <row r="994" spans="1:2" ht="12.75">
+    <row r="994" spans="1:2" ht="13.2">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
     </row>
-    <row r="995" spans="1:2" ht="12.75">
+    <row r="995" spans="1:2" ht="13.2">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
     </row>
-    <row r="996" spans="1:2" ht="12.75">
+    <row r="996" spans="1:2" ht="13.2">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
     </row>
-    <row r="997" spans="1:2" ht="12.75">
+    <row r="997" spans="1:2" ht="13.2">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
     </row>
-    <row r="998" spans="1:2" ht="12.75">
+    <row r="998" spans="1:2" ht="13.2">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
     </row>
-    <row r="999" spans="1:2" ht="12.75">
+    <row r="999" spans="1:2" ht="13.2">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
     </row>
-    <row r="1000" spans="1:2" ht="12.75">
+    <row r="1000" spans="1:2" ht="13.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
     </row>
